--- a/small_data/assemb_stat_summs.xlsx
+++ b/small_data/assemb_stat_summs.xlsx
@@ -8,20 +8,21 @@
   </bookViews>
   <sheets>
     <sheet name="tot_rich" sheetId="1" r:id="rId1"/>
-    <sheet name="evenness" sheetId="2" r:id="rId2"/>
-    <sheet name="ept_rich" sheetId="3" r:id="rId3"/>
-    <sheet name="do_rich" sheetId="4" r:id="rId4"/>
-    <sheet name="signal" sheetId="5" r:id="rId5"/>
-    <sheet name="tot_n" sheetId="6" r:id="rId6"/>
-    <sheet name="ept_n" sheetId="7" r:id="rId7"/>
-    <sheet name="do_n" sheetId="8" r:id="rId8"/>
+    <sheet name="shannon_h" sheetId="2" r:id="rId2"/>
+    <sheet name="evenness" sheetId="3" r:id="rId3"/>
+    <sheet name="ept_rich" sheetId="4" r:id="rId4"/>
+    <sheet name="do_rich" sheetId="5" r:id="rId5"/>
+    <sheet name="signal" sheetId="6" r:id="rId6"/>
+    <sheet name="tot_n" sheetId="7" r:id="rId7"/>
+    <sheet name="ept_n" sheetId="8" r:id="rId8"/>
+    <sheet name="do_n" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="3">
   <si>
     <t>mean</t>
   </si>
@@ -1064,662 +1065,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.690743160105123</v>
+        <v>2.48678263297664</v>
       </c>
       <c r="B2">
-        <v>0.372406323087086</v>
+        <v>1.33619258975751</v>
       </c>
       <c r="C2">
-        <v>0.900362542491019</v>
+        <v>3.24278645105576</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.70062008071696</v>
+        <v>2.42979252929104</v>
       </c>
       <c r="B3">
-        <v>0.365301977106447</v>
+        <v>1.2633126322858</v>
       </c>
       <c r="C3">
-        <v>0.92107090886307</v>
+        <v>3.19388768333244</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.638489938012608</v>
+        <v>2.31504093270598</v>
       </c>
       <c r="B4">
-        <v>0.357176232645706</v>
+        <v>1.29131022753671</v>
       </c>
       <c r="C4">
-        <v>0.820739477642202</v>
+        <v>2.98259771798742</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.502271532837136</v>
+        <v>1.82652554751485</v>
       </c>
       <c r="B5">
-        <v>0.196016415764036</v>
+        <v>0.712351027667084</v>
       </c>
       <c r="C5">
-        <v>0.715601183977213</v>
+        <v>2.61519346332583</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.580316882087804</v>
+        <v>1.90644138554767</v>
       </c>
       <c r="B6">
-        <v>0.23807705099462</v>
+        <v>0.777375945469643</v>
       </c>
       <c r="C6">
-        <v>0.810422989078278</v>
+        <v>2.67008138593355</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.562354354958494</v>
+        <v>1.86417357699475</v>
       </c>
       <c r="B7">
-        <v>0.155587851788168</v>
+        <v>0.514408136260061</v>
       </c>
       <c r="C7">
-        <v>0.824259377395814</v>
+        <v>2.74147417203262</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.663879568835145</v>
+        <v>2.35287672670209</v>
       </c>
       <c r="B8">
-        <v>0.365908270441649</v>
+        <v>1.293003026029</v>
       </c>
       <c r="C8">
-        <v>0.862940426264732</v>
+        <v>3.06555257285791</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.675179267335202</v>
+        <v>2.3062881389354</v>
       </c>
       <c r="B9">
-        <v>0.362902024888611</v>
+        <v>1.23772256231158</v>
       </c>
       <c r="C9">
-        <v>0.885293519812853</v>
+        <v>3.02561037594073</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.623903526528998</v>
+        <v>2.24203369659014</v>
       </c>
       <c r="B10">
-        <v>0.361748953603873</v>
+        <v>1.29857619002248</v>
       </c>
       <c r="C10">
-        <v>0.796232247603249</v>
+        <v>2.86660006299294</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.506049184191694</v>
+        <v>1.81165010418835</v>
       </c>
       <c r="B11">
-        <v>0.21805986987329</v>
+        <v>0.773358637129721</v>
       </c>
       <c r="C11">
-        <v>0.710333024435837</v>
+        <v>2.55066209879957</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.588717240205184</v>
+        <v>1.91568029794429</v>
       </c>
       <c r="B12">
-        <v>0.268951683245096</v>
+        <v>0.871062856570969</v>
       </c>
       <c r="C12">
-        <v>0.797380365280888</v>
+        <v>2.60620814680343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.582878190951969</v>
+        <v>1.92685293345078</v>
       </c>
       <c r="B13">
-        <v>0.207583455723843</v>
+        <v>0.685152760707833</v>
       </c>
       <c r="C13">
-        <v>0.815455777093588</v>
+        <v>2.70351833153714</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.633998223144164</v>
+        <v>2.22137383427754</v>
       </c>
       <c r="B14">
-        <v>0.359501992101149</v>
+        <v>1.25788884915513</v>
       </c>
       <c r="C14">
-        <v>0.820217544556539</v>
+        <v>2.88349098803543</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.646783090698745</v>
+        <v>2.18689087031404</v>
       </c>
       <c r="B15">
-        <v>0.354569451294471</v>
+        <v>1.19998552406577</v>
       </c>
       <c r="C15">
-        <v>0.842230745759054</v>
+        <v>2.85114955866037</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.605029941386548</v>
+        <v>2.16018384902716</v>
       </c>
       <c r="B16">
-        <v>0.357765307790918</v>
+        <v>1.28064989091126</v>
       </c>
       <c r="C16">
-        <v>0.768665705506003</v>
+        <v>2.75069915336562</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.508238404075768</v>
+        <v>1.79308138872949</v>
       </c>
       <c r="B17">
-        <v>0.242522597819434</v>
+        <v>0.852383697722977</v>
       </c>
       <c r="C17">
-        <v>0.698916235894617</v>
+        <v>2.47151206081513</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.592848363178517</v>
+        <v>1.91856205625174</v>
       </c>
       <c r="B18">
-        <v>0.296537870119407</v>
+        <v>0.956939423473018</v>
       </c>
       <c r="C18">
-        <v>0.783915516318566</v>
+        <v>2.539622020091</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.602145826035262</v>
+        <v>1.98814608038181</v>
       </c>
       <c r="B19">
-        <v>0.277987009255389</v>
+        <v>0.914782991851775</v>
       </c>
       <c r="C19">
-        <v>0.801676357606966</v>
+        <v>2.6500809628402</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.604915347776957</v>
+        <v>2.10524862728484</v>
       </c>
       <c r="B20">
-        <v>0.350038747023989</v>
+        <v>1.21520749104403</v>
       </c>
       <c r="C20">
-        <v>0.781158335118021</v>
+        <v>2.72397179714231</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.61841493833108</v>
+        <v>2.08050413202701</v>
       </c>
       <c r="B21">
-        <v>0.342412308351867</v>
+        <v>1.15363704834107</v>
       </c>
       <c r="C21">
-        <v>0.802171173821431</v>
+        <v>2.70460070977795</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.583748605920978</v>
+        <v>2.0754001616828</v>
       </c>
       <c r="B22">
-        <v>0.347067072432894</v>
+        <v>1.23259956001486</v>
       </c>
       <c r="C22">
-        <v>0.742169598565051</v>
+        <v>2.6419116096225</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.510773433857292</v>
+        <v>1.77812014752401</v>
       </c>
       <c r="B23">
-        <v>0.268780084550782</v>
+        <v>0.931952333240389</v>
       </c>
       <c r="C23">
-        <v>0.686614129484676</v>
+        <v>2.3884925240192</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.592157119005706</v>
+        <v>1.91461829853678</v>
       </c>
       <c r="B24">
-        <v>0.325349444930141</v>
+        <v>1.04768084122447</v>
       </c>
       <c r="C24">
-        <v>0.765997768083575</v>
+        <v>2.47752608706127</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.618752220819883</v>
+        <v>2.04360915211334</v>
       </c>
       <c r="B25">
-        <v>0.344917588617236</v>
+        <v>1.13581846071162</v>
       </c>
       <c r="C25">
-        <v>0.785085913454632</v>
+        <v>2.59968218531859</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.577244209644404</v>
+        <v>2.00384250167734</v>
       </c>
       <c r="B26">
-        <v>0.33606735576157</v>
+        <v>1.16094464469691</v>
       </c>
       <c r="C26">
-        <v>0.747905363754225</v>
+        <v>2.5995263291297</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.590518677725939</v>
+        <v>1.98556178758719</v>
       </c>
       <c r="B27">
-        <v>0.327886769006703</v>
+        <v>1.10180937564672</v>
       </c>
       <c r="C27">
-        <v>0.769191091809866</v>
+        <v>2.59179655778744</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.560909753737072</v>
+        <v>1.98976625083974</v>
       </c>
       <c r="B28">
-        <v>0.33164070593467</v>
+        <v>1.17391304001121</v>
       </c>
       <c r="C28">
-        <v>0.717167208363634</v>
+        <v>2.55069839208206</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.513915441634163</v>
+        <v>1.76734942979949</v>
       </c>
       <c r="B29">
-        <v>0.294857636295115</v>
+        <v>1.0127460661306</v>
       </c>
       <c r="C29">
-        <v>0.673790742075552</v>
+        <v>2.31895704391777</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.586727811078585</v>
+        <v>1.90393675495197</v>
       </c>
       <c r="B30">
-        <v>0.350479516599858</v>
+        <v>1.13478875998257</v>
       </c>
       <c r="C30">
-        <v>0.745773002184824</v>
+        <v>2.42115311137813</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.627665853930587</v>
+        <v>2.07800917411965</v>
       </c>
       <c r="B31">
-        <v>0.391121954066759</v>
+        <v>1.29151088014733</v>
       </c>
       <c r="C31">
-        <v>0.770854840413659</v>
+        <v>2.55778473358956</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.55086293414657</v>
+        <v>1.91337360007063</v>
       </c>
       <c r="B32">
-        <v>0.313054249710138</v>
+        <v>1.08733651781987</v>
       </c>
       <c r="C32">
-        <v>0.721854401668021</v>
+        <v>2.50924039026945</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.563225291769892</v>
+        <v>1.89897723747869</v>
       </c>
       <c r="B33">
-        <v>0.307308109235204</v>
+        <v>1.03735934166973</v>
       </c>
       <c r="C33">
-        <v>0.743276803174996</v>
+        <v>2.50691511518388</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.536840776083913</v>
+        <v>1.90346641795347</v>
       </c>
       <c r="B34">
-        <v>0.306293049618186</v>
+        <v>1.08397780224611</v>
       </c>
       <c r="C34">
-        <v>0.696604785844371</v>
+        <v>2.47548688425097</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.51663791568796</v>
+        <v>1.75706385606026</v>
       </c>
       <c r="B35">
-        <v>0.313282233490876</v>
+        <v>1.06344863376686</v>
       </c>
       <c r="C35">
-        <v>0.666248097393238</v>
+        <v>2.26895026170306</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.57690862205188</v>
+        <v>1.88593517720806</v>
       </c>
       <c r="B36">
-        <v>0.363701430355643</v>
+        <v>1.18826774943748</v>
       </c>
       <c r="C36">
-        <v>0.726141109433161</v>
+        <v>2.3734287269121</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.625323296226855</v>
+        <v>2.08052966408505</v>
       </c>
       <c r="B37">
-        <v>0.408237024037246</v>
+        <v>1.35784368733632</v>
       </c>
       <c r="C37">
-        <v>0.756389963271601</v>
+        <v>2.51722302131364</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.525460831950926</v>
+        <v>1.82980375202784</v>
       </c>
       <c r="B38">
-        <v>0.284592792946823</v>
+        <v>0.987898456642261</v>
       </c>
       <c r="C38">
-        <v>0.701659739398019</v>
+        <v>2.44461140141738</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.536572328128404</v>
+        <v>1.81770870230959</v>
       </c>
       <c r="B39">
-        <v>0.276943834167824</v>
+        <v>0.938467819478332</v>
       </c>
       <c r="C39">
-        <v>0.721259002679273</v>
+        <v>2.44449375244199</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.511785508353132</v>
+        <v>1.81618225793748</v>
       </c>
       <c r="B40">
-        <v>0.272539597015115</v>
+        <v>0.96763261599906</v>
       </c>
       <c r="C40">
-        <v>0.678178018811401</v>
+        <v>2.40754820498921</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.517486727326021</v>
+        <v>1.74281398668033</v>
       </c>
       <c r="B41">
-        <v>0.320311538260873</v>
+        <v>1.07587306552605</v>
       </c>
       <c r="C41">
-        <v>0.665014784225944</v>
+        <v>2.24367179929339</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.563171203739561</v>
+        <v>1.85910665532006</v>
       </c>
       <c r="B42">
-        <v>0.360380870549475</v>
+        <v>1.18720597211559</v>
       </c>
       <c r="C42">
-        <v>0.708209324809343</v>
+        <v>2.34203603423869</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.611812318418723</v>
+        <v>2.05058263064746</v>
       </c>
       <c r="B43">
-        <v>0.406946309326361</v>
+        <v>1.36097765338321</v>
       </c>
       <c r="C43">
-        <v>0.73891055263936</v>
+        <v>2.47698400529692</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.500740923402792</v>
+        <v>1.74998825980631</v>
       </c>
       <c r="B44">
-        <v>0.251048120259321</v>
+        <v>0.875160693063057</v>
       </c>
       <c r="C44">
-        <v>0.684325906637263</v>
+        <v>2.39261501323371</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.510529207205836</v>
+        <v>1.73932429571068</v>
       </c>
       <c r="B45">
-        <v>0.244714509906424</v>
+        <v>0.83213681535352</v>
       </c>
       <c r="C45">
-        <v>0.702818538064078</v>
+        <v>2.39522640647133</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.486129405708288</v>
+        <v>1.72810347012781</v>
       </c>
       <c r="B46">
-        <v>0.236471413607824</v>
+        <v>0.838843223695548</v>
       </c>
       <c r="C46">
-        <v>0.660932365833678</v>
+        <v>2.3464897075058</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.515362154847267</v>
+        <v>1.72167344732626</v>
       </c>
       <c r="B47">
-        <v>0.311809733596452</v>
+        <v>1.03974988137161</v>
       </c>
       <c r="C47">
-        <v>0.668940870030575</v>
+        <v>2.23501119245941</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.546215977449099</v>
+        <v>1.82233502264498</v>
       </c>
       <c r="B48">
-        <v>0.338411566384533</v>
+        <v>1.12767425694724</v>
       </c>
       <c r="C48">
-        <v>0.69401387610413</v>
+        <v>2.31979400505148</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.589581754476826</v>
+        <v>1.99411063654644</v>
       </c>
       <c r="B49">
-        <v>0.383676463381307</v>
+        <v>1.29791405682691</v>
       </c>
       <c r="C49">
-        <v>0.719612339994746</v>
+        <v>2.43430630909819</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.476543685186859</v>
+        <v>1.67217515846166</v>
       </c>
       <c r="B50">
-        <v>0.212808589450275</v>
+        <v>0.747402578094488</v>
       </c>
       <c r="C50">
-        <v>0.670196004582086</v>
+        <v>2.34713069519687</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.48507754577531</v>
+        <v>1.66244367797875</v>
       </c>
       <c r="B51">
-        <v>0.208895453937982</v>
+        <v>0.716952177361941</v>
       </c>
       <c r="C51">
-        <v>0.68687830948317</v>
+        <v>2.35021478320764</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.460388909367204</v>
+        <v>1.64021019960582</v>
       </c>
       <c r="B52">
-        <v>0.198001720504278</v>
+        <v>0.702161576961582</v>
       </c>
       <c r="C52">
-        <v>0.64530949755667</v>
+        <v>2.29766014452753</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.509937398120368</v>
+        <v>1.6930483543828</v>
       </c>
       <c r="B53">
-        <v>0.291679877168353</v>
+        <v>0.965693081430774</v>
       </c>
       <c r="C53">
-        <v>0.674001138654831</v>
+        <v>2.23936615216533</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.526942678849497</v>
+        <v>1.7763774637452</v>
       </c>
       <c r="B54">
-        <v>0.306608501944142</v>
+        <v>1.03355922952649</v>
       </c>
       <c r="C54">
-        <v>0.683811370052327</v>
+        <v>2.308275188478</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.561591044721364</v>
+        <v>1.91844064434729</v>
       </c>
       <c r="B55">
-        <v>0.346300692154154</v>
+        <v>1.1851198252223</v>
       </c>
       <c r="C55">
-        <v>0.699560942665393</v>
+        <v>2.38643950604932</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.452875602072588</v>
+        <v>1.59582445365979</v>
       </c>
       <c r="B56">
-        <v>0.175908261462805</v>
+        <v>0.621044745148969</v>
       </c>
       <c r="C56">
-        <v>0.656079033151386</v>
+        <v>2.30945279993951</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.460272877378544</v>
+        <v>1.5867063688054</v>
       </c>
       <c r="B57">
-        <v>0.173492671896085</v>
+        <v>0.598697365934866</v>
       </c>
       <c r="C57">
-        <v>0.671422397110326</v>
+        <v>2.31043104172667</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.43510594737116</v>
+        <v>1.55393694732522</v>
       </c>
       <c r="B58">
-        <v>0.16144592387323</v>
+        <v>0.572972443193291</v>
       </c>
       <c r="C58">
-        <v>0.632800537902789</v>
+        <v>2.25881895107692</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.501602170481592</v>
+        <v>1.65823932165305</v>
       </c>
       <c r="B59">
-        <v>0.259005319674325</v>
+        <v>0.855217601859566</v>
       </c>
       <c r="C59">
-        <v>0.678927488686852</v>
+        <v>2.24389416452322</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.506313862513584</v>
+        <v>1.72390041204954</v>
       </c>
       <c r="B60">
-        <v>0.266339262353578</v>
+        <v>0.902679153496021</v>
       </c>
       <c r="C60">
-        <v>0.676917129744091</v>
+        <v>2.30854457467874</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.530473536146152</v>
+        <v>1.8301703281579</v>
       </c>
       <c r="B61">
-        <v>0.299197000759855</v>
+        <v>1.03692725823382</v>
       </c>
       <c r="C61">
-        <v>0.680458171850338</v>
+        <v>2.34651991243784</v>
       </c>
     </row>
   </sheetData>
@@ -1748,662 +1749,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3.70694042716333</v>
+        <v>0.690743160105123</v>
       </c>
       <c r="B2">
-        <v>1.94435581154682</v>
+        <v>0.372406323087086</v>
       </c>
       <c r="C2">
-        <v>5.83991057151034</v>
+        <v>0.900362542491019</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.13270412672265</v>
+        <v>0.70062008071696</v>
       </c>
       <c r="B3">
-        <v>1.50495725399337</v>
+        <v>0.365301977106447</v>
       </c>
       <c r="C3">
-        <v>5.11922048015935</v>
+        <v>0.92107090886307</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.08440116368804</v>
+        <v>0.638489938012608</v>
       </c>
       <c r="B4">
-        <v>1.48785588550809</v>
+        <v>0.357176232645706</v>
       </c>
       <c r="C4">
-        <v>4.94409190054548</v>
+        <v>0.820739477642202</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2.15819358342829</v>
+        <v>0.502271532837136</v>
       </c>
       <c r="B5">
-        <v>0.593407281904754</v>
+        <v>0.196016415764036</v>
       </c>
       <c r="C5">
-        <v>4.2529090143206</v>
+        <v>0.715601183977213</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.46008679288658</v>
+        <v>0.580316882087804</v>
       </c>
       <c r="B6">
-        <v>0.341820906688053</v>
+        <v>0.23807705099462</v>
       </c>
       <c r="C6">
-        <v>3.09266391837668</v>
+        <v>0.810422989078278</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3.14690335290749</v>
+        <v>0.562354354958494</v>
       </c>
       <c r="B7">
-        <v>1.75356654487817</v>
+        <v>0.155587851788168</v>
       </c>
       <c r="C7">
-        <v>4.72443977062077</v>
+        <v>0.824259377395814</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2.68812262868086</v>
+        <v>0.663879568835145</v>
       </c>
       <c r="B8">
-        <v>1.32743357521946</v>
+        <v>0.365908270441649</v>
       </c>
       <c r="C8">
-        <v>4.36716609260924</v>
+        <v>0.862940426264732</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2.22956461821725</v>
+        <v>0.675179267335202</v>
       </c>
       <c r="B9">
-        <v>0.987138380728269</v>
+        <v>0.362902024888611</v>
       </c>
       <c r="C9">
-        <v>3.81199201218083</v>
+        <v>0.885293519812853</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.33736261212957</v>
+        <v>0.623903526528998</v>
       </c>
       <c r="B10">
-        <v>1.01311772485656</v>
+        <v>0.361748953603873</v>
       </c>
       <c r="C10">
-        <v>3.89712132622329</v>
+        <v>0.796232247603249</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.58866469502154</v>
+        <v>0.506049184191694</v>
       </c>
       <c r="B11">
-        <v>0.429304615536141</v>
+        <v>0.21805986987329</v>
       </c>
       <c r="C11">
-        <v>3.24259579043978</v>
+        <v>0.710333024435837</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.08568939809878</v>
+        <v>0.588717240205184</v>
       </c>
       <c r="B12">
-        <v>0.261682326107902</v>
+        <v>0.268951683245096</v>
       </c>
       <c r="C12">
-        <v>2.38577301331864</v>
+        <v>0.797380365280888</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2.72253493991968</v>
+        <v>0.582878190951969</v>
       </c>
       <c r="B13">
-        <v>1.41588636137793</v>
+        <v>0.207583455723843</v>
       </c>
       <c r="C13">
-        <v>4.04025504446684</v>
+        <v>0.815455777093588</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.86496343806564</v>
+        <v>0.633998223144164</v>
       </c>
       <c r="B14">
-        <v>0.847657913161123</v>
+        <v>0.359501992101149</v>
       </c>
       <c r="C14">
-        <v>3.21734440836627</v>
+        <v>0.820217544556539</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.52125595992904</v>
+        <v>0.646783090698745</v>
       </c>
       <c r="B15">
-        <v>0.609038793324558</v>
+        <v>0.354569451294471</v>
       </c>
       <c r="C15">
-        <v>2.78315592201526</v>
+        <v>0.842230745759054</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.72009096034483</v>
+        <v>0.605029941386548</v>
       </c>
       <c r="B16">
-        <v>0.653691157438075</v>
+        <v>0.357765307790918</v>
       </c>
       <c r="C16">
-        <v>3.06999852615518</v>
+        <v>0.768665705506003</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.12250960455856</v>
+        <v>0.508238404075768</v>
       </c>
       <c r="B17">
-        <v>0.309225080854915</v>
+        <v>0.242522597819434</v>
       </c>
       <c r="C17">
-        <v>2.39001181118276</v>
+        <v>0.698916235894617</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.797768654764468</v>
+        <v>0.592848363178517</v>
       </c>
       <c r="B18">
-        <v>0.204336825942873</v>
+        <v>0.296537870119407</v>
       </c>
       <c r="C18">
-        <v>1.8307978796493</v>
+        <v>0.783915516318566</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2.28952218341281</v>
+        <v>0.602145826035262</v>
       </c>
       <c r="B19">
-        <v>1.05334124513853</v>
+        <v>0.277987009255389</v>
       </c>
       <c r="C19">
-        <v>3.47964143040892</v>
+        <v>0.801676357606966</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.26538391925885</v>
+        <v>0.604915347776957</v>
       </c>
       <c r="B20">
-        <v>0.515371928859472</v>
+        <v>0.350038747023989</v>
       </c>
       <c r="C20">
-        <v>2.35612890082866</v>
+        <v>0.781158335118021</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.02004987515903</v>
+        <v>0.61841493833108</v>
       </c>
       <c r="B21">
-        <v>0.371601306794749</v>
+        <v>0.342412308351867</v>
       </c>
       <c r="C21">
-        <v>2.04056073955603</v>
+        <v>0.802171173821431</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.25077003374505</v>
+        <v>0.583748605920978</v>
       </c>
       <c r="B22">
-        <v>0.411280596050834</v>
+        <v>0.347067072432894</v>
       </c>
       <c r="C22">
-        <v>2.43486125105749</v>
+        <v>0.742169598565051</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.774966844618577</v>
+        <v>0.510773433857292</v>
       </c>
       <c r="B23">
-        <v>0.224634289053923</v>
+        <v>0.268780084550782</v>
       </c>
       <c r="C23">
-        <v>1.71466767677219</v>
+        <v>0.686614129484676</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.594201749861359</v>
+        <v>0.592157119005706</v>
       </c>
       <c r="B24">
-        <v>0.161843300026425</v>
+        <v>0.325349444930141</v>
       </c>
       <c r="C24">
-        <v>1.42003955523784</v>
+        <v>0.765997768083575</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.83857920035608</v>
+        <v>0.618752220819883</v>
       </c>
       <c r="B25">
-        <v>0.707094263393785</v>
+        <v>0.344917588617236</v>
       </c>
       <c r="C25">
-        <v>3.00300552905263</v>
+        <v>0.785085913454632</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.872479199634728</v>
+        <v>0.577244209644404</v>
       </c>
       <c r="B26">
-        <v>0.313729852742118</v>
+        <v>0.33606735576157</v>
       </c>
       <c r="C26">
-        <v>1.78634235539404</v>
+        <v>0.747905363754225</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.69873454268678</v>
+        <v>0.590518677725939</v>
       </c>
       <c r="B27">
-        <v>0.227435872112656</v>
+        <v>0.327886769006703</v>
       </c>
       <c r="C27">
-        <v>1.53053855734551</v>
+        <v>0.769191091809866</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.922906211473547</v>
+        <v>0.560909753737072</v>
       </c>
       <c r="B28">
-        <v>0.257116263411385</v>
+        <v>0.33164070593467</v>
       </c>
       <c r="C28">
-        <v>1.97590493595748</v>
+        <v>0.717167208363634</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.539090886928846</v>
+        <v>0.513915441634163</v>
       </c>
       <c r="B29">
-        <v>0.160654896025405</v>
+        <v>0.294857636295115</v>
       </c>
       <c r="C29">
-        <v>1.23109567884641</v>
+        <v>0.673790742075552</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.462883310999301</v>
+        <v>0.586727811078585</v>
       </c>
       <c r="B30">
-        <v>0.130683461986422</v>
+        <v>0.350479516599858</v>
       </c>
       <c r="C30">
-        <v>1.11906936794479</v>
+        <v>0.745773002184824</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.40585630682366</v>
+        <v>0.627665853930587</v>
       </c>
       <c r="B31">
-        <v>0.447391082165123</v>
+        <v>0.391121954066759</v>
       </c>
       <c r="C31">
-        <v>2.5645805432286</v>
+        <v>0.770854840413659</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.634056325889751</v>
+        <v>0.55086293414657</v>
       </c>
       <c r="B32">
-        <v>0.195820860543879</v>
+        <v>0.313054249710138</v>
       </c>
       <c r="C32">
-        <v>1.42246401627196</v>
+        <v>0.721854401668021</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.506279324834958</v>
+        <v>0.563225291769892</v>
       </c>
       <c r="B33">
-        <v>0.14151326031573</v>
+        <v>0.307308109235204</v>
       </c>
       <c r="C33">
-        <v>1.21114351482638</v>
+        <v>0.743276803174996</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.707994601567636</v>
+        <v>0.536840776083913</v>
       </c>
       <c r="B34">
-        <v>0.165927211730791</v>
+        <v>0.306293049618186</v>
       </c>
       <c r="C34">
-        <v>1.67717285875962</v>
+        <v>0.696604785844371</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.389964181860898</v>
+        <v>0.51663791568796</v>
       </c>
       <c r="B35">
-        <v>0.116501866182077</v>
+        <v>0.313282233490876</v>
       </c>
       <c r="C35">
-        <v>0.915605519090687</v>
+        <v>0.666248097393238</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.386978231740327</v>
+        <v>0.57690862205188</v>
       </c>
       <c r="B36">
-        <v>0.108156218149992</v>
+        <v>0.363701430355643</v>
       </c>
       <c r="C36">
-        <v>0.949304976169879</v>
+        <v>0.726141109433161</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.04173012238557</v>
+        <v>0.625323296226855</v>
       </c>
       <c r="B37">
-        <v>0.271860487153192</v>
+        <v>0.408237024037246</v>
       </c>
       <c r="C37">
-        <v>2.10958931745041</v>
+        <v>0.756389963271601</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.496259454518843</v>
+        <v>0.525460831950926</v>
       </c>
       <c r="B38">
-        <v>0.127094315652667</v>
+        <v>0.284592792946823</v>
       </c>
       <c r="C38">
-        <v>1.22112503872471</v>
+        <v>0.701659739398019</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.395831246920167</v>
+        <v>0.536572328128404</v>
       </c>
       <c r="B39">
-        <v>0.0927440788781466</v>
+        <v>0.276943834167824</v>
       </c>
       <c r="C39">
-        <v>1.04886318223917</v>
+        <v>0.721259002679273</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.573260128663891</v>
+        <v>0.511785508353132</v>
       </c>
       <c r="B40">
-        <v>0.107885285044541</v>
+        <v>0.272539597015115</v>
       </c>
       <c r="C40">
-        <v>1.49059833279754</v>
+        <v>0.678178018811401</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.299780537974505</v>
+        <v>0.517486727326021</v>
       </c>
       <c r="B41">
-        <v>0.0851300159978554</v>
+        <v>0.320311538260873</v>
       </c>
       <c r="C41">
-        <v>0.731098959559953</v>
+        <v>0.665014784225944</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.35176614889727</v>
+        <v>0.563171203739561</v>
       </c>
       <c r="B42">
-        <v>0.0919512639725145</v>
+        <v>0.360380870549475</v>
       </c>
       <c r="C42">
-        <v>0.90282847726284</v>
+        <v>0.708209324809343</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.770665275354889</v>
+        <v>0.611812318418723</v>
       </c>
       <c r="B43">
-        <v>0.162753536320733</v>
+        <v>0.406946309326361</v>
       </c>
       <c r="C43">
-        <v>1.75071085746751</v>
+        <v>0.73891055263936</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.421232467687325</v>
+        <v>0.500740923402792</v>
       </c>
       <c r="B44">
-        <v>0.0865821341669424</v>
+        <v>0.251048120259321</v>
       </c>
       <c r="C44">
-        <v>1.1390758204534</v>
+        <v>0.684325906637263</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.336061289364885</v>
+        <v>0.510529207205836</v>
       </c>
       <c r="B45">
-        <v>0.0623983704892415</v>
+        <v>0.244714509906424</v>
       </c>
       <c r="C45">
-        <v>0.989515575676847</v>
+        <v>0.702818538064078</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.492557968566537</v>
+        <v>0.486129405708288</v>
       </c>
       <c r="B46">
-        <v>0.0718552693202399</v>
+        <v>0.236471413607824</v>
       </c>
       <c r="C46">
-        <v>1.40566720235661</v>
+        <v>0.660932365833678</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.247687632911227</v>
+        <v>0.515362154847267</v>
       </c>
       <c r="B47">
-        <v>0.0622102378622963</v>
+        <v>0.311809733596452</v>
       </c>
       <c r="C47">
-        <v>0.646046037183567</v>
+        <v>0.668940870030575</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.347811022695935</v>
+        <v>0.546215977449099</v>
       </c>
       <c r="B48">
-        <v>0.0800434384562296</v>
+        <v>0.338411566384533</v>
       </c>
       <c r="C48">
-        <v>0.930612163570048</v>
+        <v>0.69401387610413</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.586143258353648</v>
+        <v>0.589581754476826</v>
       </c>
       <c r="B49">
-        <v>0.100440753569304</v>
+        <v>0.383676463381307</v>
       </c>
       <c r="C49">
-        <v>1.47945408440387</v>
+        <v>0.719612339994746</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.385924062499402</v>
+        <v>0.476543685186859</v>
       </c>
       <c r="B50">
-        <v>0.0601727553947693</v>
+        <v>0.212808589450275</v>
       </c>
       <c r="C50">
-        <v>1.15834516741613</v>
+        <v>0.670196004582086</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.308522186584268</v>
+        <v>0.48507754577531</v>
       </c>
       <c r="B51">
-        <v>0.0436552459756134</v>
+        <v>0.208895453937982</v>
       </c>
       <c r="C51">
-        <v>1.00477460510937</v>
+        <v>0.68687830948317</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.448055325216914</v>
+        <v>0.460388909367204</v>
       </c>
       <c r="B52">
-        <v>0.0494310312261152</v>
+        <v>0.198001720504278</v>
       </c>
       <c r="C52">
-        <v>1.38705466901184</v>
+        <v>0.64530949755667</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.220756186606587</v>
+        <v>0.509937398120368</v>
       </c>
       <c r="B53">
-        <v>0.0455667402697284</v>
+        <v>0.291679877168353</v>
       </c>
       <c r="C53">
-        <v>0.639931506358088</v>
+        <v>0.674001138654831</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.37008672553108</v>
+        <v>0.526942678849497</v>
       </c>
       <c r="B54">
-        <v>0.070652533422999</v>
+        <v>0.306608501944142</v>
       </c>
       <c r="C54">
-        <v>1.03818047395541</v>
+        <v>0.683811370052327</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.468326207595993</v>
+        <v>0.561591044721364</v>
       </c>
       <c r="B55">
-        <v>0.0643358719503505</v>
+        <v>0.346300692154154</v>
       </c>
       <c r="C55">
-        <v>1.30768491299742</v>
+        <v>0.699560942665393</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.376465956403342</v>
+        <v>0.452875602072588</v>
       </c>
       <c r="B56">
-        <v>0.0427047848728916</v>
+        <v>0.175908261462805</v>
       </c>
       <c r="C56">
-        <v>1.22819815844255</v>
+        <v>0.656079033151386</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.302419925402766</v>
+        <v>0.460272877378544</v>
       </c>
       <c r="B57">
-        <v>0.030880765922087</v>
+        <v>0.173492671896085</v>
       </c>
       <c r="C57">
-        <v>1.07155502317313</v>
+        <v>0.671422397110326</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.428075496993304</v>
+        <v>0.43510594737116</v>
       </c>
       <c r="B58">
-        <v>0.0346997206890671</v>
+        <v>0.16144592387323</v>
       </c>
       <c r="C58">
-        <v>1.41186158290932</v>
+        <v>0.632800537902789</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.211618944146596</v>
+        <v>0.501602170481592</v>
       </c>
       <c r="B59">
-        <v>0.0342166175239909</v>
+        <v>0.259005319674325</v>
       </c>
       <c r="C59">
-        <v>0.691237734958302</v>
+        <v>0.678927488686852</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.415325375991105</v>
+        <v>0.506313862513584</v>
       </c>
       <c r="B60">
-        <v>0.0627971371404134</v>
+        <v>0.266339262353578</v>
       </c>
       <c r="C60">
-        <v>1.19115803192659</v>
+        <v>0.676917129744091</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.398570355151175</v>
+        <v>0.530473536146152</v>
       </c>
       <c r="B61">
-        <v>0.0420655482327761</v>
+        <v>0.299197000759855</v>
       </c>
       <c r="C61">
-        <v>1.22247420072127</v>
+        <v>0.680458171850338</v>
       </c>
     </row>
   </sheetData>
@@ -2432,662 +2433,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>19.4239847747269</v>
+        <v>3.70694042716333</v>
       </c>
       <c r="B2">
-        <v>15.7247845033685</v>
+        <v>1.94435581154682</v>
       </c>
       <c r="C2">
-        <v>23.2522244122334</v>
+        <v>5.83991057151034</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>16.9793069596456</v>
+        <v>3.13270412672265</v>
       </c>
       <c r="B3">
-        <v>13.4313532129513</v>
+        <v>1.50495725399337</v>
       </c>
       <c r="C3">
-        <v>20.7351001027575</v>
+        <v>5.11922048015935</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>20.7924691049273</v>
+        <v>3.08440116368804</v>
       </c>
       <c r="B4">
-        <v>17.6391769115986</v>
+        <v>1.48785588550809</v>
       </c>
       <c r="C4">
-        <v>24.0788119716957</v>
+        <v>4.94409190054548</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>22.5688196517537</v>
+        <v>2.15819358342829</v>
       </c>
       <c r="B5">
-        <v>18.9973284853956</v>
+        <v>0.593407281904754</v>
       </c>
       <c r="C5">
-        <v>26.3300910290685</v>
+        <v>4.2529090143206</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>15.2613602998368</v>
+        <v>1.46008679288658</v>
       </c>
       <c r="B6">
-        <v>11.8900010440713</v>
+        <v>0.341820906688053</v>
       </c>
       <c r="C6">
-        <v>18.9371680130447</v>
+        <v>3.09266391837668</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>13.2457465989488</v>
+        <v>3.14690335290749</v>
       </c>
       <c r="B7">
-        <v>9.85376292482709</v>
+        <v>1.75356654487817</v>
       </c>
       <c r="C7">
-        <v>16.9957330852578</v>
+        <v>4.72443977062077</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>19.1162229180277</v>
+        <v>2.68812262868086</v>
       </c>
       <c r="B8">
-        <v>15.9215024435569</v>
+        <v>1.32743357521946</v>
       </c>
       <c r="C8">
-        <v>22.3861337112906</v>
+        <v>4.36716609260924</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>16.7670274726587</v>
+        <v>2.22956461821725</v>
       </c>
       <c r="B9">
-        <v>13.6356367516362</v>
+        <v>0.987138380728269</v>
       </c>
       <c r="C9">
-        <v>20.0143338818689</v>
+        <v>3.81199201218083</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>20.7396516636618</v>
+        <v>2.33736261212957</v>
       </c>
       <c r="B10">
-        <v>18.0145016506572</v>
+        <v>1.01311772485656</v>
       </c>
       <c r="C10">
-        <v>23.4895403293197</v>
+        <v>3.89712132622329</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>21.7640092471691</v>
+        <v>1.58866469502154</v>
       </c>
       <c r="B11">
-        <v>18.5785728110971</v>
+        <v>0.429304615536141</v>
       </c>
       <c r="C11">
-        <v>25.0409711784312</v>
+        <v>3.24259579043978</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>15.0936356256756</v>
+        <v>1.08568939809878</v>
       </c>
       <c r="B12">
-        <v>12.0261883851957</v>
+        <v>0.261682326107902</v>
       </c>
       <c r="C12">
-        <v>18.4467665214831</v>
+        <v>2.38577301331864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>13.4766453565137</v>
+        <v>2.72253493991968</v>
       </c>
       <c r="B13">
-        <v>10.4063970370503</v>
+        <v>1.41588636137793</v>
       </c>
       <c r="C13">
-        <v>16.8245356797354</v>
+        <v>4.04025504446684</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>19.0251851523691</v>
+        <v>1.86496343806564</v>
       </c>
       <c r="B14">
-        <v>16.1496061103573</v>
+        <v>0.847657913161123</v>
       </c>
       <c r="C14">
-        <v>21.8928481406652</v>
+        <v>3.21734440836627</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>16.7611913924383</v>
+        <v>1.52125595992904</v>
       </c>
       <c r="B15">
-        <v>13.9022757548917</v>
+        <v>0.609038793324558</v>
       </c>
       <c r="C15">
-        <v>19.6687667912698</v>
+        <v>2.78315592201526</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>20.7671755344641</v>
+        <v>1.72009096034483</v>
       </c>
       <c r="B16">
-        <v>18.3377765602016</v>
+        <v>0.653691157438075</v>
       </c>
       <c r="C16">
-        <v>23.1878944590159</v>
+        <v>3.06999852615518</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>20.9919636046984</v>
+        <v>1.12250960455856</v>
       </c>
       <c r="B17">
-        <v>18.1341665397381</v>
+        <v>0.309225080854915</v>
       </c>
       <c r="C17">
-        <v>23.8852228382209</v>
+        <v>2.39001181118276</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>15.0688929819288</v>
+        <v>0.797768654764468</v>
       </c>
       <c r="B18">
-        <v>12.2614513874609</v>
+        <v>0.204336825942873</v>
       </c>
       <c r="C18">
-        <v>18.101252029891</v>
+        <v>1.8307978796493</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>13.8236453636246</v>
+        <v>2.28952218341281</v>
       </c>
       <c r="B19">
-        <v>11.0115213384873</v>
+        <v>1.05334124513853</v>
       </c>
       <c r="C19">
-        <v>16.827717278747</v>
+        <v>3.47964143040892</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>19.0894957721789</v>
+        <v>1.26538391925885</v>
       </c>
       <c r="B20">
-        <v>16.3570380942019</v>
+        <v>0.515371928859472</v>
       </c>
       <c r="C20">
-        <v>21.7457577916575</v>
+        <v>2.35612890082866</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>16.9068948560859</v>
+        <v>1.02004987515903</v>
       </c>
       <c r="B21">
-        <v>14.1813868724633</v>
+        <v>0.371601306794749</v>
       </c>
       <c r="C21">
-        <v>19.6481889795781</v>
+        <v>2.04056073955603</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>20.8140236494439</v>
+        <v>1.25077003374505</v>
       </c>
       <c r="B22">
-        <v>18.5286906464019</v>
+        <v>0.411280596050834</v>
       </c>
       <c r="C22">
-        <v>23.1052792060542</v>
+        <v>2.43486125105749</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>20.2133131532458</v>
+        <v>0.774966844618577</v>
       </c>
       <c r="B23">
-        <v>17.6039390755846</v>
+        <v>0.224634289053923</v>
       </c>
       <c r="C23">
-        <v>22.8063566843726</v>
+        <v>1.71466767677219</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>15.2021818979239</v>
+        <v>0.594201749861359</v>
       </c>
       <c r="B24">
-        <v>12.6032093047267</v>
+        <v>0.161843300026425</v>
       </c>
       <c r="C24">
-        <v>17.982264898987</v>
+        <v>1.42003955523784</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>14.2901057579603</v>
+        <v>1.83857920035608</v>
       </c>
       <c r="B25">
-        <v>11.6873429676205</v>
+        <v>0.707094263393785</v>
       </c>
       <c r="C25">
-        <v>17.004555119139</v>
+        <v>3.00300552905263</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>19.2340959113212</v>
+        <v>0.872479199634728</v>
       </c>
       <c r="B26">
-        <v>16.465513144932</v>
+        <v>0.313729852742118</v>
       </c>
       <c r="C26">
-        <v>21.9067856972448</v>
+        <v>1.78634235539404</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>17.1467376484727</v>
+        <v>0.69873454268678</v>
       </c>
       <c r="B27">
-        <v>14.393805297439</v>
+        <v>0.227435872112656</v>
       </c>
       <c r="C27">
-        <v>19.8805717060127</v>
+        <v>1.53053855734551</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>20.8522525652657</v>
+        <v>0.922906211473547</v>
       </c>
       <c r="B28">
-        <v>18.5684455473189</v>
+        <v>0.257116263411385</v>
       </c>
       <c r="C28">
-        <v>23.1561061218282</v>
+        <v>1.97590493595748</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>19.3917919909561</v>
+        <v>0.539090886928846</v>
       </c>
       <c r="B29">
-        <v>16.9889048594345</v>
+        <v>0.160654896025405</v>
       </c>
       <c r="C29">
-        <v>21.7679701792476</v>
+        <v>1.23109567884641</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>15.4940817905709</v>
+        <v>0.462883310999301</v>
       </c>
       <c r="B30">
-        <v>13.0731366048526</v>
+        <v>0.130683461986422</v>
       </c>
       <c r="C30">
-        <v>18.0349342067138</v>
+        <v>1.11906936794479</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>14.8760093094569</v>
+        <v>1.40585630682366</v>
       </c>
       <c r="B31">
-        <v>12.4673158275037</v>
+        <v>0.447391082165123</v>
       </c>
       <c r="C31">
-        <v>17.3361767640446</v>
+        <v>2.5645805432286</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>19.4100294467565</v>
+        <v>0.634056325889751</v>
       </c>
       <c r="B32">
-        <v>16.5553232269119</v>
+        <v>0.195820860543879</v>
       </c>
       <c r="C32">
-        <v>22.2123599566305</v>
+        <v>1.42246401627196</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>17.4369361583492</v>
+        <v>0.506279324834958</v>
       </c>
       <c r="B33">
-        <v>14.5805062714955</v>
+        <v>0.14151326031573</v>
       </c>
       <c r="C33">
-        <v>20.2914057687443</v>
+        <v>1.21114351482638</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>20.8859483836968</v>
+        <v>0.707994601567636</v>
       </c>
       <c r="B34">
-        <v>18.4886667080713</v>
+        <v>0.165927211730791</v>
       </c>
       <c r="C34">
-        <v>23.3578819547505</v>
+        <v>1.67717285875962</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>18.5367237726114</v>
+        <v>0.389964181860898</v>
       </c>
       <c r="B35">
-        <v>16.2909519971092</v>
+        <v>0.116501866182077</v>
       </c>
       <c r="C35">
-        <v>20.7955308993744</v>
+        <v>0.915605519090687</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>15.9226008942098</v>
+        <v>0.386978231740327</v>
       </c>
       <c r="B36">
-        <v>13.6652792577537</v>
+        <v>0.108156218149992</v>
       </c>
       <c r="C36">
-        <v>18.278430038576</v>
+        <v>0.949304976169879</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>15.5576968302175</v>
+        <v>1.04173012238557</v>
       </c>
       <c r="B37">
-        <v>13.3395363050491</v>
+        <v>0.271860487153192</v>
       </c>
       <c r="C37">
-        <v>17.8324254604382</v>
+        <v>2.10958931745041</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>19.5958461462152</v>
+        <v>0.496259454518843</v>
       </c>
       <c r="B38">
-        <v>16.5476251767811</v>
+        <v>0.127094315652667</v>
       </c>
       <c r="C38">
-        <v>22.6420900441455</v>
+        <v>1.22112503872471</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>17.748012288672</v>
+        <v>0.395831246920167</v>
       </c>
       <c r="B39">
-        <v>14.7184292369382</v>
+        <v>0.0927440788781466</v>
       </c>
       <c r="C39">
-        <v>20.7827758705525</v>
+        <v>1.04886318223917</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>20.9265410720053</v>
+        <v>0.573260128663891</v>
       </c>
       <c r="B40">
-        <v>18.3706816393484</v>
+        <v>0.107885285044541</v>
       </c>
       <c r="C40">
-        <v>23.6211490834967</v>
+        <v>1.49059833279754</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>17.7076693979988</v>
+        <v>0.299780537974505</v>
       </c>
       <c r="B41">
-        <v>15.5277518824278</v>
+        <v>0.0851300159978554</v>
       </c>
       <c r="C41">
-        <v>19.9110681863996</v>
+        <v>0.731098959559953</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>16.4327133672981</v>
+        <v>0.35176614889727</v>
       </c>
       <c r="B42">
-        <v>14.2955696220985</v>
+        <v>0.0919512639725145</v>
       </c>
       <c r="C42">
-        <v>18.6564625782621</v>
+        <v>0.90282847726284</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>16.2910716716839</v>
+        <v>0.770665275354889</v>
       </c>
       <c r="B43">
-        <v>14.196840376286</v>
+        <v>0.162753536320733</v>
       </c>
       <c r="C43">
-        <v>18.4354008838649</v>
+        <v>1.75071085746751</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>19.7822871966128</v>
+        <v>0.421232467687325</v>
       </c>
       <c r="B44">
-        <v>16.5257084772687</v>
+        <v>0.0865821341669424</v>
       </c>
       <c r="C44">
-        <v>23.0980251007784</v>
+        <v>1.1390758204534</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>18.0592913085811</v>
+        <v>0.336061289364885</v>
       </c>
       <c r="B45">
-        <v>14.836786047482</v>
+        <v>0.0623983704892415</v>
       </c>
       <c r="C45">
-        <v>21.3309571078253</v>
+        <v>0.989515575676847</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>20.9794585320794</v>
+        <v>0.492557968566537</v>
       </c>
       <c r="B46">
-        <v>18.1946115627148</v>
+        <v>0.0718552693202399</v>
       </c>
       <c r="C46">
-        <v>23.9656746283844</v>
+        <v>1.40566720235661</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>16.9751347914292</v>
+        <v>0.247687632911227</v>
       </c>
       <c r="B47">
-        <v>14.8190691541106</v>
+        <v>0.0622102378622963</v>
       </c>
       <c r="C47">
-        <v>19.1853448948701</v>
+        <v>0.646046037183567</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>16.952773525112</v>
+        <v>0.347811022695935</v>
       </c>
       <c r="B48">
-        <v>14.8634006883532</v>
+        <v>0.0800434384562296</v>
       </c>
       <c r="C48">
-        <v>19.1490999139331</v>
+        <v>0.930612163570048</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>17.0327485820795</v>
+        <v>0.586143258353648</v>
       </c>
       <c r="B49">
-        <v>14.9583157496072</v>
+        <v>0.100440753569304</v>
       </c>
       <c r="C49">
-        <v>19.1730799020253</v>
+        <v>1.47945408440387</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>19.9670574379007</v>
+        <v>0.385924062499402</v>
       </c>
       <c r="B50">
-        <v>16.4738872070965</v>
+        <v>0.0601727553947693</v>
       </c>
       <c r="C50">
-        <v>23.6097321092871</v>
+        <v>1.15834516741613</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>18.3588777051053</v>
+        <v>0.308522186584268</v>
       </c>
       <c r="B51">
-        <v>14.925073389723</v>
+        <v>0.0436552459756134</v>
       </c>
       <c r="C51">
-        <v>21.9116950463982</v>
+        <v>1.00477460510937</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>21.0456834372404</v>
+        <v>0.448055325216914</v>
       </c>
       <c r="B52">
-        <v>18.0031615945901</v>
+        <v>0.0494310312261152</v>
       </c>
       <c r="C52">
-        <v>24.2921672475886</v>
+        <v>1.38705466901184</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>16.3845861164209</v>
+        <v>0.220756186606587</v>
       </c>
       <c r="B53">
-        <v>14.2098340761503</v>
+        <v>0.0455667402697284</v>
       </c>
       <c r="C53">
-        <v>18.6651228906265</v>
+        <v>0.639931506358088</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>17.4408419317535</v>
+        <v>0.37008672553108</v>
       </c>
       <c r="B54">
-        <v>15.2466584888985</v>
+        <v>0.070652533422999</v>
       </c>
       <c r="C54">
-        <v>19.7605490683479</v>
+        <v>1.03818047395541</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>17.7466592038179</v>
+        <v>0.468326207595993</v>
       </c>
       <c r="B55">
-        <v>15.6000516512266</v>
+        <v>0.0643358719503505</v>
       </c>
       <c r="C55">
-        <v>19.9654485777399</v>
+        <v>1.30768491299742</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>20.1531388987684</v>
+        <v>0.376465956403342</v>
       </c>
       <c r="B56">
-        <v>16.4431391064184</v>
+        <v>0.0427047848728916</v>
       </c>
       <c r="C56">
-        <v>24.1291605592197</v>
+        <v>1.22819815844255</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>18.6447231819116</v>
+        <v>0.302419925402766</v>
       </c>
       <c r="B57">
-        <v>15.006126384421</v>
+        <v>0.030880765922087</v>
       </c>
       <c r="C57">
-        <v>22.4957180930709</v>
+        <v>1.07155502317313</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>21.1248455843405</v>
+        <v>0.428075496993304</v>
       </c>
       <c r="B58">
-        <v>17.8352950980543</v>
+        <v>0.0346997206890671</v>
       </c>
       <c r="C58">
-        <v>24.6812276458627</v>
+        <v>1.41186158290932</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>15.9462835207544</v>
+        <v>0.211618944146596</v>
       </c>
       <c r="B59">
-        <v>13.6717400266806</v>
+        <v>0.0342166175239909</v>
       </c>
       <c r="C59">
-        <v>18.3579822778985</v>
+        <v>0.691237734958302</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>17.9040924857534</v>
+        <v>0.415325375991105</v>
       </c>
       <c r="B60">
-        <v>15.5388293841935</v>
+        <v>0.0627971371404134</v>
       </c>
       <c r="C60">
-        <v>20.4419137921414</v>
+        <v>1.19115803192659</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>18.4026950276275</v>
+        <v>0.398570355151175</v>
       </c>
       <c r="B61">
-        <v>16.1252605928358</v>
+        <v>0.0420655482327761</v>
       </c>
       <c r="C61">
-        <v>20.7661871305773</v>
+        <v>1.22247420072127</v>
       </c>
     </row>
   </sheetData>
@@ -3116,662 +3117,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4.98573062182761</v>
+        <v>19.4239847747269</v>
       </c>
       <c r="B2">
-        <v>4.22222222222222</v>
+        <v>15.7247845033685</v>
       </c>
       <c r="C2">
-        <v>5.72727272727273</v>
+        <v>23.2522244122334</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4.92554700622996</v>
+        <v>16.9793069596456</v>
       </c>
       <c r="B3">
-        <v>4.11083333333333</v>
+        <v>13.4313532129513</v>
       </c>
       <c r="C3">
-        <v>5.71428571428571</v>
+        <v>20.7351001027575</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4.85809564469511</v>
+        <v>20.7924691049273</v>
       </c>
       <c r="B4">
-        <v>4.16666666666667</v>
+        <v>17.6391769115986</v>
       </c>
       <c r="C4">
-        <v>5.55555555555556</v>
+        <v>24.0788119716957</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4.79619017444511</v>
+        <v>22.5688196517537</v>
       </c>
       <c r="B5">
-        <v>4.18181818181818</v>
+        <v>18.9973284853956</v>
       </c>
       <c r="C5">
-        <v>5.4</v>
+        <v>26.3300910290685</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4.58003252365244</v>
+        <v>15.2613602998368</v>
       </c>
       <c r="B6">
-        <v>3.8</v>
+        <v>11.8900010440713</v>
       </c>
       <c r="C6">
-        <v>5.3</v>
+        <v>18.9371680130447</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>4.75054787176738</v>
+        <v>13.2457465989488</v>
       </c>
       <c r="B7">
-        <v>4.11111111111111</v>
+        <v>9.85376292482709</v>
       </c>
       <c r="C7">
-        <v>5.4</v>
+        <v>16.9957330852578</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4.88252842884137</v>
+        <v>19.1162229180277</v>
       </c>
       <c r="B8">
-        <v>4.11111111111111</v>
+        <v>15.9215024435569</v>
       </c>
       <c r="C8">
-        <v>5.61538461538461</v>
+        <v>22.3861337112906</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>4.81766055058364</v>
+        <v>16.7670274726587</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>13.6356367516362</v>
       </c>
       <c r="C9">
-        <v>5.58333333333333</v>
+        <v>20.0143338818689</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4.77558125891875</v>
+        <v>20.7396516636618</v>
       </c>
       <c r="B10">
-        <v>4.09090909090909</v>
+        <v>18.0145016506572</v>
       </c>
       <c r="C10">
-        <v>5.45454545454545</v>
+        <v>23.4895403293197</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4.74525883960649</v>
+        <v>21.7640092471691</v>
       </c>
       <c r="B11">
-        <v>4.11111111111111</v>
+        <v>18.5785728110971</v>
       </c>
       <c r="C11">
-        <v>5.33333333333333</v>
+        <v>25.0409711784312</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4.51678708417177</v>
+        <v>15.0936356256756</v>
       </c>
       <c r="B12">
-        <v>3.77777777777778</v>
+        <v>12.0261883851957</v>
       </c>
       <c r="C12">
-        <v>5.2</v>
+        <v>18.4467665214831</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4.68622088330312</v>
+        <v>13.4766453565137</v>
       </c>
       <c r="B13">
-        <v>4.1</v>
+        <v>10.4063970370503</v>
       </c>
       <c r="C13">
-        <v>5.27272727272727</v>
+        <v>16.8245356797354</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4.78248823369774</v>
+        <v>19.0251851523691</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>16.1496061103573</v>
       </c>
       <c r="C14">
-        <v>5.5</v>
+        <v>21.8928481406652</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4.71810899259544</v>
+        <v>16.7611913924383</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>13.9022757548917</v>
       </c>
       <c r="C15">
-        <v>5.46666666666667</v>
+        <v>19.6687667912698</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4.71359118641305</v>
+        <v>20.7671755344641</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>18.3377765602016</v>
       </c>
       <c r="C16">
-        <v>5.36363636363636</v>
+        <v>23.1878944590159</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4.69046311037792</v>
+        <v>20.9919636046984</v>
       </c>
       <c r="B17">
-        <v>4.09090909090909</v>
+        <v>18.1341665397381</v>
       </c>
       <c r="C17">
-        <v>5.27272727272727</v>
+        <v>23.8852228382209</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4.47458059313287</v>
+        <v>15.0688929819288</v>
       </c>
       <c r="B18">
-        <v>3.77777777777778</v>
+        <v>12.2614513874609</v>
       </c>
       <c r="C18">
-        <v>5.14285714285714</v>
+        <v>18.101252029891</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4.63677376806992</v>
+        <v>13.8236453636246</v>
       </c>
       <c r="B19">
-        <v>4.1</v>
+        <v>11.0115213384873</v>
       </c>
       <c r="C19">
-        <v>5.18181818181818</v>
+        <v>16.827717278747</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4.70876957808448</v>
+        <v>19.0894957721789</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>16.3570380942019</v>
       </c>
       <c r="C20">
-        <v>5.4</v>
+        <v>21.7457577916575</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4.6425211050158</v>
+        <v>16.9068948560859</v>
       </c>
       <c r="B21">
-        <v>3.88888888888889</v>
+        <v>14.1813868724633</v>
       </c>
       <c r="C21">
-        <v>5.36363636363636</v>
+        <v>19.6481889795781</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4.66797531497114</v>
+        <v>20.8140236494439</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>18.5286906464019</v>
       </c>
       <c r="C22">
-        <v>5.3</v>
+        <v>23.1052792060542</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4.63906212280482</v>
+        <v>20.2133131532458</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>17.6039390755846</v>
       </c>
       <c r="C23">
-        <v>5.21428571428571</v>
+        <v>22.8063566843726</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4.44523627774136</v>
+        <v>15.2021818979239</v>
       </c>
       <c r="B24">
-        <v>3.75</v>
+        <v>12.6032093047267</v>
       </c>
       <c r="C24">
-        <v>5.1</v>
+        <v>17.982264898987</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4.60061387447316</v>
+        <v>14.2901057579603</v>
       </c>
       <c r="B25">
-        <v>4.09090909090909</v>
+        <v>11.6873429676205</v>
       </c>
       <c r="C25">
-        <v>5.1</v>
+        <v>17.004555119139</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4.65598914856791</v>
+        <v>19.2340959113212</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>16.465513144932</v>
       </c>
       <c r="C26">
-        <v>5.30769230769231</v>
+        <v>21.9067856972448</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4.58733977005429</v>
+        <v>17.1467376484727</v>
       </c>
       <c r="B27">
-        <v>3.85714285714286</v>
+        <v>14.393805297439</v>
       </c>
       <c r="C27">
-        <v>5.28571428571429</v>
+        <v>19.8805717060127</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4.64364397938703</v>
+        <v>20.8522525652657</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>18.5684455473189</v>
       </c>
       <c r="C28">
-        <v>5.25</v>
+        <v>23.1561061218282</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4.58938532804726</v>
+        <v>19.3917919909561</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>16.9889048594345</v>
       </c>
       <c r="C29">
-        <v>5.16666666666667</v>
+        <v>21.7679701792476</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4.43821396251318</v>
+        <v>15.4940817905709</v>
       </c>
       <c r="B30">
-        <v>3.75</v>
+        <v>13.0731366048526</v>
       </c>
       <c r="C30">
-        <v>5.08333333333333</v>
+        <v>18.0349342067138</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4.5719562258182</v>
+        <v>14.8760093094569</v>
       </c>
       <c r="B31">
-        <v>4.1</v>
+        <v>12.4673158275037</v>
       </c>
       <c r="C31">
-        <v>5.08333333333333</v>
+        <v>17.3361767640446</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4.61799671321997</v>
+        <v>19.4100294467565</v>
       </c>
       <c r="B32">
-        <v>3.91666666666667</v>
+        <v>16.5553232269119</v>
       </c>
       <c r="C32">
-        <v>5.27272727272727</v>
+        <v>22.2123599566305</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4.55578642187316</v>
+        <v>17.4369361583492</v>
       </c>
       <c r="B33">
-        <v>3.85714285714286</v>
+        <v>14.5805062714955</v>
       </c>
       <c r="C33">
-        <v>5.22222222222222</v>
+        <v>20.2914057687443</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>4.62484980840574</v>
+        <v>20.8859483836968</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>18.4886667080713</v>
       </c>
       <c r="C34">
-        <v>5.22222222222222</v>
+        <v>23.3578819547505</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4.53924306395708</v>
+        <v>18.5367237726114</v>
       </c>
       <c r="B35">
-        <v>3.88888888888889</v>
+        <v>16.2909519971092</v>
       </c>
       <c r="C35">
-        <v>5.11111111111111</v>
+        <v>20.7955308993744</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4.44207070707071</v>
+        <v>15.9226008942098</v>
       </c>
       <c r="B36">
-        <v>3.8</v>
+        <v>13.6652792577537</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>18.278430038576</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4.55391472141778</v>
+        <v>15.5576968302175</v>
       </c>
       <c r="B37">
-        <v>4.1</v>
+        <v>13.3395363050491</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>17.8324254604382</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4.59744068787451</v>
+        <v>19.5958461462152</v>
       </c>
       <c r="B38">
-        <v>3.90909090909091</v>
+        <v>16.5476251767811</v>
       </c>
       <c r="C38">
-        <v>5.23076923076923</v>
+        <v>22.6420900441455</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4.54145299808953</v>
+        <v>17.748012288672</v>
       </c>
       <c r="B39">
-        <v>3.85714285714286</v>
+        <v>14.7184292369382</v>
       </c>
       <c r="C39">
-        <v>5.18181818181818</v>
+        <v>20.7827758705525</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4.6188373163048</v>
+        <v>20.9265410720053</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>18.3706816393484</v>
       </c>
       <c r="C40">
-        <v>5.2</v>
+        <v>23.6211490834967</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4.49964262951866</v>
+        <v>17.7076693979988</v>
       </c>
       <c r="B41">
-        <v>3.85714285714286</v>
+        <v>15.5277518824278</v>
       </c>
       <c r="C41">
-        <v>5.1</v>
+        <v>19.9110681863996</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4.46150396752706</v>
+        <v>16.4327133672981</v>
       </c>
       <c r="B42">
-        <v>3.8</v>
+        <v>14.2955696220985</v>
       </c>
       <c r="C42">
-        <v>5.08333333333333</v>
+        <v>18.6564625782621</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4.54200962318931</v>
+        <v>16.2910716716839</v>
       </c>
       <c r="B43">
-        <v>4.1</v>
+        <v>14.196840376286</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>18.4354008838649</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>4.59068592817746</v>
+        <v>19.7822871966128</v>
       </c>
       <c r="B44">
-        <v>3.9</v>
+        <v>16.5257084772687</v>
       </c>
       <c r="C44">
-        <v>5.22222222222222</v>
+        <v>23.0980251007784</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4.53587151612685</v>
+        <v>18.0592913085811</v>
       </c>
       <c r="B45">
-        <v>3.85714285714286</v>
+        <v>14.836786047482</v>
       </c>
       <c r="C45">
-        <v>5.18181818181818</v>
+        <v>21.3309571078253</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4.61442494509436</v>
+        <v>20.9794585320794</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>18.1946115627148</v>
       </c>
       <c r="C46">
-        <v>5.2</v>
+        <v>23.9656746283844</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>4.46484659591328</v>
+        <v>16.9751347914292</v>
       </c>
       <c r="B47">
-        <v>3.83295454545455</v>
+        <v>14.8190691541106</v>
       </c>
       <c r="C47">
-        <v>5.1</v>
+        <v>19.1853448948701</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4.48682186927656</v>
+        <v>16.952773525112</v>
       </c>
       <c r="B48">
-        <v>3.83333333333333</v>
+        <v>14.8634006883532</v>
       </c>
       <c r="C48">
-        <v>5.09090909090909</v>
+        <v>19.1490999139331</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4.53783746049957</v>
+        <v>17.0327485820795</v>
       </c>
       <c r="B49">
-        <v>4.1</v>
+        <v>14.9583157496072</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>19.1730799020253</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>4.5916423157342</v>
+        <v>19.9670574379007</v>
       </c>
       <c r="B50">
-        <v>3.90909090909091</v>
+        <v>16.4738872070965</v>
       </c>
       <c r="C50">
-        <v>5.22222222222222</v>
+        <v>23.6097321092871</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>4.53734353540927</v>
+        <v>18.3588777051053</v>
       </c>
       <c r="B51">
-        <v>3.85714285714286</v>
+        <v>14.925073389723</v>
       </c>
       <c r="C51">
-        <v>5.18181818181818</v>
+        <v>21.9116950463982</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>4.61995288811917</v>
+        <v>21.0456834372404</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>18.0031615945901</v>
       </c>
       <c r="C52">
-        <v>5.2</v>
+        <v>24.2921672475886</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>4.44148563892705</v>
+        <v>16.3845861164209</v>
       </c>
       <c r="B53">
-        <v>3.77777777777778</v>
+        <v>14.2098340761503</v>
       </c>
       <c r="C53">
-        <v>5.1</v>
+        <v>18.6651228906265</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>4.52141617699855</v>
+        <v>17.4408419317535</v>
       </c>
       <c r="B54">
-        <v>3.85714285714286</v>
+        <v>15.2466584888985</v>
       </c>
       <c r="C54">
-        <v>5.1</v>
+        <v>19.7605490683479</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>4.54246914297406</v>
+        <v>17.7466592038179</v>
       </c>
       <c r="B55">
-        <v>4.1</v>
+        <v>15.6000516512266</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>19.9654485777399</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4.59463000726148</v>
+        <v>20.1531388987684</v>
       </c>
       <c r="B56">
-        <v>4</v>
+        <v>16.4431391064184</v>
       </c>
       <c r="C56">
-        <v>5.22222222222222</v>
+        <v>24.1291605592197</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4.54395849924983</v>
+        <v>18.6447231819116</v>
       </c>
       <c r="B57">
-        <v>3.875</v>
+        <v>15.006126384421</v>
       </c>
       <c r="C57">
-        <v>5.18181818181818</v>
+        <v>22.4957180930709</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4.62238371665744</v>
+        <v>21.1248455843405</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>17.8352950980543</v>
       </c>
       <c r="C58">
-        <v>5.2</v>
+        <v>24.6812276458627</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>4.43214133821907</v>
+        <v>15.9462835207544</v>
       </c>
       <c r="B59">
-        <v>3.71428571428571</v>
+        <v>13.6717400266806</v>
       </c>
       <c r="C59">
-        <v>5.11111111111111</v>
+        <v>18.3579822778985</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>4.56126861198442</v>
+        <v>17.9040924857534</v>
       </c>
       <c r="B60">
-        <v>3.875</v>
+        <v>15.5388293841935</v>
       </c>
       <c r="C60">
-        <v>5.14285714285714</v>
+        <v>20.4419137921414</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>4.55057039298018</v>
+        <v>18.4026950276275</v>
       </c>
       <c r="B61">
-        <v>4.1</v>
+        <v>16.1252605928358</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>20.7661871305773</v>
       </c>
     </row>
   </sheetData>
@@ -3800,662 +3801,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>132.689259422661</v>
+        <v>4.98430705391557</v>
       </c>
       <c r="B2">
-        <v>41.845724695755</v>
+        <v>4.22222222222222</v>
       </c>
       <c r="C2">
-        <v>375.472775112738</v>
+        <v>5.73333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>104.201008882556</v>
+        <v>4.93274582065537</v>
       </c>
       <c r="B3">
-        <v>32.189722708779</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C3">
-        <v>305.050230360669</v>
+        <v>5.72727272727273</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>294.17004856144</v>
+        <v>4.85773444365446</v>
       </c>
       <c r="B4">
-        <v>91.4146120206658</v>
+        <v>4.15384615384615</v>
       </c>
       <c r="C4">
-        <v>819.857487325846</v>
+        <v>5.55555555555556</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1341.86036435926</v>
+        <v>4.79706933059806</v>
       </c>
       <c r="B5">
-        <v>259.305131522043</v>
+        <v>4.18181818181818</v>
       </c>
       <c r="C5">
-        <v>5006.92542006493</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>291.942621929387</v>
+        <v>4.57364749215259</v>
       </c>
       <c r="B6">
-        <v>58.1371552056137</v>
+        <v>3.8</v>
       </c>
       <c r="C6">
-        <v>1078.34638922982</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>361.56346722201</v>
+        <v>4.74664474611632</v>
       </c>
       <c r="B7">
-        <v>59.7471662249227</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C7">
-        <v>1560.16643783809</v>
+        <v>5.38461538461539</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>142.932122478145</v>
+        <v>4.87919132775329</v>
       </c>
       <c r="B8">
-        <v>49.3460956008467</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C8">
-        <v>380.319381025919</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>112.768672064243</v>
+        <v>4.81568673222552</v>
       </c>
       <c r="B9">
-        <v>37.8862388746611</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>309.025292428603</v>
+        <v>5.58333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>332.724787121499</v>
+        <v>4.77840084923139</v>
       </c>
       <c r="B10">
-        <v>115.922335919714</v>
+        <v>4.09977272727273</v>
       </c>
       <c r="C10">
-        <v>869.316894643866</v>
+        <v>5.44444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1037.39311423949</v>
+        <v>4.7449507053564</v>
       </c>
       <c r="B11">
-        <v>241.74256178325</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C11">
-        <v>3529.55240602967</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>266.726019584816</v>
+        <v>4.51611192556677</v>
       </c>
       <c r="B12">
-        <v>64.9487373632403</v>
+        <v>3.77777777777778</v>
       </c>
       <c r="C12">
-        <v>872.530552001339</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>303.800198132614</v>
+        <v>4.68465690687975</v>
       </c>
       <c r="B13">
-        <v>67.5526249138868</v>
+        <v>4.1</v>
       </c>
       <c r="C13">
-        <v>1117.85612081281</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>171.814692912833</v>
+        <v>4.77957577033913</v>
       </c>
       <c r="B14">
-        <v>63.8198031006514</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>428.499241478974</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>135.94402469095</v>
+        <v>4.71747384983585</v>
       </c>
       <c r="B15">
-        <v>49.0986754533547</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>352.183666928223</v>
+        <v>5.45454545454545</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>413.728084738142</v>
+        <v>4.71318023862828</v>
       </c>
       <c r="B16">
-        <v>155.074764641879</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1020.95493670041</v>
+        <v>5.36363636363636</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>854.426060278143</v>
+        <v>4.68951563919464</v>
       </c>
       <c r="B17">
-        <v>236.495509224696</v>
+        <v>4.09090909090909</v>
       </c>
       <c r="C17">
-        <v>2605.63028144143</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>262.465998938821</v>
+        <v>4.47346393183767</v>
       </c>
       <c r="B18">
-        <v>76.2430707000019</v>
+        <v>3.75</v>
       </c>
       <c r="C18">
-        <v>770.613274556211</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>291.998633649232</v>
+        <v>4.6378371739059</v>
       </c>
       <c r="B19">
-        <v>83.5049550420821</v>
+        <v>4.09090909090909</v>
       </c>
       <c r="C19">
-        <v>900.183761093616</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>225.486367541246</v>
+        <v>4.70589845545509</v>
       </c>
       <c r="B20">
-        <v>85.7244495719007</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>546.849889042265</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>178.864575291784</v>
+        <v>4.63974438144576</v>
       </c>
       <c r="B21">
-        <v>65.8053842191195</v>
+        <v>3.875</v>
       </c>
       <c r="C21">
-        <v>453.995019533671</v>
+        <v>5.36363636363636</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>558.259999016187</v>
+        <v>4.6678831650067</v>
       </c>
       <c r="B22">
-        <v>212.273297089176</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>1357.77132298363</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>743.51796643135</v>
+        <v>4.64251267780181</v>
       </c>
       <c r="B23">
-        <v>239.831900438812</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>2032.99587707557</v>
+        <v>5.21428571428571</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>276.121434093299</v>
+        <v>4.44556569369407</v>
       </c>
       <c r="B24">
-        <v>93.2091910862315</v>
+        <v>3.75</v>
       </c>
       <c r="C24">
-        <v>732.455955155826</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>316.73562287929</v>
+        <v>4.5976389520151</v>
       </c>
       <c r="B25">
-        <v>111.32183985914</v>
+        <v>4.09090909090909</v>
       </c>
       <c r="C25">
-        <v>840.538253995363</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>319.153575577172</v>
+        <v>4.65112185849187</v>
       </c>
       <c r="B26">
-        <v>116.918473387594</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>784.533715961562</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>253.901333178689</v>
+        <v>4.58841368355077</v>
       </c>
       <c r="B27">
-        <v>88.7848749986813</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C27">
-        <v>653.115294620243</v>
+        <v>5.28571428571429</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>810.835609549189</v>
+        <v>4.64113404833041</v>
       </c>
       <c r="B28">
-        <v>289.793889415052</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>2052.30456718979</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>680.635292665102</v>
+        <v>4.58925147699778</v>
       </c>
       <c r="B29">
-        <v>247.443087256249</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>1695.74960299528</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>309.038896990038</v>
+        <v>4.4366297393145</v>
       </c>
       <c r="B30">
-        <v>116.740488428095</v>
+        <v>3.75</v>
       </c>
       <c r="C30">
-        <v>743.981340162198</v>
+        <v>5.09090909090909</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>382.651661592331</v>
+        <v>4.5719748204359</v>
       </c>
       <c r="B31">
-        <v>155.84283308575</v>
+        <v>4.1</v>
       </c>
       <c r="C31">
-        <v>889.012045361846</v>
+        <v>5.08333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>483.89234943185</v>
+        <v>4.61982437414868</v>
       </c>
       <c r="B32">
-        <v>157.360345692368</v>
+        <v>3.90909090909091</v>
       </c>
       <c r="C32">
-        <v>1261.29682411833</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>386.306958885</v>
+        <v>4.55638299945051</v>
       </c>
       <c r="B33">
-        <v>119.644675677517</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C33">
-        <v>1064.68807567061</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1261.57846742119</v>
+        <v>4.62354296558073</v>
       </c>
       <c r="B34">
-        <v>393.0102662246</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>3460.97414882987</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>654.046615284506</v>
+        <v>4.53940819670015</v>
       </c>
       <c r="B35">
-        <v>258.142177458409</v>
+        <v>3.88888888888889</v>
       </c>
       <c r="C35">
-        <v>1534.04387883201</v>
+        <v>5.11111111111111</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>366.790983278134</v>
+        <v>4.44506701640374</v>
       </c>
       <c r="B36">
-        <v>148.848470412175</v>
+        <v>3.8</v>
       </c>
       <c r="C36">
-        <v>829.454784018646</v>
+        <v>5.07142857142857</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>508.110049152001</v>
+        <v>4.55467069813867</v>
       </c>
       <c r="B37">
-        <v>224.807496719792</v>
+        <v>4.1</v>
       </c>
       <c r="C37">
-        <v>1098.08047716817</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>783.124208720389</v>
+        <v>4.6004640822923</v>
       </c>
       <c r="B38">
-        <v>211.986422768261</v>
+        <v>3.90909090909091</v>
       </c>
       <c r="C38">
-        <v>2284.25675355108</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>627.755831196831</v>
+        <v>4.54084063545727</v>
       </c>
       <c r="B39">
-        <v>160.109721556292</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C39">
-        <v>1948.9430181096</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2097.31397394626</v>
+        <v>4.61430327458368</v>
       </c>
       <c r="B40">
-        <v>537.414860047867</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>6522.33235181474</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>659.11098931322</v>
+        <v>4.49788333457545</v>
       </c>
       <c r="B41">
-        <v>266.813592575878</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C41">
-        <v>1500.19872034952</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>460.699908100639</v>
+        <v>4.45835700777725</v>
       </c>
       <c r="B42">
-        <v>190.759817307835</v>
+        <v>3.8</v>
       </c>
       <c r="C42">
-        <v>1017.07104104557</v>
+        <v>5.08333333333333</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>733.027790585567</v>
+        <v>4.54163896927725</v>
       </c>
       <c r="B43">
-        <v>331.729367596634</v>
+        <v>4.1</v>
       </c>
       <c r="C43">
-        <v>1545.69168825292</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1350.88381713753</v>
+        <v>4.59165709436789</v>
       </c>
       <c r="B44">
-        <v>287.514050534019</v>
+        <v>3.9</v>
       </c>
       <c r="C44">
-        <v>4441.49864944296</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1087.83700757483</v>
+        <v>4.53567696187595</v>
       </c>
       <c r="B45">
-        <v>215.78687332929</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C45">
-        <v>3786.56876375925</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3721.60124228708</v>
+        <v>4.61697644413496</v>
       </c>
       <c r="B46">
-        <v>729.651009784141</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>13471.7952647379</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>696.381789746257</v>
+        <v>4.46201451048951</v>
       </c>
       <c r="B47">
-        <v>272.445885795172</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="C47">
-        <v>1630.99103253827</v>
+        <v>5.09090909090909</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>611.58459879405</v>
+        <v>4.48992631075522</v>
       </c>
       <c r="B48">
-        <v>244.800053004017</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="C48">
-        <v>1394.90152981869</v>
+        <v>5.09090909090909</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1138.75311353618</v>
+        <v>4.53604549429074</v>
       </c>
       <c r="B49">
-        <v>498.866848125214</v>
+        <v>4.1</v>
       </c>
       <c r="C49">
-        <v>2493.2768186533</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2483.71002006434</v>
+        <v>4.58886526902146</v>
       </c>
       <c r="B50">
-        <v>390.008827318304</v>
+        <v>3.91666666666667</v>
       </c>
       <c r="C50">
-        <v>9400.98349640827</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2009.90236274307</v>
+        <v>4.53660030699609</v>
       </c>
       <c r="B51">
-        <v>294.152683599573</v>
+        <v>3.875</v>
       </c>
       <c r="C51">
-        <v>8015.19166146486</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>7048.68515552053</v>
+        <v>4.61376004514397</v>
       </c>
       <c r="B52">
-        <v>1010.49817215144</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>29232.495712217</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>771.521535675512</v>
+        <v>4.44407072970432</v>
       </c>
       <c r="B53">
-        <v>275.494000941409</v>
+        <v>3.75</v>
       </c>
       <c r="C53">
-        <v>1927.93383376544</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>857.519420376843</v>
+        <v>4.52467972488092</v>
       </c>
       <c r="B54">
-        <v>312.687202987703</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C54">
-        <v>2100.30920375806</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1893.38951118636</v>
+        <v>4.54061485827285</v>
       </c>
       <c r="B55">
-        <v>761.07535120054</v>
+        <v>4.1</v>
       </c>
       <c r="C55">
-        <v>4442.9751909565</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4871.75079962929</v>
+        <v>4.59489620239949</v>
       </c>
       <c r="B56">
-        <v>533.289460033196</v>
+        <v>3.92307692307692</v>
       </c>
       <c r="C56">
-        <v>21308.8693475195</v>
+        <v>5.21428571428571</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3962.48179103694</v>
+        <v>4.54268780949121</v>
       </c>
       <c r="B57">
-        <v>405.798967548829</v>
+        <v>3.875</v>
       </c>
       <c r="C57">
-        <v>17812.7089973256</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>14258.0116001427</v>
+        <v>4.61856374752202</v>
       </c>
       <c r="B58">
-        <v>1410.55735261593</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>67430.5364847632</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>896.755583028853</v>
+        <v>4.43139017625553</v>
       </c>
       <c r="B59">
-        <v>278.898072725479</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="C59">
-        <v>2488.04074351749</v>
+        <v>5.11111111111111</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1269.81247850593</v>
+        <v>4.5632090004843</v>
       </c>
       <c r="B60">
-        <v>401.194652060249</v>
+        <v>3.88854166666667</v>
       </c>
       <c r="C60">
-        <v>3459.17346943059</v>
+        <v>5.14285714285714</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3356.750453196</v>
+        <v>4.55157719252</v>
       </c>
       <c r="B61">
-        <v>1163.74735672621</v>
+        <v>4.1</v>
       </c>
       <c r="C61">
-        <v>8809.27912716663</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -4484,662 +4485,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3.65963543602799</v>
+        <v>132.689259422661</v>
       </c>
       <c r="B2">
-        <v>0.665016592176686</v>
+        <v>41.845724695755</v>
       </c>
       <c r="C2">
-        <v>14.0659910942146</v>
+        <v>375.472775112738</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.8267219617062</v>
+        <v>104.201008882556</v>
       </c>
       <c r="B3">
-        <v>0.476277784673051</v>
+        <v>32.189722708779</v>
       </c>
       <c r="C3">
-        <v>11.2641142960239</v>
+        <v>305.050230360669</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.48140859687215</v>
+        <v>294.17004856144</v>
       </c>
       <c r="B4">
-        <v>0.49707807219757</v>
+        <v>91.4146120206658</v>
       </c>
       <c r="C4">
-        <v>13.9547395581937</v>
+        <v>819.857487325846</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.86227849539135</v>
+        <v>1341.86036435926</v>
       </c>
       <c r="B5">
-        <v>0.165678921805187</v>
+        <v>259.305131522043</v>
       </c>
       <c r="C5">
-        <v>8.58127324409429</v>
+        <v>5006.92542006493</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.04506021706948</v>
+        <v>291.942621929387</v>
       </c>
       <c r="B6">
-        <v>0.0902368151956368</v>
+        <v>58.1371552056137</v>
       </c>
       <c r="C6">
-        <v>4.9328730204585</v>
+        <v>1078.34638922982</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>21.7712671626839</v>
+        <v>361.56346722201</v>
       </c>
       <c r="B7">
-        <v>0.959129181397536</v>
+        <v>59.7471662249227</v>
       </c>
       <c r="C7">
-        <v>116.825923380753</v>
+        <v>1560.16643783809</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.6019507664416</v>
+        <v>142.932122478145</v>
       </c>
       <c r="B8">
-        <v>0.396640155060685</v>
+        <v>49.3460956008467</v>
       </c>
       <c r="C8">
-        <v>5.23440651559442</v>
+        <v>380.319381025919</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.24578181833906</v>
+        <v>112.768672064243</v>
       </c>
       <c r="B9">
-        <v>0.282741702171025</v>
+        <v>37.8862388746611</v>
       </c>
       <c r="C9">
-        <v>4.20955660757103</v>
+        <v>309.025292428603</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.68763411105517</v>
+        <v>332.724787121499</v>
       </c>
       <c r="B10">
-        <v>0.301328911122006</v>
+        <v>115.922335919714</v>
       </c>
       <c r="C10">
-        <v>5.98467271472189</v>
+        <v>869.316894643866</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.883501470147675</v>
+        <v>1037.39311423949</v>
       </c>
       <c r="B11">
-        <v>0.115861952194163</v>
+        <v>241.74256178325</v>
       </c>
       <c r="C11">
-        <v>3.52633936325947</v>
+        <v>3529.55240602967</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.532223838595109</v>
+        <v>266.726019584816</v>
       </c>
       <c r="B12">
-        <v>0.0682203354463941</v>
+        <v>64.9487373632403</v>
       </c>
       <c r="C12">
-        <v>2.21327841900414</v>
+        <v>872.530552001339</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>8.2611374334481</v>
+        <v>303.800198132614</v>
       </c>
       <c r="B13">
-        <v>0.583567329381346</v>
+        <v>67.5526249138868</v>
       </c>
       <c r="C13">
-        <v>41.115137755852</v>
+        <v>1117.85612081281</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.792863736856799</v>
+        <v>171.814692912833</v>
       </c>
       <c r="B14">
-        <v>0.236005225108196</v>
+        <v>63.8198031006514</v>
       </c>
       <c r="C14">
-        <v>2.26493416280149</v>
+        <v>428.499241478974</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.620211893993784</v>
+        <v>135.94402469095</v>
       </c>
       <c r="B15">
-        <v>0.164952577789079</v>
+        <v>49.0986754533547</v>
       </c>
       <c r="C15">
-        <v>1.85029350835199</v>
+        <v>352.183666928223</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.917851105646476</v>
+        <v>413.728084738142</v>
       </c>
       <c r="B16">
-        <v>0.180872914770383</v>
+        <v>155.074764641879</v>
       </c>
       <c r="C16">
-        <v>3.04273750807348</v>
+        <v>1020.95493670041</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.462155593048184</v>
+        <v>854.426060278143</v>
       </c>
       <c r="B17">
-        <v>0.0817148351102346</v>
+        <v>236.495509224696</v>
       </c>
       <c r="C17">
-        <v>1.57799518481254</v>
+        <v>2605.63028144143</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.305117157783148</v>
+        <v>262.465998938821</v>
       </c>
       <c r="B18">
-        <v>0.0527203506607454</v>
+        <v>76.2430707000019</v>
       </c>
       <c r="C18">
-        <v>1.11031130990073</v>
+        <v>770.613274556211</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3.54436245043432</v>
+        <v>291.998633649232</v>
       </c>
       <c r="B19">
-        <v>0.349522554892365</v>
+        <v>83.5049550420821</v>
       </c>
       <c r="C19">
-        <v>16.1126319230336</v>
+        <v>900.183761093616</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.44171216396185</v>
+        <v>225.486367541246</v>
       </c>
       <c r="B20">
-        <v>0.137608745576522</v>
+        <v>85.7244495719007</v>
       </c>
       <c r="C20">
-        <v>1.16656912552705</v>
+        <v>546.849889042265</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.347180764236036</v>
+        <v>178.864575291784</v>
       </c>
       <c r="B21">
-        <v>0.0972890179457502</v>
+        <v>65.8053842191195</v>
       </c>
       <c r="C21">
-        <v>0.971264904856735</v>
+        <v>453.995019533671</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.562889423343918</v>
+        <v>558.259999016187</v>
       </c>
       <c r="B22">
-        <v>0.109737931469732</v>
+        <v>212.273297089176</v>
       </c>
       <c r="C22">
-        <v>1.7841519945802</v>
+        <v>1357.77132298363</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.265926620006746</v>
+        <v>743.51796643135</v>
       </c>
       <c r="B23">
-        <v>0.0579460285063501</v>
+        <v>239.831900438812</v>
       </c>
       <c r="C23">
-        <v>0.811390845056771</v>
+        <v>2032.99587707557</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.197211752303295</v>
+        <v>276.121434093299</v>
       </c>
       <c r="B24">
-        <v>0.0413638698092983</v>
+        <v>93.2091910862315</v>
       </c>
       <c r="C24">
-        <v>0.645187331347868</v>
+        <v>732.455955155826</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.70503406567835</v>
+        <v>316.73562287929</v>
       </c>
       <c r="B25">
-        <v>0.209415520998895</v>
+        <v>111.32183985914</v>
       </c>
       <c r="C25">
-        <v>6.99279982268209</v>
+        <v>840.538253995363</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.276725652991567</v>
+        <v>319.153575577172</v>
       </c>
       <c r="B26">
-        <v>0.0815744940058047</v>
+        <v>116.918473387594</v>
       </c>
       <c r="C26">
-        <v>0.723971271642784</v>
+        <v>784.533715961562</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.218316035006675</v>
+        <v>253.901333178689</v>
       </c>
       <c r="B27">
-        <v>0.0586424604001753</v>
+        <v>88.7848749986813</v>
       </c>
       <c r="C27">
-        <v>0.601853202306537</v>
+        <v>653.115294620243</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.395030054033254</v>
+        <v>810.835609549189</v>
       </c>
       <c r="B28">
-        <v>0.0671977920950704</v>
+        <v>289.793889415052</v>
       </c>
       <c r="C28">
-        <v>1.22622107464191</v>
+        <v>2052.30456718979</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.167964098633867</v>
+        <v>680.635292665102</v>
       </c>
       <c r="B29">
-        <v>0.0410723119808415</v>
+        <v>247.443087256249</v>
       </c>
       <c r="C29">
-        <v>0.471285356867057</v>
+        <v>1695.74960299528</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.14394519001741</v>
+        <v>309.038896990038</v>
       </c>
       <c r="B30">
-        <v>0.0333046434905696</v>
+        <v>116.740488428095</v>
       </c>
       <c r="C30">
-        <v>0.439311426282742</v>
+        <v>743.981340162198</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.91450629532697</v>
+        <v>382.651661592331</v>
       </c>
       <c r="B31">
-        <v>0.123357485282493</v>
+        <v>155.84283308575</v>
       </c>
       <c r="C31">
-        <v>3.574209384301</v>
+        <v>889.012045361846</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.19551075676876</v>
+        <v>483.89234943185</v>
       </c>
       <c r="B32">
-        <v>0.0503081261777695</v>
+        <v>157.360345692368</v>
       </c>
       <c r="C32">
-        <v>0.524285037562303</v>
+        <v>1261.29682411833</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.154669043889876</v>
+        <v>386.306958885</v>
       </c>
       <c r="B33">
-        <v>0.036028492408259</v>
+        <v>119.644675677517</v>
       </c>
       <c r="C33">
-        <v>0.443256634825894</v>
+        <v>1064.68807567061</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.324442528590961</v>
+        <v>1261.57846742119</v>
       </c>
       <c r="B34">
-        <v>0.0426317424147305</v>
+        <v>393.0102662246</v>
       </c>
       <c r="C34">
-        <v>0.974389945268509</v>
+        <v>3460.97414882987</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.11624862916896</v>
+        <v>654.046615284506</v>
       </c>
       <c r="B35">
-        <v>0.0296132003556546</v>
+        <v>258.142177458409</v>
       </c>
       <c r="C35">
-        <v>0.313198342580316</v>
+        <v>1534.04387883201</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.118751798494067</v>
+        <v>366.790983278134</v>
       </c>
       <c r="B36">
-        <v>0.0275426148119649</v>
+        <v>148.848470412175</v>
       </c>
       <c r="C36">
-        <v>0.356650782041747</v>
+        <v>829.454784018646</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.547028610779112</v>
+        <v>508.110049152001</v>
       </c>
       <c r="B37">
-        <v>0.0719089174059541</v>
+        <v>224.807496719792</v>
       </c>
       <c r="C37">
-        <v>2.10610098613117</v>
+        <v>1098.08047716817</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.156816770618073</v>
+        <v>783.124208720389</v>
       </c>
       <c r="B38">
-        <v>0.0324644540549022</v>
+        <v>211.986422768261</v>
       </c>
       <c r="C38">
-        <v>0.455042572816597</v>
+        <v>2284.25675355108</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.12428205407815</v>
+        <v>627.755831196831</v>
       </c>
       <c r="B39">
-        <v>0.0235342513566323</v>
+        <v>160.109721556292</v>
       </c>
       <c r="C39">
-        <v>0.387625755489501</v>
+        <v>1948.9430181096</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.317499395178636</v>
+        <v>2097.31397394626</v>
       </c>
       <c r="B40">
-        <v>0.0274935268046029</v>
+        <v>537.414860047867</v>
       </c>
       <c r="C40">
-        <v>0.885614144975931</v>
+        <v>6522.33235181474</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0880673650694226</v>
+        <v>659.11098931322</v>
       </c>
       <c r="B41">
-        <v>0.0215451504684669</v>
+        <v>266.813592575878</v>
       </c>
       <c r="C41">
-        <v>0.240049581382915</v>
+        <v>1500.19872034952</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.110645230735737</v>
+        <v>460.699908100639</v>
       </c>
       <c r="B42">
-        <v>0.0232942005536359</v>
+        <v>190.759817307835</v>
       </c>
       <c r="C42">
-        <v>0.342594179502325</v>
+        <v>1017.07104104557</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.369726610916172</v>
+        <v>733.027790585567</v>
       </c>
       <c r="B43">
-        <v>0.0421879795901661</v>
+        <v>331.729367596634</v>
       </c>
       <c r="C43">
-        <v>1.41075129506473</v>
+        <v>1545.69168825292</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.144059582500713</v>
+        <v>1350.88381713753</v>
       </c>
       <c r="B44">
-        <v>0.0219374706856524</v>
+        <v>287.514050534019</v>
       </c>
       <c r="C44">
-        <v>0.459367847438649</v>
+        <v>4441.49864944296</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.11425602042785</v>
+        <v>1087.83700757483</v>
       </c>
       <c r="B45">
-        <v>0.0157983456300386</v>
+        <v>215.78687332929</v>
       </c>
       <c r="C45">
-        <v>0.390023347531094</v>
+        <v>3786.56876375925</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.36860755436919</v>
+        <v>3721.60124228708</v>
       </c>
       <c r="B46">
-        <v>0.0182480453181191</v>
+        <v>729.651009784141</v>
       </c>
       <c r="C46">
-        <v>0.91482654779183</v>
+        <v>13471.7952647379</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.0730477097772796</v>
+        <v>696.381789746257</v>
       </c>
       <c r="B47">
-        <v>0.0157109443315481</v>
+        <v>272.445885795172</v>
       </c>
       <c r="C47">
-        <v>0.211380523369795</v>
+        <v>1630.99103253827</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.116125649468923</v>
+        <v>611.58459879405</v>
       </c>
       <c r="B48">
-        <v>0.0202865116111831</v>
+        <v>244.800053004017</v>
       </c>
       <c r="C48">
-        <v>0.389035280028188</v>
+        <v>1394.90152981869</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.293154441173634</v>
+        <v>1138.75311353618</v>
       </c>
       <c r="B49">
-        <v>0.0256488111873214</v>
+        <v>498.866848125214</v>
       </c>
       <c r="C49">
-        <v>1.06826658233169</v>
+        <v>2493.2768186533</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.152639035077664</v>
+        <v>2483.71002006434</v>
       </c>
       <c r="B50">
-        <v>0.0152223786981091</v>
+        <v>390.008827318304</v>
       </c>
       <c r="C50">
-        <v>0.541261111863529</v>
+        <v>9400.98349640827</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.120977524253029</v>
+        <v>2009.90236274307</v>
       </c>
       <c r="B51">
-        <v>0.0109874376531829</v>
+        <v>294.152683599573</v>
       </c>
       <c r="C51">
-        <v>0.450831718974105</v>
+        <v>8015.19166146486</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.49262591504282</v>
+        <v>7048.68515552053</v>
       </c>
       <c r="B52">
-        <v>0.0124767523320378</v>
+        <v>1010.49817215144</v>
       </c>
       <c r="C52">
-        <v>1.03786538973899</v>
+        <v>29232.495712217</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.0664871055857912</v>
+        <v>771.521535675512</v>
       </c>
       <c r="B53">
-        <v>0.0114688850019996</v>
+        <v>275.494000941409</v>
       </c>
       <c r="C53">
-        <v>0.21693596790884</v>
+        <v>1927.93383376544</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.136800529475898</v>
+        <v>857.519420376843</v>
       </c>
       <c r="B54">
-        <v>0.0178909935698446</v>
+        <v>312.687202987703</v>
       </c>
       <c r="C54">
-        <v>0.506915933594732</v>
+        <v>2100.30920375806</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.290619819958584</v>
+        <v>1893.38951118636</v>
       </c>
       <c r="B55">
-        <v>0.0163409183894296</v>
+        <v>761.07535120054</v>
       </c>
       <c r="C55">
-        <v>0.905728895775047</v>
+        <v>4442.9751909565</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.18666561957924</v>
+        <v>4871.75079962929</v>
       </c>
       <c r="B56">
-        <v>0.0107737352422797</v>
+        <v>533.289460033196</v>
       </c>
       <c r="C56">
-        <v>0.730260005039992</v>
+        <v>21308.8693475195</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.147546226292547</v>
+        <v>3962.48179103694</v>
       </c>
       <c r="B57">
-        <v>0.00779308006123896</v>
+        <v>405.798967548829</v>
       </c>
       <c r="C57">
-        <v>0.583549269860546</v>
+        <v>17812.7089973256</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.72839910121389</v>
+        <v>14258.0116001427</v>
       </c>
       <c r="B58">
-        <v>0.0087494170356257</v>
+        <v>1410.55735261593</v>
       </c>
       <c r="C58">
-        <v>1.31403853370101</v>
+        <v>67430.5364847632</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.066719197981336</v>
+        <v>896.755583028853</v>
       </c>
       <c r="B59">
-        <v>0.00860940374347021</v>
+        <v>278.898072725479</v>
       </c>
       <c r="C59">
-        <v>0.252928521335579</v>
+        <v>2488.04074351749</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.180495918057299</v>
+        <v>1269.81247850593</v>
       </c>
       <c r="B60">
-        <v>0.0158940330601333</v>
+        <v>401.194652060249</v>
       </c>
       <c r="C60">
-        <v>0.760215392569757</v>
+        <v>3459.17346943059</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.377239954595019</v>
+        <v>3356.750453196</v>
       </c>
       <c r="B61">
-        <v>0.0106283240632708</v>
+        <v>1163.74735672621</v>
       </c>
       <c r="C61">
-        <v>0.839386439403835</v>
+        <v>8809.27912716663</v>
       </c>
     </row>
   </sheetData>
@@ -5168,6 +5169,690 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
+        <v>3.65963543602799</v>
+      </c>
+      <c r="B2">
+        <v>0.665016592176686</v>
+      </c>
+      <c r="C2">
+        <v>14.0659910942146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2.8267219617062</v>
+      </c>
+      <c r="B3">
+        <v>0.476277784673051</v>
+      </c>
+      <c r="C3">
+        <v>11.2641142960239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3.48140859687215</v>
+      </c>
+      <c r="B4">
+        <v>0.49707807219757</v>
+      </c>
+      <c r="C4">
+        <v>13.9547395581937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1.86227849539135</v>
+      </c>
+      <c r="B5">
+        <v>0.165678921805187</v>
+      </c>
+      <c r="C5">
+        <v>8.58127324409429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1.04506021706948</v>
+      </c>
+      <c r="B6">
+        <v>0.0902368151956368</v>
+      </c>
+      <c r="C6">
+        <v>4.9328730204585</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>21.7712671626839</v>
+      </c>
+      <c r="B7">
+        <v>0.959129181397536</v>
+      </c>
+      <c r="C7">
+        <v>116.825923380753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1.6019507664416</v>
+      </c>
+      <c r="B8">
+        <v>0.396640155060685</v>
+      </c>
+      <c r="C8">
+        <v>5.23440651559442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1.24578181833906</v>
+      </c>
+      <c r="B9">
+        <v>0.282741702171025</v>
+      </c>
+      <c r="C9">
+        <v>4.20955660757103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1.68763411105517</v>
+      </c>
+      <c r="B10">
+        <v>0.301328911122006</v>
+      </c>
+      <c r="C10">
+        <v>5.98467271472189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>0.883501470147675</v>
+      </c>
+      <c r="B11">
+        <v>0.115861952194163</v>
+      </c>
+      <c r="C11">
+        <v>3.52633936325947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>0.532223838595109</v>
+      </c>
+      <c r="B12">
+        <v>0.0682203354463941</v>
+      </c>
+      <c r="C12">
+        <v>2.21327841900414</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>8.2611374334481</v>
+      </c>
+      <c r="B13">
+        <v>0.583567329381346</v>
+      </c>
+      <c r="C13">
+        <v>41.115137755852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>0.792863736856799</v>
+      </c>
+      <c r="B14">
+        <v>0.236005225108196</v>
+      </c>
+      <c r="C14">
+        <v>2.26493416280149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>0.620211893993784</v>
+      </c>
+      <c r="B15">
+        <v>0.164952577789079</v>
+      </c>
+      <c r="C15">
+        <v>1.85029350835199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>0.917851105646476</v>
+      </c>
+      <c r="B16">
+        <v>0.180872914770383</v>
+      </c>
+      <c r="C16">
+        <v>3.04273750807348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>0.462155593048184</v>
+      </c>
+      <c r="B17">
+        <v>0.0817148351102346</v>
+      </c>
+      <c r="C17">
+        <v>1.57799518481254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>0.305117157783148</v>
+      </c>
+      <c r="B18">
+        <v>0.0527203506607454</v>
+      </c>
+      <c r="C18">
+        <v>1.11031130990073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>3.54436245043432</v>
+      </c>
+      <c r="B19">
+        <v>0.349522554892365</v>
+      </c>
+      <c r="C19">
+        <v>16.1126319230336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>0.44171216396185</v>
+      </c>
+      <c r="B20">
+        <v>0.137608745576522</v>
+      </c>
+      <c r="C20">
+        <v>1.16656912552705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>0.347180764236036</v>
+      </c>
+      <c r="B21">
+        <v>0.0972890179457502</v>
+      </c>
+      <c r="C21">
+        <v>0.971264904856735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>0.562889423343918</v>
+      </c>
+      <c r="B22">
+        <v>0.109737931469732</v>
+      </c>
+      <c r="C22">
+        <v>1.7841519945802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>0.265926620006746</v>
+      </c>
+      <c r="B23">
+        <v>0.0579460285063501</v>
+      </c>
+      <c r="C23">
+        <v>0.811390845056771</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>0.197211752303295</v>
+      </c>
+      <c r="B24">
+        <v>0.0413638698092983</v>
+      </c>
+      <c r="C24">
+        <v>0.645187331347868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>1.70503406567835</v>
+      </c>
+      <c r="B25">
+        <v>0.209415520998895</v>
+      </c>
+      <c r="C25">
+        <v>6.99279982268209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>0.276725652991567</v>
+      </c>
+      <c r="B26">
+        <v>0.0815744940058047</v>
+      </c>
+      <c r="C26">
+        <v>0.723971271642784</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>0.218316035006675</v>
+      </c>
+      <c r="B27">
+        <v>0.0586424604001753</v>
+      </c>
+      <c r="C27">
+        <v>0.601853202306537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>0.395030054033254</v>
+      </c>
+      <c r="B28">
+        <v>0.0671977920950704</v>
+      </c>
+      <c r="C28">
+        <v>1.22622107464191</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>0.167964098633867</v>
+      </c>
+      <c r="B29">
+        <v>0.0410723119808415</v>
+      </c>
+      <c r="C29">
+        <v>0.471285356867057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>0.14394519001741</v>
+      </c>
+      <c r="B30">
+        <v>0.0333046434905696</v>
+      </c>
+      <c r="C30">
+        <v>0.439311426282742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>0.91450629532697</v>
+      </c>
+      <c r="B31">
+        <v>0.123357485282493</v>
+      </c>
+      <c r="C31">
+        <v>3.574209384301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>0.19551075676876</v>
+      </c>
+      <c r="B32">
+        <v>0.0503081261777695</v>
+      </c>
+      <c r="C32">
+        <v>0.524285037562303</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>0.154669043889876</v>
+      </c>
+      <c r="B33">
+        <v>0.036028492408259</v>
+      </c>
+      <c r="C33">
+        <v>0.443256634825894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>0.324442528590961</v>
+      </c>
+      <c r="B34">
+        <v>0.0426317424147305</v>
+      </c>
+      <c r="C34">
+        <v>0.974389945268509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>0.11624862916896</v>
+      </c>
+      <c r="B35">
+        <v>0.0296132003556546</v>
+      </c>
+      <c r="C35">
+        <v>0.313198342580316</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>0.118751798494067</v>
+      </c>
+      <c r="B36">
+        <v>0.0275426148119649</v>
+      </c>
+      <c r="C36">
+        <v>0.356650782041747</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>0.547028610779112</v>
+      </c>
+      <c r="B37">
+        <v>0.0719089174059541</v>
+      </c>
+      <c r="C37">
+        <v>2.10610098613117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>0.156816770618073</v>
+      </c>
+      <c r="B38">
+        <v>0.0324644540549022</v>
+      </c>
+      <c r="C38">
+        <v>0.455042572816597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>0.12428205407815</v>
+      </c>
+      <c r="B39">
+        <v>0.0235342513566323</v>
+      </c>
+      <c r="C39">
+        <v>0.387625755489501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>0.317499395178636</v>
+      </c>
+      <c r="B40">
+        <v>0.0274935268046029</v>
+      </c>
+      <c r="C40">
+        <v>0.885614144975931</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>0.0880673650694226</v>
+      </c>
+      <c r="B41">
+        <v>0.0215451504684669</v>
+      </c>
+      <c r="C41">
+        <v>0.240049581382915</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>0.110645230735737</v>
+      </c>
+      <c r="B42">
+        <v>0.0232942005536359</v>
+      </c>
+      <c r="C42">
+        <v>0.342594179502325</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>0.369726610916172</v>
+      </c>
+      <c r="B43">
+        <v>0.0421879795901661</v>
+      </c>
+      <c r="C43">
+        <v>1.41075129506473</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>0.144059582500713</v>
+      </c>
+      <c r="B44">
+        <v>0.0219374706856524</v>
+      </c>
+      <c r="C44">
+        <v>0.459367847438649</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>0.11425602042785</v>
+      </c>
+      <c r="B45">
+        <v>0.0157983456300386</v>
+      </c>
+      <c r="C45">
+        <v>0.390023347531094</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>0.36860755436919</v>
+      </c>
+      <c r="B46">
+        <v>0.0182480453181191</v>
+      </c>
+      <c r="C46">
+        <v>0.91482654779183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>0.0730477097772796</v>
+      </c>
+      <c r="B47">
+        <v>0.0157109443315481</v>
+      </c>
+      <c r="C47">
+        <v>0.211380523369795</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>0.116125649468923</v>
+      </c>
+      <c r="B48">
+        <v>0.0202865116111831</v>
+      </c>
+      <c r="C48">
+        <v>0.389035280028188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>0.293154441173634</v>
+      </c>
+      <c r="B49">
+        <v>0.0256488111873214</v>
+      </c>
+      <c r="C49">
+        <v>1.06826658233169</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>0.152639035077664</v>
+      </c>
+      <c r="B50">
+        <v>0.0152223786981091</v>
+      </c>
+      <c r="C50">
+        <v>0.541261111863529</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>0.120977524253029</v>
+      </c>
+      <c r="B51">
+        <v>0.0109874376531829</v>
+      </c>
+      <c r="C51">
+        <v>0.450831718974105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>0.49262591504282</v>
+      </c>
+      <c r="B52">
+        <v>0.0124767523320378</v>
+      </c>
+      <c r="C52">
+        <v>1.03786538973899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>0.0664871055857912</v>
+      </c>
+      <c r="B53">
+        <v>0.0114688850019996</v>
+      </c>
+      <c r="C53">
+        <v>0.21693596790884</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>0.136800529475898</v>
+      </c>
+      <c r="B54">
+        <v>0.0178909935698446</v>
+      </c>
+      <c r="C54">
+        <v>0.506915933594732</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>0.290619819958584</v>
+      </c>
+      <c r="B55">
+        <v>0.0163409183894296</v>
+      </c>
+      <c r="C55">
+        <v>0.905728895775047</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>0.18666561957924</v>
+      </c>
+      <c r="B56">
+        <v>0.0107737352422797</v>
+      </c>
+      <c r="C56">
+        <v>0.730260005039992</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>0.147546226292547</v>
+      </c>
+      <c r="B57">
+        <v>0.00779308006123896</v>
+      </c>
+      <c r="C57">
+        <v>0.583549269860546</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>0.72839910121389</v>
+      </c>
+      <c r="B58">
+        <v>0.0087494170356257</v>
+      </c>
+      <c r="C58">
+        <v>1.31403853370101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>0.066719197981336</v>
+      </c>
+      <c r="B59">
+        <v>0.00860940374347021</v>
+      </c>
+      <c r="C59">
+        <v>0.252928521335579</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>0.180495918057299</v>
+      </c>
+      <c r="B60">
+        <v>0.0158940330601333</v>
+      </c>
+      <c r="C60">
+        <v>0.760215392569757</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>0.377239954595019</v>
+      </c>
+      <c r="B61">
+        <v>0.0106283240632708</v>
+      </c>
+      <c r="C61">
+        <v>0.839386439403835</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>81.3077339114196</v>
       </c>
       <c r="B2">

--- a/small_data/assemb_stat_summs.xlsx
+++ b/small_data/assemb_stat_summs.xlsx
@@ -381,662 +381,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>36.7705008383927</v>
+        <v>48.645430148515</v>
       </c>
       <c r="B2">
-        <v>30.357083590502</v>
+        <v>42.4435327105241</v>
       </c>
       <c r="C2">
-        <v>43.6325343033565</v>
+        <v>55.1503952727259</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>32.2624233806332</v>
+        <v>42.3586415187199</v>
       </c>
       <c r="B3">
-        <v>26.2085434214744</v>
+        <v>36.3311174897751</v>
       </c>
       <c r="C3">
-        <v>38.6866951020645</v>
+        <v>48.6173334220442</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>37.6707175472703</v>
+        <v>45.1333747328831</v>
       </c>
       <c r="B4">
-        <v>32.1684704072403</v>
+        <v>39.150668466198</v>
       </c>
       <c r="C4">
-        <v>43.5958286781776</v>
+        <v>51.423279535053</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>38.0966050101157</v>
+        <v>45.30498650003</v>
       </c>
       <c r="B5">
-        <v>31.6419302430519</v>
+        <v>38.1751361910951</v>
       </c>
       <c r="C5">
-        <v>45.5184833939904</v>
+        <v>53.5182810349192</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>26.8735457018445</v>
+        <v>32.7289374105734</v>
       </c>
       <c r="B6">
-        <v>21.563034334144</v>
+        <v>27.1192434350998</v>
       </c>
       <c r="C6">
-        <v>32.7277948332944</v>
+        <v>38.9146235766555</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>27.6862160751578</v>
+        <v>31.6175416244972</v>
       </c>
       <c r="B7">
-        <v>22.3192835010167</v>
+        <v>26.0291982832482</v>
       </c>
       <c r="C7">
-        <v>33.5155913851738</v>
+        <v>37.756975033379</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>34.727206756403</v>
+        <v>45.4629028064398</v>
       </c>
       <c r="B8">
-        <v>29.4275006641617</v>
+        <v>40.0236609114272</v>
       </c>
       <c r="C8">
-        <v>40.3407584939303</v>
+        <v>51.184082094128</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>30.5729012178949</v>
+        <v>39.4643277386848</v>
       </c>
       <c r="B9">
-        <v>25.5420740499261</v>
+        <v>34.2448007819311</v>
       </c>
       <c r="C9">
-        <v>35.9118892540545</v>
+        <v>45.0160072666474</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>36.4424605027391</v>
+        <v>42.772775483259</v>
       </c>
       <c r="B10">
-        <v>31.8345449587003</v>
+        <v>37.7163409178822</v>
       </c>
       <c r="C10">
-        <v>41.2751061323018</v>
+        <v>48.1712385874034</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>35.9778423081121</v>
+        <v>43.0036924830096</v>
       </c>
       <c r="B11">
-        <v>30.5427203796964</v>
+        <v>36.9169583056643</v>
       </c>
       <c r="C11">
-        <v>42.012949400864</v>
+        <v>49.9650044273941</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>26.0184604425634</v>
+        <v>31.6110260043746</v>
       </c>
       <c r="B12">
-        <v>21.4045298244661</v>
+        <v>26.6695254296871</v>
       </c>
       <c r="C12">
-        <v>31.0106524559394</v>
+        <v>37.0324656007928</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>27.3939783850402</v>
+        <v>31.1239647687682</v>
       </c>
       <c r="B13">
-        <v>22.7473811385624</v>
+        <v>26.2264632833815</v>
       </c>
       <c r="C13">
-        <v>32.3693531771439</v>
+        <v>36.4891228354749</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>33.3270759346976</v>
+        <v>42.6709062407817</v>
       </c>
       <c r="B14">
-        <v>28.8007561129346</v>
+        <v>37.7874487883177</v>
       </c>
       <c r="C14">
-        <v>38.0950752637916</v>
+        <v>47.8527686230291</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>29.5020453786918</v>
+        <v>37.0957661879336</v>
       </c>
       <c r="B15">
-        <v>25.1625934478322</v>
+        <v>32.4075137553195</v>
       </c>
       <c r="C15">
-        <v>34.1359968792535</v>
+        <v>42.1084657151917</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>35.5884117295405</v>
+        <v>40.9004965836108</v>
       </c>
       <c r="B16">
-        <v>31.6043748272117</v>
+        <v>36.4478084013822</v>
       </c>
       <c r="C16">
-        <v>39.7637577340995</v>
+        <v>45.6692111648976</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>34.1382556669462</v>
+        <v>40.8786649108249</v>
       </c>
       <c r="B17">
-        <v>29.5737429897728</v>
+        <v>35.7090938347764</v>
       </c>
       <c r="C17">
-        <v>39.1146175756206</v>
+        <v>46.5928564273154</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>25.5372487509427</v>
+        <v>30.8563086063804</v>
       </c>
       <c r="B18">
-        <v>21.452939653541</v>
+        <v>26.3825433521533</v>
       </c>
       <c r="C18">
-        <v>29.8990266738012</v>
+        <v>35.7370527173333</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>27.2567385912497</v>
+        <v>30.9225307634692</v>
       </c>
       <c r="B19">
-        <v>23.1602019599446</v>
+        <v>26.588441372927</v>
       </c>
       <c r="C19">
-        <v>31.5995946969879</v>
+        <v>35.6349069372876</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>32.5409555231369</v>
+        <v>40.5734178633162</v>
       </c>
       <c r="B20">
-        <v>28.3646045106808</v>
+        <v>36.0571480761202</v>
       </c>
       <c r="C20">
-        <v>36.8658727843919</v>
+        <v>45.5048614474203</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>28.9929119960618</v>
+        <v>35.4700585989764</v>
       </c>
       <c r="B21">
-        <v>24.950112433512</v>
+        <v>31.220352882563</v>
       </c>
       <c r="C21">
-        <v>33.2123723769165</v>
+        <v>40.1440590201467</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>35.0490696953154</v>
+        <v>39.6242624715812</v>
       </c>
       <c r="B22">
-        <v>31.3848228288516</v>
+        <v>35.5248851983661</v>
       </c>
       <c r="C22">
-        <v>38.9117547462285</v>
+        <v>44.0573739816637</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>32.5655663044917</v>
+        <v>39.011554214906</v>
       </c>
       <c r="B23">
-        <v>28.6745896118163</v>
+        <v>34.6121772747911</v>
       </c>
       <c r="C23">
-        <v>36.7294842924403</v>
+        <v>43.8915497310656</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>25.4470692202916</v>
+        <v>30.55298026041</v>
       </c>
       <c r="B24">
-        <v>21.7681625913217</v>
+        <v>26.4741103370409</v>
       </c>
       <c r="C24">
-        <v>29.3082745803819</v>
+        <v>34.9672794991145</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>27.2652514407357</v>
+        <v>30.9936005367848</v>
       </c>
       <c r="B25">
-        <v>23.5821731022673</v>
+        <v>27.052600504254</v>
       </c>
       <c r="C25">
-        <v>31.0673673555259</v>
+        <v>35.233624539124</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>32.2563247915367</v>
+        <v>39.2964476036097</v>
       </c>
       <c r="B26">
-        <v>28.0780478878706</v>
+        <v>34.9105766187489</v>
       </c>
       <c r="C26">
-        <v>36.5438274044816</v>
+        <v>44.1503457860661</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>28.9398633351066</v>
+        <v>34.6331693780902</v>
       </c>
       <c r="B27">
-        <v>24.9184960157597</v>
+        <v>30.5514171528634</v>
       </c>
       <c r="C27">
-        <v>33.0975795370927</v>
+        <v>39.0921072133664</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>34.7765120900011</v>
+        <v>38.9213969938171</v>
       </c>
       <c r="B28">
-        <v>31.1319132319616</v>
+        <v>34.9086337891342</v>
       </c>
       <c r="C28">
-        <v>38.6435926013662</v>
+        <v>43.2384569418193</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>31.2114309993628</v>
+        <v>37.4256142969785</v>
       </c>
       <c r="B29">
-        <v>27.7668609225475</v>
+        <v>33.5750396730947</v>
       </c>
       <c r="C29">
-        <v>34.8355800798441</v>
+        <v>41.6275618342825</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>25.7319865308464</v>
+        <v>30.7088423646576</v>
       </c>
       <c r="B30">
-        <v>22.3633504329019</v>
+        <v>26.9447123201417</v>
       </c>
       <c r="C30">
-        <v>29.2140714865353</v>
+        <v>34.7202681497718</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>27.467936457727</v>
+        <v>31.2921156699205</v>
       </c>
       <c r="B31">
-        <v>24.135092097443</v>
+        <v>27.7059478010858</v>
       </c>
       <c r="C31">
-        <v>30.9147151979835</v>
+        <v>35.1972607304246</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>32.3342408511488</v>
+        <v>38.7463726267623</v>
       </c>
       <c r="B32">
-        <v>27.9921342614142</v>
+        <v>34.3129296048895</v>
       </c>
       <c r="C32">
-        <v>36.8275163638041</v>
+        <v>43.6858395251718</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>29.2195904599525</v>
+        <v>34.4426749315322</v>
       </c>
       <c r="B33">
-        <v>24.997029454444</v>
+        <v>30.3148619614493</v>
       </c>
       <c r="C33">
-        <v>33.5698449618829</v>
+        <v>38.9145312369024</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>34.7285000140832</v>
+        <v>38.6715064067617</v>
       </c>
       <c r="B34">
-        <v>30.8783533029912</v>
+        <v>34.5205025465929</v>
       </c>
       <c r="C34">
-        <v>38.7913052072603</v>
+        <v>43.1093803716902</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>30.0422938986674</v>
+        <v>36.0822458710367</v>
       </c>
       <c r="B35">
-        <v>26.9114710537437</v>
+        <v>32.5569534354856</v>
       </c>
       <c r="C35">
-        <v>33.3051101426361</v>
+        <v>39.837905550095</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>26.3437592291049</v>
+        <v>31.2734419709439</v>
       </c>
       <c r="B36">
-        <v>23.2359707737644</v>
+        <v>27.7424716462716</v>
       </c>
       <c r="C36">
-        <v>29.5470894697089</v>
+        <v>34.9513463719911</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>27.913180352439</v>
+        <v>31.8259681048607</v>
       </c>
       <c r="B37">
-        <v>24.8364234115798</v>
+        <v>28.466031111168</v>
       </c>
       <c r="C37">
-        <v>31.108285027972</v>
+        <v>35.5311830225698</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>32.64281538143</v>
+        <v>38.7130307824273</v>
       </c>
       <c r="B38">
-        <v>27.9637010067104</v>
+        <v>34.0385251632935</v>
       </c>
       <c r="C38">
-        <v>37.5074957897009</v>
+        <v>43.7996475471027</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>29.7108138154171</v>
+        <v>34.7018461940408</v>
       </c>
       <c r="B39">
-        <v>25.1498819780963</v>
+        <v>30.3756284326965</v>
       </c>
       <c r="C39">
-        <v>34.4048074028324</v>
+        <v>39.4396987108893</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>34.8511103204079</v>
+        <v>38.7340384706039</v>
       </c>
       <c r="B40">
-        <v>30.6494586020404</v>
+        <v>34.296829813375</v>
       </c>
       <c r="C40">
-        <v>39.312444394941</v>
+        <v>43.4168808223169</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>29.0617239292606</v>
+        <v>34.9505026718928</v>
       </c>
       <c r="B41">
-        <v>26.0840020323192</v>
+        <v>31.5752525985757</v>
       </c>
       <c r="C41">
-        <v>32.1409596927061</v>
+        <v>38.4693285596481</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>27.1923438050553</v>
+        <v>32.1639677164427</v>
       </c>
       <c r="B42">
-        <v>24.2548335508407</v>
+        <v>28.8375803777855</v>
       </c>
       <c r="C42">
-        <v>30.2433981602378</v>
+        <v>35.6607802727767</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>28.6001976256922</v>
+        <v>32.6312022384449</v>
       </c>
       <c r="B43">
-        <v>25.7089152660317</v>
+        <v>29.3421668474675</v>
       </c>
       <c r="C43">
-        <v>31.6130771292277</v>
+        <v>36.1640522674895</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>33.0790269624264</v>
+        <v>38.9909272258668</v>
       </c>
       <c r="B44">
-        <v>27.9536227093174</v>
+        <v>33.9484471044093</v>
       </c>
       <c r="C44">
-        <v>38.4504456715352</v>
+        <v>44.4449607432815</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>30.3122791552058</v>
+        <v>35.2321359759116</v>
       </c>
       <c r="B45">
-        <v>25.3598292202604</v>
+        <v>30.6080880629791</v>
       </c>
       <c r="C45">
-        <v>35.4361031004864</v>
+        <v>40.3157372386303</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>35.0853668491831</v>
+        <v>38.9905434318543</v>
       </c>
       <c r="B46">
-        <v>30.4879796857192</v>
+        <v>34.2073395391549</v>
       </c>
       <c r="C46">
-        <v>40.0192862111213</v>
+        <v>44.0044032487102</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>28.2850346651543</v>
+        <v>34.0581441899354</v>
       </c>
       <c r="B47">
-        <v>25.3298854636702</v>
+        <v>30.694431216036</v>
       </c>
       <c r="C47">
-        <v>31.3335177146514</v>
+        <v>37.5739725552274</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>28.1601978624443</v>
+        <v>33.2866860437639</v>
       </c>
       <c r="B48">
-        <v>25.2471578416029</v>
+        <v>29.9844161706153</v>
       </c>
       <c r="C48">
-        <v>31.2147641502965</v>
+        <v>36.7872180621851</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>29.4869118224268</v>
+        <v>33.6984373889617</v>
       </c>
       <c r="B49">
-        <v>26.6097980802979</v>
+        <v>30.4334582323029</v>
       </c>
       <c r="C49">
-        <v>32.4960773953509</v>
+        <v>37.2538416550633</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>33.5790733345665</v>
+        <v>39.4300794306916</v>
       </c>
       <c r="B50">
-        <v>28.008022503768</v>
+        <v>34.0047088772609</v>
       </c>
       <c r="C50">
-        <v>39.4683392839943</v>
+        <v>45.2930762701262</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>30.9581140688028</v>
+        <v>35.8984328476926</v>
       </c>
       <c r="B51">
-        <v>25.5521276467754</v>
+        <v>30.8727580567527</v>
       </c>
       <c r="C51">
-        <v>36.579779680758</v>
+        <v>41.3927991897243</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>35.3849767907471</v>
+        <v>39.3573529060877</v>
       </c>
       <c r="B52">
-        <v>30.3802655459028</v>
+        <v>34.2275818568551</v>
       </c>
       <c r="C52">
-        <v>40.8221930733153</v>
+        <v>44.8155110743185</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>27.7141849372319</v>
+        <v>33.4541680649387</v>
       </c>
       <c r="B53">
-        <v>24.6618081670352</v>
+        <v>29.9288531841703</v>
       </c>
       <c r="C53">
-        <v>30.911386563764</v>
+        <v>37.2049597292162</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>29.1596538726484</v>
+        <v>34.5621307432204</v>
       </c>
       <c r="B54">
-        <v>26.0445438611558</v>
+        <v>30.9957484305762</v>
       </c>
       <c r="C54">
-        <v>32.4621724459296</v>
+        <v>38.3765373551644</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>30.5042596491445</v>
+        <v>34.9549015379005</v>
       </c>
       <c r="B55">
-        <v>27.4985262497503</v>
+        <v>31.4412238311133</v>
       </c>
       <c r="C55">
-        <v>33.6811012960553</v>
+        <v>38.6731593212958</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>34.1090641732746</v>
+        <v>39.9361647075636</v>
       </c>
       <c r="B56">
-        <v>28.0417343836305</v>
+        <v>34.1565240454626</v>
       </c>
       <c r="C56">
-        <v>40.6198399384214</v>
+        <v>46.2647756115912</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>31.6146504878813</v>
+        <v>36.6125315939536</v>
       </c>
       <c r="B57">
-        <v>25.7351238946251</v>
+        <v>31.1948486606599</v>
       </c>
       <c r="C57">
-        <v>37.8356045336688</v>
+        <v>42.5412253852669</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>35.7206704482766</v>
+        <v>39.7780443210318</v>
       </c>
       <c r="B58">
-        <v>30.2757556906407</v>
+        <v>34.2665074879438</v>
       </c>
       <c r="C58">
-        <v>41.7182986267676</v>
+        <v>45.6848531155561</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>27.3336860851357</v>
+        <v>33.1468689283401</v>
       </c>
       <c r="B59">
-        <v>24.0426416066755</v>
+        <v>29.2989346123619</v>
       </c>
       <c r="C59">
-        <v>30.8468711296612</v>
+        <v>37.3446051876515</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>30.167403560405</v>
+        <v>35.9226469518654</v>
       </c>
       <c r="B60">
-        <v>26.6684321730746</v>
+        <v>31.9374813446729</v>
       </c>
       <c r="C60">
-        <v>33.9091123351056</v>
+        <v>40.2011120841505</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>31.5660839005765</v>
+        <v>36.3003836343733</v>
       </c>
       <c r="B61">
-        <v>28.2599386862624</v>
+        <v>32.4210647482224</v>
       </c>
       <c r="C61">
-        <v>35.0339607357485</v>
+        <v>40.4874077410447</v>
       </c>
     </row>
   </sheetData>
@@ -1065,662 +1065,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.48678263297664</v>
+        <v>2.61616651727554</v>
       </c>
       <c r="B2">
-        <v>1.33619258975751</v>
+        <v>1.69147360881792</v>
       </c>
       <c r="C2">
-        <v>3.24278645105576</v>
+        <v>3.27943324456602</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.42979252929104</v>
+        <v>2.50733128025613</v>
       </c>
       <c r="B3">
-        <v>1.2633126322858</v>
+        <v>1.56358430050723</v>
       </c>
       <c r="C3">
-        <v>3.19388768333244</v>
+        <v>3.20580094207702</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2.31504093270598</v>
+        <v>2.35913163699695</v>
       </c>
       <c r="B4">
-        <v>1.29131022753671</v>
+        <v>1.48238049092326</v>
       </c>
       <c r="C4">
-        <v>2.98259771798742</v>
+        <v>2.95788981820839</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.82652554751485</v>
+        <v>1.94694950890282</v>
       </c>
       <c r="B5">
-        <v>0.712351027667084</v>
+        <v>1.10869847041788</v>
       </c>
       <c r="C5">
-        <v>2.61519346332583</v>
+        <v>2.54204137070523</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.90644138554767</v>
+        <v>1.95606242377371</v>
       </c>
       <c r="B6">
-        <v>0.777375945469643</v>
+        <v>1.11981153365626</v>
       </c>
       <c r="C6">
-        <v>2.67008138593355</v>
+        <v>2.5324301378375</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.86417357699475</v>
+        <v>1.66158259030165</v>
       </c>
       <c r="B7">
-        <v>0.514408136260061</v>
+        <v>0.343427464787449</v>
       </c>
       <c r="C7">
-        <v>2.74147417203262</v>
+        <v>2.67013442513156</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2.35287672670209</v>
+        <v>2.38309595150828</v>
       </c>
       <c r="B8">
-        <v>1.293003026029</v>
+        <v>1.52415366327921</v>
       </c>
       <c r="C8">
-        <v>3.06555257285791</v>
+        <v>3.07756411213576</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2.3062881389354</v>
+        <v>2.27501447573647</v>
       </c>
       <c r="B9">
-        <v>1.23772256231158</v>
+        <v>1.39359878989083</v>
       </c>
       <c r="C9">
-        <v>3.02561037594073</v>
+        <v>2.99452878138832</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.24203369659014</v>
+        <v>2.22585524550402</v>
       </c>
       <c r="B10">
-        <v>1.29857619002248</v>
+        <v>1.43083870770528</v>
       </c>
       <c r="C10">
-        <v>2.86660006299294</v>
+        <v>2.79036624548728</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.81165010418835</v>
+        <v>1.93023189079441</v>
       </c>
       <c r="B11">
-        <v>0.773358637129721</v>
+        <v>1.16385703903022</v>
       </c>
       <c r="C11">
-        <v>2.55066209879957</v>
+        <v>2.49943732079433</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.91568029794429</v>
+        <v>1.96771339973955</v>
       </c>
       <c r="B12">
-        <v>0.871062856570969</v>
+        <v>1.2187458198359</v>
       </c>
       <c r="C12">
-        <v>2.60620814680343</v>
+        <v>2.49334777934507</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.92685293345078</v>
+        <v>1.77967246271319</v>
       </c>
       <c r="B13">
-        <v>0.685152760707833</v>
+        <v>0.494750787118287</v>
       </c>
       <c r="C13">
-        <v>2.70351833153714</v>
+        <v>2.67483812320494</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2.22137383427754</v>
+        <v>2.18102416826304</v>
       </c>
       <c r="B14">
-        <v>1.25788884915513</v>
+        <v>1.40482938054918</v>
       </c>
       <c r="C14">
-        <v>2.88349098803543</v>
+        <v>2.84717315384114</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2.18689087031404</v>
+        <v>2.0873565208198</v>
       </c>
       <c r="B15">
-        <v>1.19998552406577</v>
+        <v>1.28603859675631</v>
       </c>
       <c r="C15">
-        <v>2.85114955866037</v>
+        <v>2.77359314247376</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2.16018384902716</v>
+        <v>2.11917513886037</v>
       </c>
       <c r="B16">
-        <v>1.28064989091126</v>
+        <v>1.38322178871958</v>
       </c>
       <c r="C16">
-        <v>2.75069915336562</v>
+        <v>2.65530939878475</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.79308138872949</v>
+        <v>1.89450895598792</v>
       </c>
       <c r="B17">
-        <v>0.852383697722977</v>
+        <v>1.20976122262477</v>
       </c>
       <c r="C17">
-        <v>2.47151206081513</v>
+        <v>2.43200000170589</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.91856205625174</v>
+        <v>1.96375558121473</v>
       </c>
       <c r="B18">
-        <v>0.956939423473018</v>
+        <v>1.27876538181648</v>
       </c>
       <c r="C18">
-        <v>2.539622020091</v>
+        <v>2.46016398556685</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.98814608038181</v>
+        <v>1.90454171615347</v>
       </c>
       <c r="B19">
-        <v>0.914782991851775</v>
+        <v>0.760353626884064</v>
       </c>
       <c r="C19">
-        <v>2.6500809628402</v>
+        <v>2.62958320178027</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2.10524862728484</v>
+        <v>2.04174575580975</v>
       </c>
       <c r="B20">
-        <v>1.21520749104403</v>
+        <v>1.33589972017286</v>
       </c>
       <c r="C20">
-        <v>2.72397179714231</v>
+        <v>2.66049178376695</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2.08050413202701</v>
+        <v>1.96232860449042</v>
       </c>
       <c r="B21">
-        <v>1.15363704834107</v>
+        <v>1.22708710663097</v>
       </c>
       <c r="C21">
-        <v>2.70460070977795</v>
+        <v>2.60292242033958</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2.0754001616828</v>
+        <v>2.03909089371501</v>
       </c>
       <c r="B22">
-        <v>1.23259956001486</v>
+        <v>1.35018936163063</v>
       </c>
       <c r="C22">
-        <v>2.6419116096225</v>
+        <v>2.55280868761597</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.77812014752401</v>
+        <v>1.86048101069268</v>
       </c>
       <c r="B23">
-        <v>0.931952333240389</v>
+        <v>1.2553732342019</v>
       </c>
       <c r="C23">
-        <v>2.3884925240192</v>
+        <v>2.35523600779895</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.91461829853678</v>
+        <v>1.95113532881668</v>
       </c>
       <c r="B24">
-        <v>1.04768084122447</v>
+        <v>1.33544358150016</v>
       </c>
       <c r="C24">
-        <v>2.47752608706127</v>
+        <v>2.42268268072837</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2.04360915211334</v>
+        <v>2.02992528609675</v>
       </c>
       <c r="B25">
-        <v>1.13581846071162</v>
+        <v>1.11314748643776</v>
       </c>
       <c r="C25">
-        <v>2.59968218531859</v>
+        <v>2.59008353270302</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>2.00384250167734</v>
+        <v>1.95138725915466</v>
       </c>
       <c r="B26">
-        <v>1.16094464469691</v>
+        <v>1.2940241228381</v>
       </c>
       <c r="C26">
-        <v>2.5995263291297</v>
+        <v>2.52422660406831</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.98556178758719</v>
+        <v>1.88311864476932</v>
       </c>
       <c r="B27">
-        <v>1.10180937564672</v>
+        <v>1.19005903019576</v>
       </c>
       <c r="C27">
-        <v>2.59179655778744</v>
+        <v>2.48129725248503</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.98976625083974</v>
+        <v>1.97622974259319</v>
       </c>
       <c r="B28">
-        <v>1.17391304001121</v>
+        <v>1.30367341351902</v>
       </c>
       <c r="C28">
-        <v>2.55069839208206</v>
+        <v>2.47097800251374</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.76734942979949</v>
+        <v>1.83670321050275</v>
       </c>
       <c r="B29">
-        <v>1.0127460661306</v>
+        <v>1.30507727376854</v>
       </c>
       <c r="C29">
-        <v>2.31895704391777</v>
+        <v>2.29065280138147</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.90393675495197</v>
+        <v>1.93679360476243</v>
       </c>
       <c r="B30">
-        <v>1.13478875998257</v>
+        <v>1.39163396551268</v>
       </c>
       <c r="C30">
-        <v>2.42115311137813</v>
+        <v>2.38057027029016</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2.07800917411965</v>
+        <v>2.13037994937738</v>
       </c>
       <c r="B31">
-        <v>1.29151088014733</v>
+        <v>1.42961532168315</v>
       </c>
       <c r="C31">
-        <v>2.55778473358956</v>
+        <v>2.56407555297835</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.91337360007063</v>
+        <v>1.89013691723175</v>
       </c>
       <c r="B32">
-        <v>1.08733651781987</v>
+        <v>1.2448741080599</v>
       </c>
       <c r="C32">
-        <v>2.50924039026945</v>
+        <v>2.44662007090625</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.89897723747869</v>
+        <v>1.83062807856479</v>
       </c>
       <c r="B33">
-        <v>1.03735934166973</v>
+        <v>1.15271957640586</v>
       </c>
       <c r="C33">
-        <v>2.50691511518388</v>
+        <v>2.41282498580867</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.90346641795347</v>
+        <v>1.9206311756672</v>
       </c>
       <c r="B34">
-        <v>1.08397780224611</v>
+        <v>1.24318984495372</v>
       </c>
       <c r="C34">
-        <v>2.47548688425097</v>
+        <v>2.42016734824988</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.75706385606026</v>
+        <v>1.82207023779783</v>
       </c>
       <c r="B35">
-        <v>1.06344863376686</v>
+        <v>1.34131241494729</v>
       </c>
       <c r="C35">
-        <v>2.26895026170306</v>
+        <v>2.2439697805336</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.88593517720806</v>
+        <v>1.92427245392151</v>
       </c>
       <c r="B36">
-        <v>1.18826774943748</v>
+        <v>1.43863253559093</v>
       </c>
       <c r="C36">
-        <v>2.3734287269121</v>
+        <v>2.34321790051052</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2.08052966408505</v>
+        <v>2.18668770350825</v>
       </c>
       <c r="B37">
-        <v>1.35784368733632</v>
+        <v>1.61491543655093</v>
       </c>
       <c r="C37">
-        <v>2.51722302131364</v>
+        <v>2.54838135820366</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.82980375202784</v>
+        <v>1.84206211696384</v>
       </c>
       <c r="B38">
-        <v>0.987898456642261</v>
+        <v>1.1840383681168</v>
       </c>
       <c r="C38">
-        <v>2.44461140141738</v>
+        <v>2.39619719927658</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.81770870230959</v>
+        <v>1.78996513938258</v>
       </c>
       <c r="B39">
-        <v>0.938467819478332</v>
+        <v>1.09868693677045</v>
       </c>
       <c r="C39">
-        <v>2.44449375244199</v>
+        <v>2.36620802186213</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.81618225793748</v>
+        <v>1.86457826013265</v>
       </c>
       <c r="B40">
-        <v>0.96763261599906</v>
+        <v>1.14844065796216</v>
       </c>
       <c r="C40">
-        <v>2.40754820498921</v>
+        <v>2.38113696310849</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.74281398668033</v>
+        <v>1.81206759895823</v>
       </c>
       <c r="B41">
-        <v>1.07587306552605</v>
+        <v>1.3529044493185</v>
       </c>
       <c r="C41">
-        <v>2.24367179929339</v>
+        <v>2.21633297926847</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1.85910665532006</v>
+        <v>1.91331568949712</v>
       </c>
       <c r="B42">
-        <v>1.18720597211559</v>
+        <v>1.45305602317762</v>
       </c>
       <c r="C42">
-        <v>2.34203603423869</v>
+        <v>2.31675760372197</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2.05058263064746</v>
+        <v>2.19768178343052</v>
       </c>
       <c r="B43">
-        <v>1.36097765338321</v>
+        <v>1.64275245977188</v>
       </c>
       <c r="C43">
-        <v>2.47698400529692</v>
+        <v>2.53142238127688</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1.74998825980631</v>
+        <v>1.7964416053589</v>
       </c>
       <c r="B44">
-        <v>0.875160693063057</v>
+        <v>1.09170626521083</v>
       </c>
       <c r="C44">
-        <v>2.39261501323371</v>
+        <v>2.3704882562516</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1.73932429571068</v>
+        <v>1.75102229725203</v>
       </c>
       <c r="B45">
-        <v>0.83213681535352</v>
+        <v>1.01810801564673</v>
       </c>
       <c r="C45">
-        <v>2.39522640647133</v>
+        <v>2.34283319949568</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1.72810347012781</v>
+        <v>1.8036053216303</v>
       </c>
       <c r="B46">
-        <v>0.838843223695548</v>
+        <v>1.02592259416622</v>
       </c>
       <c r="C46">
-        <v>2.3464897075058</v>
+        <v>2.34659447511992</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1.72167344732626</v>
+        <v>1.80260122213845</v>
       </c>
       <c r="B47">
-        <v>1.03974988137161</v>
+        <v>1.32272214288555</v>
       </c>
       <c r="C47">
-        <v>2.23501119245941</v>
+        <v>2.21472820004308</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1.82233502264498</v>
+        <v>1.90163671842017</v>
       </c>
       <c r="B48">
-        <v>1.12767425694724</v>
+        <v>1.41746156668748</v>
       </c>
       <c r="C48">
-        <v>2.31979400505148</v>
+        <v>2.30914752356029</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1.99411063654644</v>
+        <v>2.17440018136644</v>
       </c>
       <c r="B49">
-        <v>1.29791405682691</v>
+        <v>1.60238056496878</v>
       </c>
       <c r="C49">
-        <v>2.43430630909819</v>
+        <v>2.51292709875146</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1.67217515846166</v>
+        <v>1.7471431130616</v>
       </c>
       <c r="B50">
-        <v>0.747402578094488</v>
+        <v>0.957368223515351</v>
       </c>
       <c r="C50">
-        <v>2.34713069519687</v>
+        <v>2.34518007624359</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1.66244367797875</v>
+        <v>1.70788383617837</v>
       </c>
       <c r="B51">
-        <v>0.716952177361941</v>
+        <v>0.913023335804127</v>
       </c>
       <c r="C51">
-        <v>2.35021478320764</v>
+        <v>2.31826340906091</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1.64021019960582</v>
+        <v>1.73626419940531</v>
       </c>
       <c r="B52">
-        <v>0.702161576961582</v>
+        <v>0.877436384271592</v>
       </c>
       <c r="C52">
-        <v>2.29766014452753</v>
+        <v>2.3162394672061</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1.6930483543828</v>
+        <v>1.79136098320821</v>
       </c>
       <c r="B53">
-        <v>0.965693081430774</v>
+        <v>1.2580966969671</v>
       </c>
       <c r="C53">
-        <v>2.23936615216533</v>
+        <v>2.23389140093727</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1.7763774637452</v>
+        <v>1.88711198512717</v>
       </c>
       <c r="B54">
-        <v>1.03355922952649</v>
+        <v>1.33882586483079</v>
       </c>
       <c r="C54">
-        <v>2.308275188478</v>
+        <v>2.32190910416718</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1.91844064434729</v>
+        <v>2.1281222796127</v>
       </c>
       <c r="B55">
-        <v>1.1851198252223</v>
+        <v>1.51903966404325</v>
       </c>
       <c r="C55">
-        <v>2.38643950604932</v>
+        <v>2.49217512095956</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1.59582445365979</v>
+        <v>1.69144284363533</v>
       </c>
       <c r="B56">
-        <v>0.621044745148969</v>
+        <v>0.817250108900909</v>
       </c>
       <c r="C56">
-        <v>2.30945279993951</v>
+        <v>2.31899782647161</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1.5867063688054</v>
+        <v>1.65777382651482</v>
       </c>
       <c r="B57">
-        <v>0.598697365934866</v>
+        <v>0.79425013190148</v>
       </c>
       <c r="C57">
-        <v>2.31043104172667</v>
+        <v>2.29628610547176</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1.55393694732522</v>
+        <v>1.66311222510226</v>
       </c>
       <c r="B58">
-        <v>0.572972443193291</v>
+        <v>0.709878018879008</v>
       </c>
       <c r="C58">
-        <v>2.25881895107692</v>
+        <v>2.28256078629077</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1.65823932165305</v>
+        <v>1.77775595093877</v>
       </c>
       <c r="B59">
-        <v>0.855217601859566</v>
+        <v>1.16055218830059</v>
       </c>
       <c r="C59">
-        <v>2.24389416452322</v>
+        <v>2.26546677495049</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1.72390041204954</v>
+        <v>1.86881674394386</v>
       </c>
       <c r="B60">
-        <v>0.902679153496021</v>
+        <v>1.21968131973113</v>
       </c>
       <c r="C60">
-        <v>2.30854457467874</v>
+        <v>2.34317942068922</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>1.8301703281579</v>
+        <v>2.06540287342718</v>
       </c>
       <c r="B61">
-        <v>1.03692725823382</v>
+        <v>1.37201711629699</v>
       </c>
       <c r="C61">
-        <v>2.34651991243784</v>
+        <v>2.46939431409082</v>
       </c>
     </row>
   </sheetData>
@@ -1749,662 +1749,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.690743160105123</v>
+        <v>0.67366584352564</v>
       </c>
       <c r="B2">
-        <v>0.372406323087086</v>
+        <v>0.438159786269659</v>
       </c>
       <c r="C2">
-        <v>0.900362542491019</v>
+        <v>0.83847417543699</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.70062008071696</v>
+        <v>0.669625744918013</v>
       </c>
       <c r="B3">
-        <v>0.365301977106447</v>
+        <v>0.418413428217337</v>
       </c>
       <c r="C3">
-        <v>0.92107090886307</v>
+        <v>0.851894233431382</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.638489938012608</v>
+        <v>0.619537157215983</v>
       </c>
       <c r="B4">
-        <v>0.357176232645706</v>
+        <v>0.390216193916507</v>
       </c>
       <c r="C4">
-        <v>0.820739477642202</v>
+        <v>0.772488381695612</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.502271532837136</v>
+        <v>0.511048779178387</v>
       </c>
       <c r="B5">
-        <v>0.196016415764036</v>
+        <v>0.292795657135619</v>
       </c>
       <c r="C5">
-        <v>0.715601183977213</v>
+        <v>0.666135617810741</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.580316882087804</v>
+        <v>0.56141893548092</v>
       </c>
       <c r="B6">
-        <v>0.23807705099462</v>
+        <v>0.322293125012775</v>
       </c>
       <c r="C6">
-        <v>0.810422989078278</v>
+        <v>0.724335213982856</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.562354354958494</v>
+        <v>0.481781619453838</v>
       </c>
       <c r="B7">
-        <v>0.155587851788168</v>
+        <v>0.0995411198166363</v>
       </c>
       <c r="C7">
-        <v>0.824259377395814</v>
+        <v>0.768786250180609</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.663879568835145</v>
+        <v>0.624500681141347</v>
       </c>
       <c r="B8">
-        <v>0.365908270441649</v>
+        <v>0.400322738085351</v>
       </c>
       <c r="C8">
-        <v>0.862940426264732</v>
+        <v>0.802734094068785</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.675179267335202</v>
+        <v>0.619254266241489</v>
       </c>
       <c r="B9">
-        <v>0.362902024888611</v>
+        <v>0.379984116513742</v>
       </c>
       <c r="C9">
-        <v>0.885293519812853</v>
+        <v>0.811450768458785</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.623903526528998</v>
+        <v>0.59286947279821</v>
       </c>
       <c r="B10">
-        <v>0.361748953603873</v>
+        <v>0.382037527965062</v>
       </c>
       <c r="C10">
-        <v>0.796232247603249</v>
+        <v>0.741097271708487</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.506049184191694</v>
+        <v>0.513596144342527</v>
       </c>
       <c r="B11">
-        <v>0.21805986987329</v>
+        <v>0.311085317688466</v>
       </c>
       <c r="C11">
-        <v>0.710333024435837</v>
+        <v>0.663419551738199</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.588717240205184</v>
+        <v>0.570376056507265</v>
       </c>
       <c r="B12">
-        <v>0.268951683245096</v>
+        <v>0.352961062813922</v>
       </c>
       <c r="C12">
-        <v>0.797380365280888</v>
+        <v>0.720919319277686</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.582878190951969</v>
+        <v>0.518228771063183</v>
       </c>
       <c r="B13">
-        <v>0.207583455723843</v>
+        <v>0.145714386020477</v>
       </c>
       <c r="C13">
-        <v>0.815455777093588</v>
+        <v>0.775386532565923</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.633998223144164</v>
+        <v>0.5812084499028</v>
       </c>
       <c r="B14">
-        <v>0.359501992101149</v>
+        <v>0.376945998445625</v>
       </c>
       <c r="C14">
-        <v>0.820217544556539</v>
+        <v>0.754734797711553</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.646783090698745</v>
+        <v>0.577906198684008</v>
       </c>
       <c r="B15">
-        <v>0.354569451294471</v>
+        <v>0.356461229241059</v>
       </c>
       <c r="C15">
-        <v>0.842230745759054</v>
+        <v>0.764232478890549</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.605029941386548</v>
+        <v>0.57124777299696</v>
       </c>
       <c r="B16">
-        <v>0.357765307790918</v>
+        <v>0.374294021664343</v>
       </c>
       <c r="C16">
-        <v>0.768665705506003</v>
+        <v>0.714819927774082</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.508238404075768</v>
+        <v>0.510892132198362</v>
       </c>
       <c r="B17">
-        <v>0.242522597819434</v>
+        <v>0.326329352714809</v>
       </c>
       <c r="C17">
-        <v>0.698916235894617</v>
+        <v>0.654013093221508</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.592848363178517</v>
+        <v>0.573177578650423</v>
       </c>
       <c r="B18">
-        <v>0.296537870119407</v>
+        <v>0.371555328673286</v>
       </c>
       <c r="C18">
-        <v>0.783915516318566</v>
+        <v>0.715486592912265</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.602145826035262</v>
+        <v>0.555497072240307</v>
       </c>
       <c r="B19">
-        <v>0.277987009255389</v>
+        <v>0.222614725749055</v>
       </c>
       <c r="C19">
-        <v>0.801676357606966</v>
+        <v>0.765307856272391</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.604915347776957</v>
+        <v>0.551522928869028</v>
       </c>
       <c r="B20">
-        <v>0.350038747023989</v>
+        <v>0.362378430241893</v>
       </c>
       <c r="C20">
-        <v>0.781158335118021</v>
+        <v>0.715782339687221</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.61841493833108</v>
+        <v>0.550119577104675</v>
       </c>
       <c r="B21">
-        <v>0.342412308351867</v>
+        <v>0.344734948615078</v>
       </c>
       <c r="C21">
-        <v>0.802171173821431</v>
+        <v>0.725652675664269</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.583748605920978</v>
+        <v>0.55439231065938</v>
       </c>
       <c r="B22">
-        <v>0.347067072432894</v>
+        <v>0.367717067628589</v>
       </c>
       <c r="C22">
-        <v>0.742169598565051</v>
+        <v>0.692197070255268</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.510773433857292</v>
+        <v>0.508051935552421</v>
       </c>
       <c r="B23">
-        <v>0.268780084550782</v>
+        <v>0.342370845975913</v>
       </c>
       <c r="C23">
-        <v>0.686614129484676</v>
+        <v>0.642732282815231</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.592157119005706</v>
+        <v>0.571075040832044</v>
       </c>
       <c r="B24">
-        <v>0.325349444930141</v>
+        <v>0.390592931371863</v>
       </c>
       <c r="C24">
-        <v>0.765997768083575</v>
+        <v>0.706751307536832</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.618752220819883</v>
+        <v>0.591572727033304</v>
       </c>
       <c r="B25">
-        <v>0.344917588617236</v>
+        <v>0.326117589319252</v>
       </c>
       <c r="C25">
-        <v>0.785085913454632</v>
+        <v>0.752487723659655</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.577244209644404</v>
+        <v>0.531731437379108</v>
       </c>
       <c r="B26">
-        <v>0.33606735576157</v>
+        <v>0.352912012809332</v>
       </c>
       <c r="C26">
-        <v>0.747905363754225</v>
+        <v>0.685836311249505</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.590518677725939</v>
+        <v>0.531478128255781</v>
       </c>
       <c r="B27">
-        <v>0.327886769006703</v>
+        <v>0.336956840118355</v>
       </c>
       <c r="C27">
-        <v>0.769191091809866</v>
+        <v>0.696817992207307</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.560909753737072</v>
+        <v>0.53993437814169</v>
       </c>
       <c r="B28">
-        <v>0.33164070593467</v>
+        <v>0.357259950869453</v>
       </c>
       <c r="C28">
-        <v>0.717167208363634</v>
+        <v>0.674176391933468</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.513915441634163</v>
+        <v>0.507263355857528</v>
       </c>
       <c r="B29">
-        <v>0.294857636295115</v>
+        <v>0.361764224335757</v>
       </c>
       <c r="C29">
-        <v>0.673790742075552</v>
+        <v>0.630855649162441</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.586727811078585</v>
+        <v>0.565962396823313</v>
       </c>
       <c r="B30">
-        <v>0.350479516599858</v>
+        <v>0.407182387100196</v>
       </c>
       <c r="C30">
-        <v>0.745773002184824</v>
+        <v>0.694695516155773</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.627665853930587</v>
+        <v>0.619061683864779</v>
       </c>
       <c r="B31">
-        <v>0.391121954066759</v>
+        <v>0.417338752993821</v>
       </c>
       <c r="C31">
-        <v>0.770854840413659</v>
+        <v>0.742335184900922</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.55086293414657</v>
+        <v>0.517053893001105</v>
       </c>
       <c r="B32">
-        <v>0.313054249710138</v>
+        <v>0.341249623297773</v>
       </c>
       <c r="C32">
-        <v>0.721854401668021</v>
+        <v>0.667394158946683</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.563225291769892</v>
+        <v>0.517484022042677</v>
       </c>
       <c r="B33">
-        <v>0.307308109235204</v>
+        <v>0.326629636412706</v>
       </c>
       <c r="C33">
-        <v>0.743276803174996</v>
+        <v>0.678896178919836</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.536840776083913</v>
+        <v>0.525685523891832</v>
       </c>
       <c r="B34">
-        <v>0.306293049618186</v>
+        <v>0.341345230755316</v>
       </c>
       <c r="C34">
-        <v>0.696604785844371</v>
+        <v>0.662577892125451</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.51663791568796</v>
+        <v>0.508332118493915</v>
       </c>
       <c r="B35">
-        <v>0.313282233490876</v>
+        <v>0.374526476680567</v>
       </c>
       <c r="C35">
-        <v>0.666248097393238</v>
+        <v>0.624236413030377</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.57690862205188</v>
+        <v>0.559254656293093</v>
       </c>
       <c r="B36">
-        <v>0.363701430355643</v>
+        <v>0.418609464216012</v>
       </c>
       <c r="C36">
-        <v>0.726141109433161</v>
+        <v>0.681117597906874</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.625323296226855</v>
+        <v>0.632283405462626</v>
       </c>
       <c r="B37">
-        <v>0.408237024037246</v>
+        <v>0.466020201088884</v>
       </c>
       <c r="C37">
-        <v>0.756389963271601</v>
+        <v>0.73548330914514</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.525460831950926</v>
+        <v>0.504053268237225</v>
       </c>
       <c r="B38">
-        <v>0.284592792946823</v>
+        <v>0.325475349103096</v>
       </c>
       <c r="C38">
-        <v>0.701659739398019</v>
+        <v>0.654814288799511</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.536572328128404</v>
+        <v>0.504944156607372</v>
       </c>
       <c r="B39">
-        <v>0.276943834167824</v>
+        <v>0.311491694842721</v>
       </c>
       <c r="C39">
-        <v>0.721259002679273</v>
+        <v>0.665902266821693</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.511785508353132</v>
+        <v>0.510144302723257</v>
       </c>
       <c r="B40">
-        <v>0.272539597015115</v>
+        <v>0.314006624127184</v>
       </c>
       <c r="C40">
-        <v>0.678178018811401</v>
+        <v>0.650295584191504</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.517486727326021</v>
+        <v>0.510070610453449</v>
       </c>
       <c r="B41">
-        <v>0.320311538260873</v>
+        <v>0.380915256996152</v>
       </c>
       <c r="C41">
-        <v>0.665014784225944</v>
+        <v>0.622987034494971</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.563171203739561</v>
+        <v>0.551515173313255</v>
       </c>
       <c r="B42">
-        <v>0.360380870549475</v>
+        <v>0.419031436341817</v>
       </c>
       <c r="C42">
-        <v>0.708209324809343</v>
+        <v>0.667641019857889</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.611812318418723</v>
+        <v>0.630886917275271</v>
       </c>
       <c r="B43">
-        <v>0.406946309326361</v>
+        <v>0.471974867279547</v>
       </c>
       <c r="C43">
-        <v>0.73891055263936</v>
+        <v>0.727195955787497</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.500740923402792</v>
+        <v>0.490645620016504</v>
       </c>
       <c r="B44">
-        <v>0.251048120259321</v>
+        <v>0.299203167649107</v>
       </c>
       <c r="C44">
-        <v>0.684325906637263</v>
+        <v>0.644978059473717</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.510529207205836</v>
+        <v>0.491888606217912</v>
       </c>
       <c r="B45">
-        <v>0.244714509906424</v>
+        <v>0.287254593001299</v>
       </c>
       <c r="C45">
-        <v>0.702818538064078</v>
+        <v>0.65543918831441</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.486129405708288</v>
+        <v>0.492606302662971</v>
       </c>
       <c r="B46">
-        <v>0.236471413607824</v>
+        <v>0.280737925823225</v>
       </c>
       <c r="C46">
-        <v>0.660932365833678</v>
+        <v>0.639349213740074</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.515362154847267</v>
+        <v>0.511133239762051</v>
       </c>
       <c r="B47">
-        <v>0.311809733596452</v>
+        <v>0.376223458278044</v>
       </c>
       <c r="C47">
-        <v>0.668940870030575</v>
+        <v>0.627382867261774</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.546215977449099</v>
+        <v>0.542756940717462</v>
       </c>
       <c r="B48">
-        <v>0.338411566384533</v>
+        <v>0.405311942400697</v>
       </c>
       <c r="C48">
-        <v>0.69401387610413</v>
+        <v>0.657956351267577</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.589581754476826</v>
+        <v>0.61849091537372</v>
       </c>
       <c r="B49">
-        <v>0.383676463381307</v>
+        <v>0.456517709285913</v>
       </c>
       <c r="C49">
-        <v>0.719612339994746</v>
+        <v>0.7159482132386</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.476543685186859</v>
+        <v>0.475763464922951</v>
       </c>
       <c r="B50">
-        <v>0.212808589450275</v>
+        <v>0.262429179102142</v>
       </c>
       <c r="C50">
-        <v>0.670196004582086</v>
+        <v>0.636718895897116</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.48507754577531</v>
+        <v>0.477299476734224</v>
       </c>
       <c r="B51">
-        <v>0.208895453937982</v>
+        <v>0.255475469425652</v>
       </c>
       <c r="C51">
-        <v>0.68687830948317</v>
+        <v>0.645747997504566</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.460388909367204</v>
+        <v>0.473042453234198</v>
       </c>
       <c r="B52">
-        <v>0.198001720504278</v>
+        <v>0.238758843141152</v>
       </c>
       <c r="C52">
-        <v>0.64530949755667</v>
+        <v>0.629675329559333</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.509937398120368</v>
+        <v>0.510556841928045</v>
       </c>
       <c r="B53">
-        <v>0.291679877168353</v>
+        <v>0.359725708659935</v>
       </c>
       <c r="C53">
-        <v>0.674001138654831</v>
+        <v>0.635051240644045</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.526942678849497</v>
+        <v>0.532902602386065</v>
       </c>
       <c r="B54">
-        <v>0.306608501944142</v>
+        <v>0.377535720983521</v>
       </c>
       <c r="C54">
-        <v>0.683811370052327</v>
+        <v>0.654506906855972</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.561591044721364</v>
+        <v>0.599113870647766</v>
       </c>
       <c r="B55">
-        <v>0.346300692154154</v>
+        <v>0.428882685458904</v>
       </c>
       <c r="C55">
-        <v>0.699560942665393</v>
+        <v>0.7025593101098</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.452875602072588</v>
+        <v>0.459038575680644</v>
       </c>
       <c r="B56">
-        <v>0.175908261462805</v>
+        <v>0.22346045962784</v>
       </c>
       <c r="C56">
-        <v>0.656079033151386</v>
+        <v>0.628308847544886</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.460272877378544</v>
+        <v>0.460801997407627</v>
       </c>
       <c r="B57">
-        <v>0.173492671896085</v>
+        <v>0.220643233088165</v>
       </c>
       <c r="C57">
-        <v>0.671422397110326</v>
+        <v>0.637056359522764</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.43510594737116</v>
+        <v>0.451844057514474</v>
       </c>
       <c r="B58">
-        <v>0.16144592387323</v>
+        <v>0.193862553793908</v>
       </c>
       <c r="C58">
-        <v>0.632800537902789</v>
+        <v>0.61870889655705</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.501602170481592</v>
+        <v>0.508055347583879</v>
       </c>
       <c r="B59">
-        <v>0.259005319674325</v>
+        <v>0.331851634852848</v>
       </c>
       <c r="C59">
-        <v>0.678927488686852</v>
+        <v>0.645802355067211</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.506313862513584</v>
+        <v>0.522080760986085</v>
       </c>
       <c r="B60">
-        <v>0.266339262353578</v>
+        <v>0.342024910727111</v>
       </c>
       <c r="C60">
-        <v>0.676917129744091</v>
+        <v>0.653462898974711</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.530473536146152</v>
+        <v>0.575386298320044</v>
       </c>
       <c r="B61">
-        <v>0.299197000759855</v>
+        <v>0.382859916271374</v>
       </c>
       <c r="C61">
-        <v>0.680458171850338</v>
+        <v>0.687632600036338</v>
       </c>
     </row>
   </sheetData>
@@ -2433,662 +2433,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3.70694042716333</v>
+        <v>6.6770476660194</v>
       </c>
       <c r="B2">
-        <v>1.94435581154682</v>
+        <v>4.64933065469366</v>
       </c>
       <c r="C2">
-        <v>5.83991057151034</v>
+        <v>8.68822700786465</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>3.13270412672265</v>
+        <v>5.72898753454484</v>
       </c>
       <c r="B3">
-        <v>1.50495725399337</v>
+        <v>3.77174093232353</v>
       </c>
       <c r="C3">
-        <v>5.11922048015935</v>
+        <v>7.72089943090536</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.08440116368804</v>
+        <v>5.1299632980299</v>
       </c>
       <c r="B4">
-        <v>1.48785588550809</v>
+        <v>3.22738380022433</v>
       </c>
       <c r="C4">
-        <v>4.94409190054548</v>
+        <v>7.14531117025702</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>2.15819358342829</v>
+        <v>3.34826789299913</v>
       </c>
       <c r="B5">
-        <v>0.593407281904754</v>
+        <v>1.43097068318345</v>
       </c>
       <c r="C5">
-        <v>4.2529090143206</v>
+        <v>5.66488134344733</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.46008679288658</v>
+        <v>2.20501885108858</v>
       </c>
       <c r="B6">
-        <v>0.341820906688053</v>
+        <v>0.822782272943569</v>
       </c>
       <c r="C6">
-        <v>3.09266391837668</v>
+        <v>3.93122396648271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3.14690335290749</v>
+        <v>3.73226681840202</v>
       </c>
       <c r="B7">
-        <v>1.75356654487817</v>
+        <v>2.19220250868419</v>
       </c>
       <c r="C7">
-        <v>4.72443977062077</v>
+        <v>5.60914465151922</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2.68812262868086</v>
+        <v>5.23872572783256</v>
       </c>
       <c r="B8">
-        <v>1.32743357521946</v>
+        <v>3.5199614482474</v>
       </c>
       <c r="C8">
-        <v>4.36716609260924</v>
+        <v>7.06738235035884</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2.22956461821725</v>
+        <v>4.34679757750124</v>
       </c>
       <c r="B9">
-        <v>0.987138380728269</v>
+        <v>2.72306920612633</v>
       </c>
       <c r="C9">
-        <v>3.81199201218083</v>
+        <v>6.1270724143109</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.33736261212957</v>
+        <v>3.90840028191953</v>
       </c>
       <c r="B10">
-        <v>1.01311772485656</v>
+        <v>2.2781302087495</v>
       </c>
       <c r="C10">
-        <v>3.89712132622329</v>
+        <v>5.69080300520564</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.58866469502154</v>
+        <v>2.66591417634536</v>
       </c>
       <c r="B11">
-        <v>0.429304615536141</v>
+        <v>1.11080734793407</v>
       </c>
       <c r="C11">
-        <v>3.24259579043978</v>
+        <v>4.55213655298246</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.08568939809878</v>
+        <v>1.73734167393993</v>
       </c>
       <c r="B12">
-        <v>0.261682326107902</v>
+        <v>0.626137554687506</v>
       </c>
       <c r="C12">
-        <v>2.38577301331864</v>
+        <v>3.1421608989114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>2.72253493991968</v>
+        <v>3.23477446307899</v>
       </c>
       <c r="B13">
-        <v>1.41588636137793</v>
+        <v>1.88576171410705</v>
       </c>
       <c r="C13">
-        <v>4.04025504446684</v>
+        <v>4.79428374985485</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.86496343806564</v>
+        <v>3.83515665561814</v>
       </c>
       <c r="B14">
-        <v>0.847657913161123</v>
+        <v>2.39144845768917</v>
       </c>
       <c r="C14">
-        <v>3.21734440836627</v>
+        <v>5.4745711233487</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.52125595992904</v>
+        <v>3.05140750302857</v>
       </c>
       <c r="B15">
-        <v>0.609038793324558</v>
+        <v>1.71715073137932</v>
       </c>
       <c r="C15">
-        <v>2.78315592201526</v>
+        <v>4.64060669545092</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.72009096034483</v>
+        <v>2.787336992029</v>
       </c>
       <c r="B16">
-        <v>0.653691157438075</v>
+        <v>1.43031303955868</v>
       </c>
       <c r="C16">
-        <v>3.06999852615518</v>
+        <v>4.36834899900319</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.12250960455856</v>
+        <v>2.03923584340155</v>
       </c>
       <c r="B17">
-        <v>0.309225080854915</v>
+        <v>0.823092288421445</v>
       </c>
       <c r="C17">
-        <v>2.39001181118276</v>
+        <v>3.5667825722931</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.797768654764468</v>
+        <v>1.33729075456835</v>
       </c>
       <c r="B18">
-        <v>0.204336825942873</v>
+        <v>0.470060332244601</v>
       </c>
       <c r="C18">
-        <v>1.8307978796493</v>
+        <v>2.47747150918516</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2.28952218341281</v>
+        <v>2.79130636932271</v>
       </c>
       <c r="B19">
-        <v>1.05334124513853</v>
+        <v>1.58462460206386</v>
       </c>
       <c r="C19">
-        <v>3.47964143040892</v>
+        <v>4.1562597877366</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.26538391925885</v>
+        <v>2.62698362785637</v>
       </c>
       <c r="B20">
-        <v>0.515371928859472</v>
+        <v>1.41798694466381</v>
       </c>
       <c r="C20">
-        <v>2.35612890082866</v>
+        <v>4.10558933715711</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.02004987515903</v>
+        <v>2.00642279866553</v>
       </c>
       <c r="B21">
-        <v>0.371601306794749</v>
+        <v>0.96543416352061</v>
       </c>
       <c r="C21">
-        <v>2.04056073955603</v>
+        <v>3.35283730566629</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.25077003374505</v>
+        <v>1.91300009472492</v>
       </c>
       <c r="B22">
-        <v>0.411280596050834</v>
+        <v>0.838833340220805</v>
       </c>
       <c r="C22">
-        <v>2.43486125105749</v>
+        <v>3.31466384562318</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.774966844618577</v>
+        <v>1.51026999243641</v>
       </c>
       <c r="B23">
-        <v>0.224634289053923</v>
+        <v>0.599899858768894</v>
       </c>
       <c r="C23">
-        <v>1.71466767677219</v>
+        <v>2.72646854079082</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.594201749861359</v>
+        <v>1.02716257552352</v>
       </c>
       <c r="B24">
-        <v>0.161843300026425</v>
+        <v>0.363185197288755</v>
       </c>
       <c r="C24">
-        <v>1.42003955523784</v>
+        <v>1.98072846819467</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.83857920035608</v>
+        <v>2.36303231483887</v>
       </c>
       <c r="B25">
-        <v>0.707094263393785</v>
+        <v>1.23784929823455</v>
       </c>
       <c r="C25">
-        <v>3.00300552905263</v>
+        <v>3.61978678529497</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.872479199634728</v>
+        <v>1.75856004736513</v>
       </c>
       <c r="B26">
-        <v>0.313729852742118</v>
+        <v>0.805443388462732</v>
       </c>
       <c r="C26">
-        <v>1.78634235539404</v>
+        <v>3.05317919850275</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.69873454268678</v>
+        <v>1.31128027028232</v>
       </c>
       <c r="B27">
-        <v>0.227435872112656</v>
+        <v>0.538254338479859</v>
       </c>
       <c r="C27">
-        <v>1.53053855734551</v>
+        <v>2.42424862223326</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.922906211473547</v>
+        <v>1.33053013377998</v>
       </c>
       <c r="B28">
-        <v>0.257116263411385</v>
+        <v>0.489562992906266</v>
       </c>
       <c r="C28">
-        <v>1.97590493595748</v>
+        <v>2.54229088519852</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.539090886928846</v>
+        <v>1.10965647856028</v>
       </c>
       <c r="B29">
-        <v>0.160654896025405</v>
+        <v>0.434033882076403</v>
       </c>
       <c r="C29">
-        <v>1.23109567884641</v>
+        <v>2.07421825938755</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.462883310999301</v>
+        <v>0.813366897717127</v>
       </c>
       <c r="B30">
-        <v>0.130683461986422</v>
+        <v>0.285425470144377</v>
       </c>
       <c r="C30">
-        <v>1.11906936794479</v>
+        <v>1.62095750061036</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.40585630682366</v>
+        <v>1.90913497239703</v>
       </c>
       <c r="B31">
-        <v>0.447391082165123</v>
+        <v>0.813153516752467</v>
       </c>
       <c r="C31">
-        <v>2.5645805432286</v>
+        <v>3.12680983406911</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.634056325889751</v>
+        <v>1.22652605331167</v>
       </c>
       <c r="B32">
-        <v>0.195820860543879</v>
+        <v>0.475447151665258</v>
       </c>
       <c r="C32">
-        <v>1.42246401627196</v>
+        <v>2.33867930276356</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.506279324834958</v>
+        <v>0.906603026794914</v>
       </c>
       <c r="B33">
-        <v>0.14151326031573</v>
+        <v>0.314263228992658</v>
       </c>
       <c r="C33">
-        <v>1.21114351482638</v>
+        <v>1.82159104275118</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.707994601567636</v>
+        <v>0.977680864895053</v>
       </c>
       <c r="B34">
-        <v>0.165927211730791</v>
+        <v>0.302900612094841</v>
       </c>
       <c r="C34">
-        <v>1.67717285875962</v>
+        <v>2.0402993645826</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.389964181860898</v>
+        <v>0.834271517401955</v>
       </c>
       <c r="B35">
-        <v>0.116501866182077</v>
+        <v>0.318198194271701</v>
       </c>
       <c r="C35">
-        <v>0.915605519090687</v>
+        <v>1.61800320766654</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.386978231740327</v>
+        <v>0.684111548935491</v>
       </c>
       <c r="B36">
-        <v>0.108156218149992</v>
+        <v>0.236640443737777</v>
       </c>
       <c r="C36">
-        <v>0.949304976169879</v>
+        <v>1.39590330472601</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.04173012238557</v>
+        <v>1.46376554035715</v>
       </c>
       <c r="B37">
-        <v>0.271860487153192</v>
+        <v>0.488409224581167</v>
       </c>
       <c r="C37">
-        <v>2.10958931745041</v>
+        <v>2.67808265121196</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.496259454518843</v>
+        <v>0.930013262106256</v>
       </c>
       <c r="B38">
-        <v>0.127094315652667</v>
+        <v>0.300913599197353</v>
       </c>
       <c r="C38">
-        <v>1.22112503872471</v>
+        <v>1.92889233800699</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.395831246920167</v>
+        <v>0.68761827532537</v>
       </c>
       <c r="B39">
-        <v>0.0927440788781466</v>
+        <v>0.202134475966861</v>
       </c>
       <c r="C39">
-        <v>1.04886318223917</v>
+        <v>1.51088438721356</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.573260128663891</v>
+        <v>0.776356607259145</v>
       </c>
       <c r="B40">
-        <v>0.107885285044541</v>
+        <v>0.19331371484089</v>
       </c>
       <c r="C40">
-        <v>1.49059833279754</v>
+        <v>1.77731224475423</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.299780537974505</v>
+        <v>0.658436962676311</v>
       </c>
       <c r="B41">
-        <v>0.0851300159978554</v>
+        <v>0.236434345303522</v>
       </c>
       <c r="C41">
-        <v>0.731098959559953</v>
+        <v>1.33426521226114</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.35176614889727</v>
+        <v>0.62278651156719</v>
       </c>
       <c r="B42">
-        <v>0.0919512639725145</v>
+        <v>0.205231956653093</v>
       </c>
       <c r="C42">
-        <v>0.90282847726284</v>
+        <v>1.30949205642966</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.770665275354889</v>
+        <v>1.10001366636816</v>
       </c>
       <c r="B43">
-        <v>0.162753536320733</v>
+        <v>0.300600044736272</v>
       </c>
       <c r="C43">
-        <v>1.75071085746751</v>
+        <v>2.26095122442601</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.421232467687325</v>
+        <v>0.7767626098483</v>
       </c>
       <c r="B44">
-        <v>0.0865821341669424</v>
+        <v>0.208247917760128</v>
       </c>
       <c r="C44">
-        <v>1.1390758204534</v>
+        <v>1.73176937051966</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.336061289364885</v>
+        <v>0.578033315431432</v>
       </c>
       <c r="B45">
-        <v>0.0623983704892415</v>
+        <v>0.136849347322123</v>
       </c>
       <c r="C45">
-        <v>0.989515575676847</v>
+        <v>1.39766925948083</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.492557968566537</v>
+        <v>0.669441867638474</v>
       </c>
       <c r="B46">
-        <v>0.0718552693202399</v>
+        <v>0.131365199385843</v>
       </c>
       <c r="C46">
-        <v>1.40566720235661</v>
+        <v>1.65845678977863</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.247687632911227</v>
+        <v>0.554247317008636</v>
       </c>
       <c r="B47">
-        <v>0.0622102378622963</v>
+        <v>0.178913820063854</v>
       </c>
       <c r="C47">
-        <v>0.646046037183567</v>
+        <v>1.18504853583714</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.347811022695935</v>
+        <v>0.616595431317567</v>
       </c>
       <c r="B48">
-        <v>0.0800434384562296</v>
+        <v>0.184928356768514</v>
       </c>
       <c r="C48">
-        <v>0.930612163570048</v>
+        <v>1.34092121173582</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.586143258353648</v>
+        <v>0.849412773792169</v>
       </c>
       <c r="B49">
-        <v>0.100440753569304</v>
+        <v>0.194046286412964</v>
       </c>
       <c r="C49">
-        <v>1.47945408440387</v>
+        <v>1.92503965506636</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.385924062499402</v>
+        <v>0.707532234428299</v>
       </c>
       <c r="B50">
-        <v>0.0601727553947693</v>
+        <v>0.146831034086331</v>
       </c>
       <c r="C50">
-        <v>1.15834516741613</v>
+        <v>1.70067871079495</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.308522186584268</v>
+        <v>0.532952606538334</v>
       </c>
       <c r="B51">
-        <v>0.0436552459756134</v>
+        <v>0.0959984274180122</v>
       </c>
       <c r="C51">
-        <v>1.00477460510937</v>
+        <v>1.39452713458239</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.448055325216914</v>
+        <v>0.620686200105424</v>
       </c>
       <c r="B52">
-        <v>0.0494310312261152</v>
+        <v>0.0910662494037956</v>
       </c>
       <c r="C52">
-        <v>1.38705466901184</v>
+        <v>1.64462509777547</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.220756186606587</v>
+        <v>0.500755718744667</v>
       </c>
       <c r="B53">
-        <v>0.0455667402697284</v>
+        <v>0.140744332081162</v>
       </c>
       <c r="C53">
-        <v>0.639931506358088</v>
+        <v>1.14553296189806</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.37008672553108</v>
+        <v>0.656946822476537</v>
       </c>
       <c r="B54">
-        <v>0.070652533422999</v>
+        <v>0.170324766244593</v>
       </c>
       <c r="C54">
-        <v>1.03818047395541</v>
+        <v>1.46533760328972</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.468326207595993</v>
+        <v>0.699942081409754</v>
       </c>
       <c r="B55">
-        <v>0.0643358719503505</v>
+        <v>0.133347184342736</v>
       </c>
       <c r="C55">
-        <v>1.30768491299742</v>
+        <v>1.70885323861765</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.376465956403342</v>
+        <v>0.687022668548515</v>
       </c>
       <c r="B56">
-        <v>0.0427047848728916</v>
+        <v>0.107732466685928</v>
       </c>
       <c r="C56">
-        <v>1.22819815844255</v>
+        <v>1.75058146553703</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.302419925402766</v>
+        <v>0.526321391976657</v>
       </c>
       <c r="B57">
-        <v>0.030880765922087</v>
+        <v>0.0702287917023965</v>
       </c>
       <c r="C57">
-        <v>1.07155502317313</v>
+        <v>1.46570350145327</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.428075496993304</v>
+        <v>0.607631321112561</v>
       </c>
       <c r="B58">
-        <v>0.0346997206890671</v>
+        <v>0.0661350340455516</v>
       </c>
       <c r="C58">
-        <v>1.41186158290932</v>
+        <v>1.69007766540352</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.211618944146596</v>
+        <v>0.484103777682347</v>
       </c>
       <c r="B59">
-        <v>0.0342166175239909</v>
+        <v>0.11079210236708</v>
       </c>
       <c r="C59">
-        <v>0.691237734958302</v>
+        <v>1.20555985798479</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.415325375991105</v>
+        <v>0.735098883593475</v>
       </c>
       <c r="B60">
-        <v>0.0627971371404134</v>
+        <v>0.163107395797032</v>
       </c>
       <c r="C60">
-        <v>1.19115803192659</v>
+        <v>1.6884227158017</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.398570355151175</v>
+        <v>0.626107546775631</v>
       </c>
       <c r="B61">
-        <v>0.0420655482327761</v>
+        <v>0.095501984492788</v>
       </c>
       <c r="C61">
-        <v>1.22247420072127</v>
+        <v>1.62971380306221</v>
       </c>
     </row>
   </sheetData>
@@ -3117,662 +3117,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>19.4239847747269</v>
+        <v>24.2773659176214</v>
       </c>
       <c r="B2">
-        <v>15.7247845033685</v>
+        <v>20.6850810750472</v>
       </c>
       <c r="C2">
-        <v>23.2522244122334</v>
+        <v>28.0032451293513</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>16.9793069596456</v>
+        <v>21.1777562238834</v>
       </c>
       <c r="B3">
-        <v>13.4313532129513</v>
+        <v>17.6896401713512</v>
       </c>
       <c r="C3">
-        <v>20.7351001027575</v>
+        <v>24.7915481021195</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>20.7924691049273</v>
+        <v>23.6881870395971</v>
       </c>
       <c r="B4">
-        <v>17.6391769115986</v>
+        <v>20.4956484152401</v>
       </c>
       <c r="C4">
-        <v>24.0788119716957</v>
+        <v>27.075316111278</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>22.5688196517537</v>
+        <v>25.9356870879773</v>
       </c>
       <c r="B5">
-        <v>18.9973284853956</v>
+        <v>22.1959343422078</v>
       </c>
       <c r="C5">
-        <v>26.3300910290685</v>
+        <v>29.9903149527216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>15.2613602998368</v>
+        <v>18.218463485605</v>
       </c>
       <c r="B6">
-        <v>11.8900010440713</v>
+        <v>14.7612679995916</v>
       </c>
       <c r="C6">
-        <v>18.9371680130447</v>
+        <v>21.9332224792749</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>13.2457465989488</v>
+        <v>15.1546837744487</v>
       </c>
       <c r="B7">
-        <v>9.85376292482709</v>
+        <v>11.6920051826908</v>
       </c>
       <c r="C7">
-        <v>16.9957330852578</v>
+        <v>18.9667195668965</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>19.1162229180277</v>
+        <v>23.573146816437</v>
       </c>
       <c r="B8">
-        <v>15.9215024435569</v>
+        <v>20.3821715571727</v>
       </c>
       <c r="C8">
-        <v>22.3861337112906</v>
+        <v>26.8259003825945</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>16.7670274726587</v>
+        <v>20.5628810132013</v>
       </c>
       <c r="B9">
-        <v>13.6356367516362</v>
+        <v>17.4243053389927</v>
       </c>
       <c r="C9">
-        <v>20.0143338818689</v>
+        <v>23.7803129947781</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>20.7396516636618</v>
+        <v>23.2832466835441</v>
       </c>
       <c r="B10">
-        <v>18.0145016506572</v>
+        <v>20.4822308288789</v>
       </c>
       <c r="C10">
-        <v>23.4895403293197</v>
+        <v>26.2494293009727</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>21.7640092471691</v>
+        <v>25.1238909667088</v>
       </c>
       <c r="B11">
-        <v>18.5785728110971</v>
+        <v>21.8150779785119</v>
       </c>
       <c r="C11">
-        <v>25.0409711784312</v>
+        <v>28.6831107759269</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>15.0936356256756</v>
+        <v>18.0201469139369</v>
       </c>
       <c r="B12">
-        <v>12.0261883851957</v>
+        <v>14.8199678963004</v>
       </c>
       <c r="C12">
-        <v>18.4467665214831</v>
+        <v>21.4533265371963</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>13.4766453565137</v>
+        <v>15.3509183135135</v>
       </c>
       <c r="B13">
-        <v>10.4063970370503</v>
+        <v>12.1647091215354</v>
       </c>
       <c r="C13">
-        <v>16.8245356797354</v>
+        <v>18.8354545196937</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>19.0251851523691</v>
+        <v>23.0579924890403</v>
       </c>
       <c r="B14">
-        <v>16.1496061103573</v>
+        <v>20.1661789650538</v>
       </c>
       <c r="C14">
-        <v>21.8928481406652</v>
+        <v>25.9927223825482</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>16.7611913924383</v>
+        <v>20.1943303021272</v>
       </c>
       <c r="B15">
-        <v>13.9022757548917</v>
+        <v>17.3463130015761</v>
       </c>
       <c r="C15">
-        <v>19.6687667912698</v>
+        <v>23.1415269296439</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>20.7671755344641</v>
+        <v>23.0498578609343</v>
       </c>
       <c r="B16">
-        <v>18.3377765602016</v>
+        <v>20.5235550031213</v>
       </c>
       <c r="C16">
-        <v>23.1878944590159</v>
+        <v>25.6942978443135</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>20.9919636046984</v>
+        <v>24.3253882444112</v>
       </c>
       <c r="B17">
-        <v>18.1341665397381</v>
+        <v>21.3718881759696</v>
       </c>
       <c r="C17">
-        <v>23.8852228382209</v>
+        <v>27.4558192347568</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>15.0688929819288</v>
+        <v>17.9629578086601</v>
       </c>
       <c r="B18">
-        <v>12.2614513874609</v>
+        <v>14.9620344642882</v>
       </c>
       <c r="C18">
-        <v>18.101252029891</v>
+        <v>21.1555256766012</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>13.8236453636246</v>
+        <v>15.7169206575541</v>
       </c>
       <c r="B19">
-        <v>11.0115213384873</v>
+        <v>12.7287326397578</v>
       </c>
       <c r="C19">
-        <v>16.827717278747</v>
+        <v>18.9812620402235</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>19.0894957721789</v>
+        <v>22.7614905930656</v>
       </c>
       <c r="B20">
-        <v>16.3570380942019</v>
+        <v>20.0566803516859</v>
       </c>
       <c r="C20">
-        <v>21.7457577916575</v>
+        <v>25.4993260110042</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>16.9068948560859</v>
+        <v>20.0480438111291</v>
       </c>
       <c r="B21">
-        <v>14.1813868724633</v>
+        <v>17.3475459722802</v>
       </c>
       <c r="C21">
-        <v>19.6481889795781</v>
+        <v>22.840017075655</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>20.8140236494439</v>
+        <v>22.9121864527462</v>
       </c>
       <c r="B22">
-        <v>18.5286906464019</v>
+        <v>20.4945811046402</v>
       </c>
       <c r="C22">
-        <v>23.1052792060542</v>
+        <v>25.4004148901621</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>20.2133131532458</v>
+        <v>23.5380047016534</v>
       </c>
       <c r="B23">
-        <v>17.6039390755846</v>
+        <v>20.8894262758735</v>
       </c>
       <c r="C23">
-        <v>22.8063566843726</v>
+        <v>26.3182385656434</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>15.2021818979239</v>
+        <v>18.0755096478889</v>
       </c>
       <c r="B24">
-        <v>12.6032093047267</v>
+        <v>15.2605043291785</v>
       </c>
       <c r="C24">
-        <v>17.982264898987</v>
+        <v>21.05379209609</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>14.2901057579603</v>
+        <v>16.2504071982765</v>
       </c>
       <c r="B25">
-        <v>11.6873429676205</v>
+        <v>13.4566800681402</v>
       </c>
       <c r="C25">
-        <v>17.004555119139</v>
+        <v>19.2367329605667</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>19.2340959113212</v>
+        <v>22.6122195713661</v>
       </c>
       <c r="B26">
-        <v>16.465513144932</v>
+        <v>19.946458413179</v>
       </c>
       <c r="C26">
-        <v>21.9067856972448</v>
+        <v>25.3617563247095</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>17.1467376484727</v>
+        <v>20.0413362986641</v>
       </c>
       <c r="B27">
-        <v>14.393805297439</v>
+        <v>17.3646808676736</v>
       </c>
       <c r="C27">
-        <v>19.8805717060127</v>
+        <v>22.7578373614283</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>20.8522525652657</v>
+        <v>22.8182006630429</v>
       </c>
       <c r="B28">
-        <v>18.5684455473189</v>
+        <v>20.3830754204962</v>
       </c>
       <c r="C28">
-        <v>23.1561061218282</v>
+        <v>25.3846544070585</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>19.3917919909561</v>
+        <v>22.735095555531</v>
       </c>
       <c r="B29">
-        <v>16.9889048594345</v>
+        <v>20.2721396442692</v>
       </c>
       <c r="C29">
-        <v>21.7679701792476</v>
+        <v>25.2533749053865</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>15.4940817905709</v>
+        <v>18.3519273974613</v>
       </c>
       <c r="B30">
-        <v>13.0731366048526</v>
+        <v>15.7187562595663</v>
       </c>
       <c r="C30">
-        <v>18.0349342067138</v>
+        <v>21.1099060597459</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>14.8760093094569</v>
+        <v>16.9270632818797</v>
       </c>
       <c r="B31">
-        <v>12.4673158275037</v>
+        <v>14.3003709337335</v>
       </c>
       <c r="C31">
-        <v>17.3361767640446</v>
+        <v>19.6621832735436</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>19.4100294467565</v>
+        <v>22.5549686769703</v>
       </c>
       <c r="B32">
-        <v>16.5553232269119</v>
+        <v>19.7897813747909</v>
       </c>
       <c r="C32">
-        <v>22.2123599566305</v>
+        <v>25.4229744724323</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>17.4369361583492</v>
+        <v>20.1261917580954</v>
       </c>
       <c r="B33">
-        <v>14.5805062714955</v>
+        <v>17.3976118667303</v>
       </c>
       <c r="C33">
-        <v>20.2914057687443</v>
+        <v>22.9074285847951</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>20.8859483836968</v>
+        <v>22.7611138574514</v>
       </c>
       <c r="B34">
-        <v>18.4886667080713</v>
+        <v>20.1755442955976</v>
       </c>
       <c r="C34">
-        <v>23.3578819547505</v>
+        <v>25.502784164763</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>18.5367237726114</v>
+        <v>21.8854093232899</v>
       </c>
       <c r="B35">
-        <v>16.2909519971092</v>
+        <v>19.5237128155036</v>
       </c>
       <c r="C35">
-        <v>20.7955308993744</v>
+        <v>24.2762534045549</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>15.9226008942098</v>
+        <v>18.7661317184032</v>
       </c>
       <c r="B36">
-        <v>13.6652792577537</v>
+        <v>16.2940002582935</v>
       </c>
       <c r="C36">
-        <v>18.278430038576</v>
+        <v>21.3407070149724</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>15.5576968302175</v>
+        <v>17.7020959470544</v>
       </c>
       <c r="B37">
-        <v>13.3395363050491</v>
+        <v>15.2384850502995</v>
       </c>
       <c r="C37">
-        <v>17.8324254604382</v>
+        <v>20.2760909874639</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>19.5958461462152</v>
+        <v>22.5703929038491</v>
       </c>
       <c r="B38">
-        <v>16.5476251767811</v>
+        <v>19.6569954634501</v>
       </c>
       <c r="C38">
-        <v>22.6420900441455</v>
+        <v>25.6649971113957</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>17.748012288672</v>
+        <v>20.2844666541962</v>
       </c>
       <c r="B39">
-        <v>14.7184292369382</v>
+        <v>17.4431335374997</v>
       </c>
       <c r="C39">
-        <v>20.7827758705525</v>
+        <v>23.1975338030638</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>20.9265410720053</v>
+        <v>22.7482751270636</v>
       </c>
       <c r="B40">
-        <v>18.3706816393484</v>
+        <v>19.9727738876525</v>
       </c>
       <c r="C40">
-        <v>23.6211490834967</v>
+        <v>25.7198181994789</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>17.7076693979988</v>
+        <v>21.0057592260266</v>
       </c>
       <c r="B41">
-        <v>15.5277518824278</v>
+        <v>18.6474520622954</v>
       </c>
       <c r="C41">
-        <v>19.9110681863996</v>
+        <v>23.3805163931368</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>16.4327133672981</v>
+        <v>19.2765773636365</v>
       </c>
       <c r="B42">
-        <v>14.2955696220985</v>
+        <v>16.9075068736359</v>
       </c>
       <c r="C42">
-        <v>18.6564625782621</v>
+        <v>21.752653018809</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>16.2910716716839</v>
+        <v>18.5248500323755</v>
       </c>
       <c r="B43">
-        <v>14.196840376286</v>
+        <v>16.1690251028805</v>
       </c>
       <c r="C43">
-        <v>18.4354008838649</v>
+        <v>20.9805723355371</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>19.7822871966128</v>
+        <v>22.6453620492894</v>
       </c>
       <c r="B44">
-        <v>16.5257084772687</v>
+        <v>19.5460290053162</v>
       </c>
       <c r="C44">
-        <v>23.0980251007784</v>
+        <v>26.0745969403319</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>18.0592913085811</v>
+        <v>20.4988460782226</v>
       </c>
       <c r="B45">
-        <v>14.836786047482</v>
+        <v>17.5152311708356</v>
       </c>
       <c r="C45">
-        <v>21.3309571078253</v>
+        <v>23.6290042273193</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>20.9794585320794</v>
+        <v>22.7806114834254</v>
       </c>
       <c r="B46">
-        <v>18.1946115627148</v>
+        <v>19.7916023398332</v>
       </c>
       <c r="C46">
-        <v>23.9656746283844</v>
+        <v>26.0461718581479</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>16.9751347914292</v>
+        <v>20.1820491865578</v>
       </c>
       <c r="B47">
-        <v>14.8190691541106</v>
+        <v>17.8191537060298</v>
       </c>
       <c r="C47">
-        <v>19.1853448948701</v>
+        <v>22.6099884275804</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>16.952773525112</v>
+        <v>19.8362849097684</v>
       </c>
       <c r="B48">
-        <v>14.8634006883532</v>
+        <v>17.4789881258758</v>
       </c>
       <c r="C48">
-        <v>19.1490999139331</v>
+        <v>22.3061672018022</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>17.0327485820795</v>
+        <v>19.3546769928515</v>
       </c>
       <c r="B49">
-        <v>14.9583157496072</v>
+        <v>17.0554881764153</v>
       </c>
       <c r="C49">
-        <v>19.1730799020253</v>
+        <v>21.7915327520927</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>19.9670574379007</v>
+        <v>22.7635724998565</v>
       </c>
       <c r="B50">
-        <v>16.4738872070965</v>
+        <v>19.4348196452845</v>
       </c>
       <c r="C50">
-        <v>23.6097321092871</v>
+        <v>26.4524765863426</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>18.3588777051053</v>
+        <v>20.7485909734077</v>
       </c>
       <c r="B51">
-        <v>14.925073389723</v>
+        <v>17.5847095119435</v>
       </c>
       <c r="C51">
-        <v>21.9116950463982</v>
+        <v>24.1427468720035</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>21.0456834372404</v>
+        <v>22.8513857458574</v>
       </c>
       <c r="B52">
-        <v>18.0031615945901</v>
+        <v>19.6541723609217</v>
       </c>
       <c r="C52">
-        <v>24.2921672475886</v>
+        <v>26.3880894506982</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>16.3845861164209</v>
+        <v>19.5145468456148</v>
       </c>
       <c r="B53">
-        <v>14.2098340761503</v>
+        <v>17.0912288042974</v>
       </c>
       <c r="C53">
-        <v>18.6651228906265</v>
+        <v>22.0314863902637</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>17.4408419317535</v>
+        <v>20.416748119436</v>
       </c>
       <c r="B54">
-        <v>15.2466584888985</v>
+        <v>17.9394083883711</v>
       </c>
       <c r="C54">
-        <v>19.7605490683479</v>
+        <v>23.0594734042505</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>17.7466592038179</v>
+        <v>20.1602275746299</v>
       </c>
       <c r="B55">
-        <v>15.6000516512266</v>
+        <v>17.7578864685372</v>
       </c>
       <c r="C55">
-        <v>19.9654485777399</v>
+        <v>22.7323252789288</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>20.1531388987684</v>
+        <v>22.9086887818639</v>
       </c>
       <c r="B56">
-        <v>16.4431391064184</v>
+        <v>19.3574364698293</v>
       </c>
       <c r="C56">
-        <v>24.1291605592197</v>
+        <v>26.8437624134846</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>18.6447231819116</v>
+        <v>21.015154246904</v>
       </c>
       <c r="B57">
-        <v>15.006126384421</v>
+        <v>17.6616385355661</v>
       </c>
       <c r="C57">
-        <v>22.4957180930709</v>
+        <v>24.7170447742973</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>21.1248455843405</v>
+        <v>22.9500174951733</v>
       </c>
       <c r="B58">
-        <v>17.8352950980543</v>
+        <v>19.537954870852</v>
       </c>
       <c r="C58">
-        <v>24.6812276458627</v>
+        <v>26.7267042718939</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>15.9462835207544</v>
+        <v>19.0537499944522</v>
       </c>
       <c r="B59">
-        <v>13.6717400266806</v>
+        <v>16.4983486034632</v>
       </c>
       <c r="C59">
-        <v>18.3579822778985</v>
+        <v>21.7216702532217</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>17.9040924857534</v>
+        <v>21.0100199642877</v>
       </c>
       <c r="B60">
-        <v>15.5388293841935</v>
+        <v>18.3401530334848</v>
       </c>
       <c r="C60">
-        <v>20.4419137921414</v>
+        <v>23.909212920954</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>18.4026950276275</v>
+        <v>20.9237813167885</v>
       </c>
       <c r="B61">
-        <v>16.1252605928358</v>
+        <v>18.3442022281403</v>
       </c>
       <c r="C61">
-        <v>20.7661871305773</v>
+        <v>23.7159158366454</v>
       </c>
     </row>
   </sheetData>
@@ -3801,662 +3801,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4.98430705391557</v>
+        <v>5.19979734385066</v>
       </c>
       <c r="B2">
-        <v>4.22222222222222</v>
+        <v>4.55555555555556</v>
       </c>
       <c r="C2">
-        <v>5.73333333333333</v>
+        <v>5.83333333333333</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>4.93274582065537</v>
+        <v>5.16762974839698</v>
       </c>
       <c r="B3">
-        <v>4.11111111111111</v>
+        <v>4.45454545454545</v>
       </c>
       <c r="C3">
-        <v>5.72727272727273</v>
+        <v>5.875</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>4.85773444365446</v>
+        <v>5.11726987944565</v>
       </c>
       <c r="B4">
-        <v>4.15384615384615</v>
+        <v>4.45</v>
       </c>
       <c r="C4">
-        <v>5.55555555555556</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4.79706933059806</v>
+        <v>4.89491139470258</v>
       </c>
       <c r="B5">
-        <v>4.18181818181818</v>
+        <v>4.31570723684211</v>
       </c>
       <c r="C5">
-        <v>5.4</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4.57364749215259</v>
+        <v>4.68032106216662</v>
       </c>
       <c r="B6">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5.3</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>4.74664474611632</v>
+        <v>4.85613680274834</v>
       </c>
       <c r="B7">
-        <v>4.11111111111111</v>
+        <v>4.2</v>
       </c>
       <c r="C7">
-        <v>5.38461538461539</v>
+        <v>5.47368421052632</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4.87919132775329</v>
+        <v>5.11116149441785</v>
       </c>
       <c r="B8">
-        <v>4.11111111111111</v>
+        <v>4.4375</v>
       </c>
       <c r="C8">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>4.81568673222552</v>
+        <v>5.06364135332887</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="C9">
-        <v>5.58333333333333</v>
+        <v>5.76923076923077</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>4.77840084923139</v>
+        <v>5.01786458036888</v>
       </c>
       <c r="B10">
-        <v>4.09977272727273</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="C10">
-        <v>5.44444444444444</v>
+        <v>5.64285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4.7449507053564</v>
+        <v>4.85580077972861</v>
       </c>
       <c r="B11">
-        <v>4.11111111111111</v>
+        <v>4.28571428571429</v>
       </c>
       <c r="C11">
-        <v>5.33333333333333</v>
+        <v>5.42105263157895</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4.51611192556677</v>
+        <v>4.63688203185919</v>
       </c>
       <c r="B12">
-        <v>3.77777777777778</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>5.22222222222222</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4.68465690687975</v>
+        <v>4.79663919829123</v>
       </c>
       <c r="B13">
-        <v>4.1</v>
+        <v>4.18181818181818</v>
       </c>
       <c r="C13">
-        <v>5.27272727272727</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>4.77957577033913</v>
+        <v>5.01566404220605</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>4.33333333333333</v>
       </c>
       <c r="C14">
-        <v>5.5</v>
+        <v>5.65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4.71747384983585</v>
+        <v>4.95373668877393</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="C15">
-        <v>5.45454545454545</v>
+        <v>5.64285714285714</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4.71318023862828</v>
+        <v>4.92654741706981</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>4.24963235294118</v>
       </c>
       <c r="C16">
-        <v>5.36363636363636</v>
+        <v>5.57142857142857</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4.68951563919464</v>
+        <v>4.81525077211084</v>
       </c>
       <c r="B17">
-        <v>4.09090909090909</v>
+        <v>4.23529411764706</v>
       </c>
       <c r="C17">
-        <v>5.27272727272727</v>
+        <v>5.35714285714286</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4.47346393183767</v>
+        <v>4.60934911919302</v>
       </c>
       <c r="B18">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>5.125</v>
+        <v>5.23076923076923</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4.6378371739059</v>
+        <v>4.74579469242193</v>
       </c>
       <c r="B19">
-        <v>4.09090909090909</v>
+        <v>4.18181818181818</v>
       </c>
       <c r="C19">
-        <v>5.18181818181818</v>
+        <v>5.30769230769231</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4.70589845545509</v>
+        <v>4.92262204104521</v>
       </c>
       <c r="B20">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="C20">
-        <v>5.4</v>
+        <v>5.57142857142857</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4.63974438144576</v>
+        <v>4.84792631521251</v>
       </c>
       <c r="B21">
-        <v>3.875</v>
+        <v>4.1</v>
       </c>
       <c r="C21">
-        <v>5.36363636363636</v>
+        <v>5.54545454545455</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4.6678831650067</v>
+        <v>4.8640936704748</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="C22">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4.64251267780181</v>
+        <v>4.77885240949174</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="C23">
-        <v>5.21428571428571</v>
+        <v>5.3125</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4.44556569369407</v>
+        <v>4.58954632138238</v>
       </c>
       <c r="B24">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="C24">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4.5976389520151</v>
+        <v>4.70837129904812</v>
       </c>
       <c r="B25">
-        <v>4.09090909090909</v>
+        <v>4.18181818181818</v>
       </c>
       <c r="C25">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4.65112185849187</v>
+        <v>4.84339579147258</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>4.15384615384615</v>
       </c>
       <c r="C26">
-        <v>5.33333333333333</v>
+        <v>5.47058823529412</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4.58841368355077</v>
+        <v>4.76666349048591</v>
       </c>
       <c r="B27">
-        <v>3.85714285714286</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>5.28571428571429</v>
+        <v>5.44444444444444</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4.64113404833041</v>
+        <v>4.80638612867092</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>4.14285714285714</v>
       </c>
       <c r="C28">
-        <v>5.25</v>
+        <v>5.42857142857143</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4.58925147699778</v>
+        <v>4.73998134048804</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>4.18181818181818</v>
       </c>
       <c r="C29">
-        <v>5.16666666666667</v>
+        <v>5.28571428571429</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4.4366297393145</v>
+        <v>4.58670324388723</v>
       </c>
       <c r="B30">
-        <v>3.75</v>
+        <v>3.90909090909091</v>
       </c>
       <c r="C30">
-        <v>5.09090909090909</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4.5719748204359</v>
+        <v>4.68371515821291</v>
       </c>
       <c r="B31">
-        <v>4.1</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="C31">
-        <v>5.08333333333333</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4.61982437414868</v>
+        <v>4.78210603868633</v>
       </c>
       <c r="B32">
-        <v>3.90909090909091</v>
+        <v>4.1</v>
       </c>
       <c r="C32">
-        <v>5.27272727272727</v>
+        <v>5.41666666666667</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4.55638299945051</v>
+        <v>4.7105225810685</v>
       </c>
       <c r="B33">
-        <v>3.85714285714286</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>5.22222222222222</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>4.62354296558073</v>
+        <v>4.77315015578542</v>
       </c>
       <c r="B34">
-        <v>4</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C34">
-        <v>5.22222222222222</v>
+        <v>5.38461538461539</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4.53940819670015</v>
+        <v>4.69807097997811</v>
       </c>
       <c r="B35">
-        <v>3.88888888888889</v>
+        <v>4.1</v>
       </c>
       <c r="C35">
-        <v>5.11111111111111</v>
+        <v>5.26666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4.44506701640374</v>
+        <v>4.598325179232</v>
       </c>
       <c r="B36">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C36">
-        <v>5.07142857142857</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4.55467069813867</v>
+        <v>4.66046947897546</v>
       </c>
       <c r="B37">
-        <v>4.1</v>
+        <v>4.125</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4.6004640822923</v>
+        <v>4.74178094452256</v>
       </c>
       <c r="B38">
-        <v>3.90909090909091</v>
+        <v>4.08333333333333</v>
       </c>
       <c r="C38">
-        <v>5.25</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4.54084063545727</v>
+        <v>4.6779888289412</v>
       </c>
       <c r="B39">
-        <v>3.85714285714286</v>
+        <v>4</v>
       </c>
       <c r="C39">
-        <v>5.2</v>
+        <v>5.36363636363636</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4.61430327458368</v>
+        <v>4.74963437243549</v>
       </c>
       <c r="B40">
-        <v>4</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C40">
-        <v>5.2</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4.49788333457545</v>
+        <v>4.66118541542119</v>
       </c>
       <c r="B41">
-        <v>3.85714285714286</v>
+        <v>4.07142857142857</v>
       </c>
       <c r="C41">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4.45835700777725</v>
+        <v>4.62813177456949</v>
       </c>
       <c r="B42">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>5.08333333333333</v>
+        <v>5.20035714285714</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4.54163896927725</v>
+        <v>4.64601480264017</v>
       </c>
       <c r="B43">
-        <v>4.1</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>5.15384615384615</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>4.59165709436789</v>
+        <v>4.7145468802928</v>
       </c>
       <c r="B44">
-        <v>3.9</v>
+        <v>4.07142857142857</v>
       </c>
       <c r="C44">
-        <v>5.22222222222222</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4.53567696187595</v>
+        <v>4.65491556511031</v>
       </c>
       <c r="B45">
-        <v>3.85714285714286</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>5.18181818181818</v>
+        <v>5.30769230769231</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4.61697644413496</v>
+        <v>4.73091147489532</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="C46">
-        <v>5.2</v>
+        <v>5.30769230769231</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>4.46201451048951</v>
+        <v>4.6260089440592</v>
       </c>
       <c r="B47">
-        <v>3.83333333333333</v>
+        <v>4</v>
       </c>
       <c r="C47">
-        <v>5.09090909090909</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4.48992631075522</v>
+        <v>4.65875912069634</v>
       </c>
       <c r="B48">
-        <v>3.83333333333333</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>5.09090909090909</v>
+        <v>5.23076923076923</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4.53604549429074</v>
+        <v>4.64469046255199</v>
       </c>
       <c r="B49">
-        <v>4.1</v>
+        <v>4.14285714285714</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>4.58886526902146</v>
+        <v>4.7009700307411</v>
       </c>
       <c r="B50">
-        <v>3.91666666666667</v>
+        <v>4.07692307692308</v>
       </c>
       <c r="C50">
-        <v>5.22222222222222</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>4.53660030699609</v>
+        <v>4.64155520544396</v>
       </c>
       <c r="B51">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>5.16666666666667</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>4.61376004514397</v>
+        <v>4.71579760666938</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>4.08333333333333</v>
       </c>
       <c r="C52">
-        <v>5.2</v>
+        <v>5.30769230769231</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>4.44407072970432</v>
+        <v>4.60402834528625</v>
       </c>
       <c r="B53">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>5.1</v>
+        <v>5.23076923076923</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>4.52467972488092</v>
+        <v>4.69182581953247</v>
       </c>
       <c r="B54">
-        <v>3.85714285714286</v>
+        <v>4.09090909090909</v>
       </c>
       <c r="C54">
-        <v>5.1</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>4.54061485827285</v>
+        <v>4.6504716648416</v>
       </c>
       <c r="B55">
-        <v>4.1</v>
+        <v>4.125</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4.59489620239949</v>
+        <v>4.68682394071275</v>
       </c>
       <c r="B56">
-        <v>3.92307692307692</v>
+        <v>4.07142857142857</v>
       </c>
       <c r="C56">
-        <v>5.21428571428571</v>
+        <v>5.28571428571429</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4.54268780949121</v>
+        <v>4.64234325321785</v>
       </c>
       <c r="B57">
-        <v>3.875</v>
+        <v>4</v>
       </c>
       <c r="C57">
-        <v>5.18181818181818</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4.61856374752202</v>
+        <v>4.7077255360043</v>
       </c>
       <c r="B58">
-        <v>4</v>
+        <v>4.09090909090909</v>
       </c>
       <c r="C58">
-        <v>5.2</v>
+        <v>5.3001923076923</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>4.43139017625553</v>
+        <v>4.58983973296279</v>
       </c>
       <c r="B59">
-        <v>3.71428571428571</v>
+        <v>3.88888888888889</v>
       </c>
       <c r="C59">
-        <v>5.11111111111111</v>
+        <v>5.23076923076923</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>4.5632090004843</v>
+        <v>4.72539444274255</v>
       </c>
       <c r="B60">
-        <v>3.88854166666667</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C60">
-        <v>5.14285714285714</v>
+        <v>5.27285353535353</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>4.55157719252</v>
+        <v>4.66004722792231</v>
       </c>
       <c r="B61">
-        <v>4.1</v>
+        <v>4.15384615384615</v>
       </c>
       <c r="C61">
-        <v>5</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
   </sheetData>
@@ -4485,662 +4485,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>132.689259422661</v>
+        <v>206.388959120577</v>
       </c>
       <c r="B2">
-        <v>41.845724695755</v>
+        <v>95.7860430246854</v>
       </c>
       <c r="C2">
-        <v>375.472775112738</v>
+        <v>425.170300297145</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>104.201008882556</v>
+        <v>160.042929401497</v>
       </c>
       <c r="B3">
-        <v>32.189722708779</v>
+        <v>71.0876741305784</v>
       </c>
       <c r="C3">
-        <v>305.050230360669</v>
+        <v>346.355487743751</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>294.17004856144</v>
+        <v>370.001895008997</v>
       </c>
       <c r="B4">
-        <v>91.4146120206658</v>
+        <v>159.699115488027</v>
       </c>
       <c r="C4">
-        <v>819.857487325846</v>
+        <v>815.496987850806</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1341.86036435926</v>
+        <v>1969.75166035884</v>
       </c>
       <c r="B5">
-        <v>259.305131522043</v>
+        <v>642.629185897407</v>
       </c>
       <c r="C5">
-        <v>5006.92542006493</v>
+        <v>5117.95506965293</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>291.942621929387</v>
+        <v>527.963639999107</v>
       </c>
       <c r="B6">
-        <v>58.1371552056137</v>
+        <v>172.512666352044</v>
       </c>
       <c r="C6">
-        <v>1078.34638922982</v>
+        <v>1369.01280247043</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>361.56346722201</v>
+        <v>824.57660673354</v>
       </c>
       <c r="B7">
-        <v>59.7471662249227</v>
+        <v>126.112170964378</v>
       </c>
       <c r="C7">
-        <v>1560.16643783809</v>
+        <v>3769.64285465015</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>142.932122478145</v>
+        <v>214.268884876739</v>
       </c>
       <c r="B8">
-        <v>49.3460956008467</v>
+        <v>101.817781428136</v>
       </c>
       <c r="C8">
-        <v>380.319381025919</v>
+        <v>421.001008737725</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>112.768672064243</v>
+        <v>170.579122589596</v>
       </c>
       <c r="B9">
-        <v>37.8862388746611</v>
+        <v>77.4464508767013</v>
       </c>
       <c r="C9">
-        <v>309.025292428603</v>
+        <v>353.079683576649</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>332.724787121499</v>
+        <v>419.281321019956</v>
       </c>
       <c r="B10">
-        <v>115.922335919714</v>
+        <v>193.64884716537</v>
       </c>
       <c r="C10">
-        <v>869.316894643866</v>
+        <v>862.860547156979</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1037.39311423949</v>
+        <v>1479.71228616624</v>
       </c>
       <c r="B11">
-        <v>241.74256178325</v>
+        <v>554.494732345099</v>
       </c>
       <c r="C11">
-        <v>3529.55240602967</v>
+        <v>3476.03528000254</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>266.726019584816</v>
+        <v>469.588339460977</v>
       </c>
       <c r="B12">
-        <v>64.9487373632403</v>
+        <v>177.908664160414</v>
       </c>
       <c r="C12">
-        <v>872.530552001339</v>
+        <v>1094.66807570187</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>303.800198132614</v>
+        <v>611.624753654103</v>
       </c>
       <c r="B13">
-        <v>67.5526249138868</v>
+        <v>130.983217573583</v>
       </c>
       <c r="C13">
-        <v>1117.85612081281</v>
+        <v>2393.6043603075</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>171.814692912833</v>
+        <v>256.566604534083</v>
       </c>
       <c r="B14">
-        <v>63.8198031006514</v>
+        <v>123.514070459453</v>
       </c>
       <c r="C14">
-        <v>428.499241478974</v>
+        <v>490.521344198241</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>135.94402469095</v>
+        <v>207.22760008356</v>
       </c>
       <c r="B15">
-        <v>49.0986754533547</v>
+        <v>95.7347764480838</v>
       </c>
       <c r="C15">
-        <v>352.183666928223</v>
+        <v>413.749181611839</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>413.728084738142</v>
+        <v>524.921314872862</v>
       </c>
       <c r="B16">
-        <v>155.074764641879</v>
+        <v>254.268198957594</v>
       </c>
       <c r="C16">
-        <v>1020.95493670041</v>
+        <v>1027.27493755218</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>854.426060278143</v>
+        <v>1206.44164080315</v>
       </c>
       <c r="B17">
-        <v>236.495509224696</v>
+        <v>501.666038616098</v>
       </c>
       <c r="C17">
-        <v>2605.63028144143</v>
+        <v>2597.69328967546</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>262.465998938821</v>
+        <v>449.564478553976</v>
       </c>
       <c r="B18">
-        <v>76.2430707000019</v>
+        <v>193.272364039677</v>
       </c>
       <c r="C18">
-        <v>770.613274556211</v>
+        <v>956.10500054389</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>291.998633649232</v>
+        <v>515.030592397309</v>
       </c>
       <c r="B19">
-        <v>83.5049550420821</v>
+        <v>152.243473839776</v>
       </c>
       <c r="C19">
-        <v>900.183761093616</v>
+        <v>1628.96563348098</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>225.486367541246</v>
+        <v>335.786656461278</v>
       </c>
       <c r="B20">
-        <v>85.7244495719007</v>
+        <v>163.237011715204</v>
       </c>
       <c r="C20">
-        <v>546.849889042265</v>
+        <v>631.648676094004</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>178.864575291784</v>
+        <v>273.428690695818</v>
       </c>
       <c r="B21">
-        <v>65.8053842191195</v>
+        <v>126.443182378806</v>
       </c>
       <c r="C21">
-        <v>453.995019533671</v>
+        <v>537.232360277723</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>558.259999016187</v>
+        <v>706.84046957753</v>
       </c>
       <c r="B22">
-        <v>212.273297089176</v>
+        <v>342.228210735521</v>
       </c>
       <c r="C22">
-        <v>1357.77132298363</v>
+        <v>1383.39544627753</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>743.51796643135</v>
+        <v>1042.57063412546</v>
       </c>
       <c r="B23">
-        <v>239.831900438812</v>
+        <v>477.266002656207</v>
       </c>
       <c r="C23">
-        <v>2032.99587707557</v>
+        <v>2083.98673795223</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>276.121434093299</v>
+        <v>457.345936516289</v>
       </c>
       <c r="B24">
-        <v>93.2091910862315</v>
+        <v>214.335677362146</v>
       </c>
       <c r="C24">
-        <v>732.455955155826</v>
+        <v>898.021852732332</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>316.73562287929</v>
+        <v>495.009476288888</v>
       </c>
       <c r="B25">
-        <v>111.32183985914</v>
+        <v>188.727064493917</v>
       </c>
       <c r="C25">
-        <v>840.538253995363</v>
+        <v>1253.21140865798</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>319.153575577172</v>
+        <v>468.681307333865</v>
       </c>
       <c r="B26">
-        <v>116.918473387594</v>
+        <v>222.087435249624</v>
       </c>
       <c r="C26">
-        <v>784.533715961562</v>
+        <v>893.59452424707</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>253.901333178689</v>
+        <v>383.479961336341</v>
       </c>
       <c r="B27">
-        <v>88.7848749986813</v>
+        <v>171.693577727289</v>
       </c>
       <c r="C27">
-        <v>653.115294620243</v>
+        <v>763.664247308014</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>810.835609549189</v>
+        <v>1010.68649039621</v>
       </c>
       <c r="B28">
-        <v>289.793889415052</v>
+        <v>471.959860823864</v>
       </c>
       <c r="C28">
-        <v>2052.30456718979</v>
+        <v>2023.38883555687</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>680.635292665102</v>
+        <v>942.343953483921</v>
       </c>
       <c r="B29">
-        <v>247.443087256249</v>
+        <v>462.544077878574</v>
       </c>
       <c r="C29">
-        <v>1695.74960299528</v>
+        <v>1778.77517022553</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>309.038896990038</v>
+        <v>490.025664914886</v>
       </c>
       <c r="B30">
-        <v>116.740488428095</v>
+        <v>244.872986340606</v>
       </c>
       <c r="C30">
-        <v>743.981340162198</v>
+        <v>901.996488236051</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>382.651661592331</v>
+        <v>539.532276999777</v>
       </c>
       <c r="B31">
-        <v>155.84283308575</v>
+        <v>248.669708826576</v>
       </c>
       <c r="C31">
-        <v>889.012045361846</v>
+        <v>1136.86838919193</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>483.89234943185</v>
+        <v>690.879425316447</v>
       </c>
       <c r="B32">
-        <v>157.360345692368</v>
+        <v>306.829089440798</v>
       </c>
       <c r="C32">
-        <v>1261.29682411833</v>
+        <v>1394.62485221183</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>386.306958885</v>
+        <v>566.942496120718</v>
       </c>
       <c r="B33">
-        <v>119.644675677517</v>
+        <v>238.379408231295</v>
       </c>
       <c r="C33">
-        <v>1064.68807567061</v>
+        <v>1192.10307682071</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1261.57846742119</v>
+        <v>1527.07917276688</v>
       </c>
       <c r="B34">
-        <v>393.0102662246</v>
+        <v>655.365461154416</v>
       </c>
       <c r="C34">
-        <v>3460.97414882987</v>
+        <v>3297.11246763468</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>654.046615284506</v>
+        <v>884.993119900187</v>
       </c>
       <c r="B35">
-        <v>258.142177458409</v>
+        <v>457.312503224471</v>
       </c>
       <c r="C35">
-        <v>1534.04387883201</v>
+        <v>1594.08671262117</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>366.790983278134</v>
+        <v>550.103259165894</v>
       </c>
       <c r="B36">
-        <v>148.848470412175</v>
+        <v>287.373489805891</v>
       </c>
       <c r="C36">
-        <v>829.454784018646</v>
+        <v>979.817167174413</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>508.110049152001</v>
+        <v>655.736965207859</v>
       </c>
       <c r="B37">
-        <v>224.807496719792</v>
+        <v>338.612530321057</v>
       </c>
       <c r="C37">
-        <v>1098.08047716817</v>
+        <v>1243.52356714802</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>783.124208720389</v>
+        <v>1073.04266933679</v>
       </c>
       <c r="B38">
-        <v>211.986422768261</v>
+        <v>427.158485182888</v>
       </c>
       <c r="C38">
-        <v>2284.25675355108</v>
+        <v>2392.82961730063</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>627.755831196831</v>
+        <v>882.188529101466</v>
       </c>
       <c r="B39">
-        <v>160.109721556292</v>
+        <v>331.159266647685</v>
       </c>
       <c r="C39">
-        <v>1948.9430181096</v>
+        <v>2040.80520819037</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2097.31397394626</v>
+        <v>2437.45584523508</v>
       </c>
       <c r="B40">
-        <v>537.414860047867</v>
+        <v>917.019839887008</v>
       </c>
       <c r="C40">
-        <v>6522.33235181474</v>
+        <v>5849.22064595028</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>659.11098931322</v>
+        <v>861.147989918751</v>
       </c>
       <c r="B41">
-        <v>266.813592575878</v>
+        <v>453.16115680207</v>
       </c>
       <c r="C41">
-        <v>1500.19872034952</v>
+        <v>1526.30011253327</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>460.699908100639</v>
+        <v>645.555369354737</v>
       </c>
       <c r="B42">
-        <v>190.759817307835</v>
+        <v>340.635230742574</v>
       </c>
       <c r="C42">
-        <v>1017.07104104557</v>
+        <v>1140.95391688776</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>733.027790585567</v>
+        <v>871.483524563213</v>
       </c>
       <c r="B43">
-        <v>331.729367596634</v>
+        <v>471.770372671052</v>
       </c>
       <c r="C43">
-        <v>1545.69168825292</v>
+        <v>1596.29226775945</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1350.88381713753</v>
+        <v>1759.41388373339</v>
       </c>
       <c r="B44">
-        <v>287.514050534019</v>
+        <v>605.795660693308</v>
       </c>
       <c r="C44">
-        <v>4441.49864944296</v>
+        <v>4433.2242654247</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1087.83700757483</v>
+        <v>1448.55654520965</v>
       </c>
       <c r="B45">
-        <v>215.78687332929</v>
+        <v>468.213210864334</v>
       </c>
       <c r="C45">
-        <v>3786.56876375925</v>
+        <v>3785.51398252801</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3721.60124228708</v>
+        <v>4120.92772736849</v>
       </c>
       <c r="B46">
-        <v>729.651009784141</v>
+        <v>1307.23725030855</v>
       </c>
       <c r="C46">
-        <v>13471.7952647379</v>
+        <v>11380.4196522571</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>696.381789746257</v>
+        <v>867.66068164862</v>
       </c>
       <c r="B47">
-        <v>272.445885795172</v>
+        <v>448.427206706767</v>
       </c>
       <c r="C47">
-        <v>1630.99103253827</v>
+        <v>1558.0594107379</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>611.58459879405</v>
+        <v>791.964065590698</v>
       </c>
       <c r="B48">
-        <v>244.800053004017</v>
+        <v>411.404471760546</v>
       </c>
       <c r="C48">
-        <v>1394.90152981869</v>
+        <v>1434.72826910988</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1138.75311353618</v>
+        <v>1246.63155297731</v>
       </c>
       <c r="B49">
-        <v>498.866848125214</v>
+        <v>673.04704563227</v>
       </c>
       <c r="C49">
-        <v>2493.2768186533</v>
+        <v>2332.84052570063</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2483.71002006434</v>
+        <v>3061.76705991954</v>
       </c>
       <c r="B50">
-        <v>390.008827318304</v>
+        <v>865.774552268131</v>
       </c>
       <c r="C50">
-        <v>9400.98349640827</v>
+        <v>8934.1465241826</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2009.90236274307</v>
+        <v>2525.46667532145</v>
       </c>
       <c r="B51">
-        <v>294.152683599573</v>
+        <v>667.789681898695</v>
       </c>
       <c r="C51">
-        <v>8015.19166146486</v>
+        <v>7527.13798657711</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>7048.68515552053</v>
+        <v>7415.8675464576</v>
       </c>
       <c r="B52">
-        <v>1010.49817215144</v>
+        <v>1884.0555336739</v>
       </c>
       <c r="C52">
-        <v>29232.495712217</v>
+        <v>23851.0815143292</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>771.521535675512</v>
+        <v>905.852319464615</v>
       </c>
       <c r="B53">
-        <v>275.494000941409</v>
+        <v>443.705114228545</v>
       </c>
       <c r="C53">
-        <v>1927.93383376544</v>
+        <v>1716.80373062369</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>857.519420376843</v>
+        <v>1017.66447962611</v>
       </c>
       <c r="B54">
-        <v>312.687202987703</v>
+        <v>498.598167343408</v>
       </c>
       <c r="C54">
-        <v>2100.30920375806</v>
+        <v>1965.62035878265</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1893.38951118636</v>
+        <v>1900.7223141426</v>
       </c>
       <c r="B55">
-        <v>761.07535120054</v>
+        <v>966.86721960474</v>
       </c>
       <c r="C55">
-        <v>4442.9751909565</v>
+        <v>3724.43467619712</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4871.75079962929</v>
+        <v>5707.31726369999</v>
       </c>
       <c r="B56">
-        <v>533.289460033196</v>
+        <v>1259.4038603268</v>
       </c>
       <c r="C56">
-        <v>21308.8693475195</v>
+        <v>18844.2097017431</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3962.48179103694</v>
+        <v>4724.63883282114</v>
       </c>
       <c r="B57">
-        <v>405.798967548829</v>
+        <v>970.296219937357</v>
       </c>
       <c r="C57">
-        <v>17812.7089973256</v>
+        <v>15757.4710029458</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>14258.0116001427</v>
+        <v>14306.015947806</v>
       </c>
       <c r="B58">
-        <v>1410.55735261593</v>
+        <v>2729.05415097307</v>
       </c>
       <c r="C58">
-        <v>67430.5364847632</v>
+        <v>52686.5874554099</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>896.755583028853</v>
+        <v>981.528277353326</v>
       </c>
       <c r="B59">
-        <v>278.898072725479</v>
+        <v>437.169438999927</v>
       </c>
       <c r="C59">
-        <v>2488.04074351749</v>
+        <v>2029.80957466665</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1269.81247850593</v>
+        <v>1374.76889374183</v>
       </c>
       <c r="B60">
-        <v>401.194652060249</v>
+        <v>613.727434582312</v>
       </c>
       <c r="C60">
-        <v>3459.17346943059</v>
+        <v>2962.77631738627</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3356.750453196</v>
+        <v>3076.40703494608</v>
       </c>
       <c r="B61">
-        <v>1163.74735672621</v>
+        <v>1413.90168626966</v>
       </c>
       <c r="C61">
-        <v>8809.27912716663</v>
+        <v>6606.37915138989</v>
       </c>
     </row>
   </sheetData>
@@ -5169,662 +5169,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3.65963543602799</v>
+        <v>13.2266157988019</v>
       </c>
       <c r="B2">
-        <v>0.665016592176686</v>
+        <v>3.64518505648015</v>
       </c>
       <c r="C2">
-        <v>14.0659910942146</v>
+        <v>34.0463709563364</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.8267219617062</v>
+        <v>8.8357334312468</v>
       </c>
       <c r="B3">
-        <v>0.476277784673051</v>
+        <v>2.40299702006297</v>
       </c>
       <c r="C3">
-        <v>11.2641142960239</v>
+        <v>23.2036585185619</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>3.48140859687215</v>
+        <v>7.46103901408503</v>
       </c>
       <c r="B4">
-        <v>0.49707807219757</v>
+        <v>1.75733890821415</v>
       </c>
       <c r="C4">
-        <v>13.9547395581937</v>
+        <v>21.8263024683385</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.86227849539135</v>
+        <v>3.65938150099724</v>
       </c>
       <c r="B5">
-        <v>0.165678921805187</v>
+        <v>0.517165123768</v>
       </c>
       <c r="C5">
-        <v>8.58127324409429</v>
+        <v>12.9156925709021</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.04506021706948</v>
+        <v>1.79632733415632</v>
       </c>
       <c r="B6">
-        <v>0.0902368151956368</v>
+        <v>0.244679905797661</v>
       </c>
       <c r="C6">
-        <v>4.9328730204585</v>
+        <v>6.55449709156005</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>21.7712671626839</v>
+        <v>41.1975446932124</v>
       </c>
       <c r="B7">
-        <v>0.959129181397536</v>
+        <v>3.21188008750789</v>
       </c>
       <c r="C7">
-        <v>116.825923380753</v>
+        <v>152.915724272904</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.6019507664416</v>
+        <v>5.15710225534208</v>
       </c>
       <c r="B8">
-        <v>0.396640155060685</v>
+        <v>1.81594139085641</v>
       </c>
       <c r="C8">
-        <v>5.23440651559442</v>
+        <v>11.7871279633578</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.24578181833906</v>
+        <v>3.5020709130976</v>
       </c>
       <c r="B9">
-        <v>0.282741702171025</v>
+        <v>1.17627682307303</v>
       </c>
       <c r="C9">
-        <v>4.20955660757103</v>
+        <v>8.27180866067221</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.68763411105517</v>
+        <v>3.22596632499953</v>
       </c>
       <c r="B10">
-        <v>0.301328911122006</v>
+        <v>0.890317106460365</v>
       </c>
       <c r="C10">
-        <v>5.98467271472189</v>
+        <v>8.98240777535156</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.883501470147675</v>
+        <v>1.85644510337475</v>
       </c>
       <c r="B11">
-        <v>0.115861952194163</v>
+        <v>0.349864745530281</v>
       </c>
       <c r="C11">
-        <v>3.52633936325947</v>
+        <v>5.76922389885855</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.532223838595109</v>
+        <v>0.970981415963825</v>
       </c>
       <c r="B12">
-        <v>0.0682203354463941</v>
+        <v>0.176721396573725</v>
       </c>
       <c r="C12">
-        <v>2.21327841900414</v>
+        <v>3.09918724003083</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>8.2611374334481</v>
+        <v>15.7895250317427</v>
       </c>
       <c r="B13">
-        <v>0.583567329381346</v>
+        <v>1.74768136776082</v>
       </c>
       <c r="C13">
-        <v>41.115137755852</v>
+        <v>54.5819550488815</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.792863736856799</v>
+        <v>2.26452498822474</v>
       </c>
       <c r="B14">
-        <v>0.236005225108196</v>
+        <v>0.875292673463153</v>
       </c>
       <c r="C14">
-        <v>2.26493416280149</v>
+        <v>4.9480465539987</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.620211893993784</v>
+        <v>1.56069175399311</v>
       </c>
       <c r="B15">
-        <v>0.164952577789079</v>
+        <v>0.564164947921116</v>
       </c>
       <c r="C15">
-        <v>1.85029350835199</v>
+        <v>3.60457718693975</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.917851105646476</v>
+        <v>1.5649646292118</v>
       </c>
       <c r="B16">
-        <v>0.180872914770383</v>
+        <v>0.450170019809892</v>
       </c>
       <c r="C16">
-        <v>3.04273750807348</v>
+        <v>4.29643590275269</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.462155593048184</v>
+        <v>1.01508784932835</v>
       </c>
       <c r="B17">
-        <v>0.0817148351102346</v>
+        <v>0.239755354206361</v>
       </c>
       <c r="C17">
-        <v>1.57799518481254</v>
+        <v>2.82062040450858</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.305117157783148</v>
+        <v>0.575103252818602</v>
       </c>
       <c r="B18">
-        <v>0.0527203506607454</v>
+        <v>0.128445313726516</v>
       </c>
       <c r="C18">
-        <v>1.11031130990073</v>
+        <v>1.67654735733244</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>3.54436245043432</v>
+        <v>6.55133392037193</v>
       </c>
       <c r="B19">
-        <v>0.349522554892365</v>
+        <v>0.893709573388564</v>
       </c>
       <c r="C19">
-        <v>16.1126319230336</v>
+        <v>22.0259195623017</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.44171216396185</v>
+        <v>1.12560808108455</v>
       </c>
       <c r="B20">
-        <v>0.137608745576522</v>
+        <v>0.42829698221025</v>
       </c>
       <c r="C20">
-        <v>1.16656912552705</v>
+        <v>2.49707393512874</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.347180764236036</v>
+        <v>0.785643456562888</v>
       </c>
       <c r="B21">
-        <v>0.0972890179457502</v>
+        <v>0.277668739588151</v>
       </c>
       <c r="C21">
-        <v>0.971264904856735</v>
+        <v>1.84143294841458</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.562889423343918</v>
+        <v>0.855479148458779</v>
       </c>
       <c r="B22">
-        <v>0.109737931469732</v>
+        <v>0.23843995475947</v>
       </c>
       <c r="C22">
-        <v>1.7841519945802</v>
+        <v>2.40502727204534</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.265926620006746</v>
+        <v>0.59954457452983</v>
       </c>
       <c r="B23">
-        <v>0.0579460285063501</v>
+        <v>0.165265845075205</v>
       </c>
       <c r="C23">
-        <v>0.811390845056771</v>
+        <v>1.53773599403624</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.197211752303295</v>
+        <v>0.375081258708917</v>
       </c>
       <c r="B24">
-        <v>0.0413638698092983</v>
+        <v>0.096930175262529</v>
       </c>
       <c r="C24">
-        <v>0.645187331347868</v>
+        <v>1.01588733896373</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.70503406567835</v>
+        <v>2.96207352933169</v>
       </c>
       <c r="B25">
-        <v>0.209415520998895</v>
+        <v>0.468152350665047</v>
       </c>
       <c r="C25">
-        <v>6.99279982268209</v>
+        <v>9.69358559408868</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.276725652991567</v>
+        <v>0.638924431103869</v>
       </c>
       <c r="B26">
-        <v>0.0815744940058047</v>
+        <v>0.224553432477576</v>
       </c>
       <c r="C26">
-        <v>0.723971271642784</v>
+        <v>1.47057612415477</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.218316035006675</v>
+        <v>0.45052362061584</v>
       </c>
       <c r="B27">
-        <v>0.0586424604001753</v>
+        <v>0.145397955463598</v>
       </c>
       <c r="C27">
-        <v>0.601853202306537</v>
+        <v>1.09603291158336</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.395030054033254</v>
+        <v>0.532822686511126</v>
       </c>
       <c r="B28">
-        <v>0.0671977920950704</v>
+        <v>0.13227997696751</v>
       </c>
       <c r="C28">
-        <v>1.22622107464191</v>
+        <v>1.5431382869201</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.167964098633867</v>
+        <v>0.383973211418448</v>
       </c>
       <c r="B29">
-        <v>0.0410723119808415</v>
+        <v>0.116404653334549</v>
       </c>
       <c r="C29">
-        <v>0.471285356867057</v>
+        <v>0.945470427722906</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.14394519001741</v>
+        <v>0.271446657644617</v>
       </c>
       <c r="B30">
-        <v>0.0333046434905696</v>
+        <v>0.0748560890003518</v>
       </c>
       <c r="C30">
-        <v>0.439311426282742</v>
+        <v>0.716902609035471</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.91450629532697</v>
+        <v>1.47427977791639</v>
       </c>
       <c r="B31">
-        <v>0.123357485282493</v>
+        <v>0.248965189179486</v>
       </c>
       <c r="C31">
-        <v>3.574209384301</v>
+        <v>4.80660376379722</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.19551075676876</v>
+        <v>0.419581934100487</v>
       </c>
       <c r="B32">
-        <v>0.0503081261777695</v>
+        <v>0.127330027271412</v>
       </c>
       <c r="C32">
-        <v>0.524285037562303</v>
+        <v>1.01178896688659</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.154669043889876</v>
+        <v>0.298159368423379</v>
       </c>
       <c r="B33">
-        <v>0.036028492408259</v>
+        <v>0.0830079383169401</v>
       </c>
       <c r="C33">
-        <v>0.443256634825894</v>
+        <v>0.763338355359411</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.324442528590961</v>
+        <v>0.386105285847553</v>
       </c>
       <c r="B34">
-        <v>0.0426317424147305</v>
+        <v>0.0798177207005955</v>
       </c>
       <c r="C34">
-        <v>0.974389945268509</v>
+        <v>1.16780563845637</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.11624862916896</v>
+        <v>0.268134555302594</v>
       </c>
       <c r="B35">
-        <v>0.0296132003556546</v>
+        <v>0.0834901507396128</v>
       </c>
       <c r="C35">
-        <v>0.313198342580316</v>
+        <v>0.643310723806912</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.118751798494067</v>
+        <v>0.220164072133302</v>
       </c>
       <c r="B36">
-        <v>0.0275426148119649</v>
+        <v>0.061558397038653</v>
       </c>
       <c r="C36">
-        <v>0.356650782041747</v>
+        <v>0.578004413258473</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.547028610779112</v>
+        <v>0.81847122685669</v>
       </c>
       <c r="B37">
-        <v>0.0719089174059541</v>
+        <v>0.13713973843301</v>
       </c>
       <c r="C37">
-        <v>2.10610098613117</v>
+        <v>2.69249129350157</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.156816770618073</v>
+        <v>0.324725335488957</v>
       </c>
       <c r="B38">
-        <v>0.0324644540549022</v>
+        <v>0.07883499907516</v>
       </c>
       <c r="C38">
-        <v>0.455042572816597</v>
+        <v>0.854576833322524</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.12428205407815</v>
+        <v>0.232098221938584</v>
       </c>
       <c r="B39">
-        <v>0.0235342513566323</v>
+        <v>0.0522428902527052</v>
       </c>
       <c r="C39">
-        <v>0.387625755489501</v>
+        <v>0.64013678635162</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.317499395178636</v>
+        <v>0.336433611995084</v>
       </c>
       <c r="B40">
-        <v>0.0274935268046029</v>
+        <v>0.050591461071784</v>
       </c>
       <c r="C40">
-        <v>0.885614144975931</v>
+        <v>1.02904328347501</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.0880673650694226</v>
+        <v>0.205682891933384</v>
       </c>
       <c r="B41">
-        <v>0.0215451504684669</v>
+        <v>0.0610343173688588</v>
       </c>
       <c r="C41">
-        <v>0.240049581382915</v>
+        <v>0.499439268068081</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.110645230735737</v>
+        <v>0.202458211197194</v>
       </c>
       <c r="B42">
-        <v>0.0232942005536359</v>
+        <v>0.0533443022428461</v>
       </c>
       <c r="C42">
-        <v>0.342594179502325</v>
+        <v>0.540028637773842</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.369726610916172</v>
+        <v>0.515173490918939</v>
       </c>
       <c r="B43">
-        <v>0.0421879795901661</v>
+        <v>0.0798677683037006</v>
       </c>
       <c r="C43">
-        <v>1.41075129506473</v>
+        <v>1.75249351625281</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.144059582500713</v>
+        <v>0.303025395782332</v>
       </c>
       <c r="B44">
-        <v>0.0219374706856524</v>
+        <v>0.0539348723542986</v>
       </c>
       <c r="C44">
-        <v>0.459367847438649</v>
+        <v>0.879775077981225</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.11425602042785</v>
+        <v>0.217691667711957</v>
       </c>
       <c r="B45">
-        <v>0.0157983456300386</v>
+        <v>0.0350738794118124</v>
       </c>
       <c r="C45">
-        <v>0.390023347531094</v>
+        <v>0.654985505705935</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.36860755436919</v>
+        <v>0.365408785328523</v>
       </c>
       <c r="B46">
-        <v>0.0182480453181191</v>
+        <v>0.0338775567333878</v>
       </c>
       <c r="C46">
-        <v>0.91482654779183</v>
+        <v>1.10011633689727</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.0730477097772796</v>
+        <v>0.17495177856979</v>
       </c>
       <c r="B47">
-        <v>0.0157109443315481</v>
+        <v>0.0463511661403489</v>
       </c>
       <c r="C47">
-        <v>0.211380523369795</v>
+        <v>0.440052236832146</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.116125649468923</v>
+        <v>0.213652313185169</v>
       </c>
       <c r="B48">
-        <v>0.0202865116111831</v>
+        <v>0.0480342658249321</v>
       </c>
       <c r="C48">
-        <v>0.389035280028188</v>
+        <v>0.613708292096967</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.293154441173634</v>
+        <v>0.376136922694312</v>
       </c>
       <c r="B49">
-        <v>0.0256488111873214</v>
+        <v>0.0509942160402056</v>
       </c>
       <c r="C49">
-        <v>1.06826658233169</v>
+        <v>1.35083054362378</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.152639035077664</v>
+        <v>0.347330520241206</v>
       </c>
       <c r="B50">
-        <v>0.0152223786981091</v>
+        <v>0.0379683062031618</v>
       </c>
       <c r="C50">
-        <v>0.541261111863529</v>
+        <v>1.11271347591171</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.120977524253029</v>
+        <v>0.251000796390784</v>
       </c>
       <c r="B51">
-        <v>0.0109874376531829</v>
+        <v>0.0243719170039993</v>
       </c>
       <c r="C51">
-        <v>0.450831718974105</v>
+        <v>0.818831246348641</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.49262591504282</v>
+        <v>0.500535924759336</v>
       </c>
       <c r="B52">
-        <v>0.0124767523320378</v>
+        <v>0.0232961685863651</v>
       </c>
       <c r="C52">
-        <v>1.03786538973899</v>
+        <v>1.40399011736662</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.0664871055857912</v>
+        <v>0.16685291622756</v>
       </c>
       <c r="B53">
-        <v>0.0114688850019996</v>
+        <v>0.0361389454327046</v>
       </c>
       <c r="C53">
-        <v>0.21693596790884</v>
+        <v>0.451198398041705</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.136800529475898</v>
+        <v>0.26145513774451</v>
       </c>
       <c r="B54">
-        <v>0.0178909935698446</v>
+        <v>0.0444367458954412</v>
       </c>
       <c r="C54">
-        <v>0.506915933594732</v>
+        <v>0.807807851331518</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.290619819958584</v>
+        <v>0.330700868523487</v>
       </c>
       <c r="B55">
-        <v>0.0163409183894296</v>
+        <v>0.0343474723497424</v>
       </c>
       <c r="C55">
-        <v>0.905728895775047</v>
+        <v>1.17186409332794</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.18666561957924</v>
+        <v>0.488472126275408</v>
       </c>
       <c r="B56">
-        <v>0.0107737352422797</v>
+        <v>0.0275186047149685</v>
       </c>
       <c r="C56">
-        <v>0.730260005039992</v>
+        <v>1.62037390686586</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.147546226292547</v>
+        <v>0.355624070752527</v>
       </c>
       <c r="B57">
-        <v>0.00779308006123896</v>
+        <v>0.0177947627541283</v>
       </c>
       <c r="C57">
-        <v>0.583549269860546</v>
+        <v>1.19991220604972</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.72839910121389</v>
+        <v>0.837950186456848</v>
       </c>
       <c r="B58">
-        <v>0.0087494170356257</v>
+        <v>0.0168507673665483</v>
       </c>
       <c r="C58">
-        <v>1.31403853370101</v>
+        <v>2.02218168423251</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.066719197981336</v>
+        <v>0.180517242201359</v>
       </c>
       <c r="B59">
-        <v>0.00860940374347021</v>
+        <v>0.0283807047845529</v>
       </c>
       <c r="C59">
-        <v>0.252928521335579</v>
+        <v>0.533776633991077</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.180495918057299</v>
+        <v>0.372911710674397</v>
       </c>
       <c r="B60">
-        <v>0.0158940330601333</v>
+        <v>0.0426541564123747</v>
       </c>
       <c r="C60">
-        <v>0.760215392569757</v>
+        <v>1.26472228995939</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.377239954595019</v>
+        <v>0.36957541147012</v>
       </c>
       <c r="B61">
-        <v>0.0106283240632708</v>
+        <v>0.0244999282671983</v>
       </c>
       <c r="C61">
-        <v>0.839386439403835</v>
+        <v>1.21581906305381</v>
       </c>
     </row>
   </sheetData>
@@ -5853,662 +5853,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>81.3077339114196</v>
+        <v>131.213961992085</v>
       </c>
       <c r="B2">
-        <v>20.8752266082902</v>
+        <v>50.2069167181783</v>
       </c>
       <c r="C2">
-        <v>267.724586283036</v>
+        <v>295.196238541683</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>61.7820327841051</v>
+        <v>102.531117618455</v>
       </c>
       <c r="B3">
-        <v>15.2027283589134</v>
+        <v>36.9881783739797</v>
       </c>
       <c r="C3">
-        <v>209.907356784441</v>
+        <v>243.138242157588</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>179.661555607788</v>
+        <v>237.21432062146</v>
       </c>
       <c r="B4">
-        <v>48.3209749424869</v>
+        <v>88.0176767312763</v>
       </c>
       <c r="C4">
-        <v>555.451173047007</v>
+        <v>569.872289067295</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1094.65447106314</v>
+        <v>1629.30412087926</v>
       </c>
       <c r="B5">
-        <v>170.801103091003</v>
+        <v>438.854182678088</v>
       </c>
       <c r="C5">
-        <v>4468.03753573599</v>
+        <v>4655.88990758771</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>203.30943621913</v>
+        <v>368.203677350777</v>
       </c>
       <c r="B6">
-        <v>30.2387050084855</v>
+        <v>97.1174416994842</v>
       </c>
       <c r="C6">
-        <v>865.126877668714</v>
+        <v>1061.98485588271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>262.797883081342</v>
+        <v>683.738639696758</v>
       </c>
       <c r="B7">
-        <v>23.1716683384284</v>
+        <v>49.9865182302584</v>
       </c>
       <c r="C7">
-        <v>1384.36540997009</v>
+        <v>3582.41968469522</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>95.3966091894235</v>
+        <v>151.891324697907</v>
       </c>
       <c r="B8">
-        <v>26.5956125700829</v>
+        <v>58.5494639524646</v>
       </c>
       <c r="C8">
-        <v>296.585452293296</v>
+        <v>331.046303416394</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>73.2898619310194</v>
+        <v>121.427644408568</v>
       </c>
       <c r="B9">
-        <v>19.4325595094439</v>
+        <v>44.1382345496766</v>
       </c>
       <c r="C9">
-        <v>235.107451309426</v>
+        <v>276.033317286689</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>215.550563827928</v>
+        <v>285.963582227172</v>
       </c>
       <c r="B10">
-        <v>64.2426789216291</v>
+        <v>110.265024940512</v>
       </c>
       <c r="C10">
-        <v>632.512445125227</v>
+        <v>652.33066990586</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>854.678335271661</v>
+        <v>1222.95309307816</v>
       </c>
       <c r="B11">
-        <v>162.175586341874</v>
+        <v>386.434687832132</v>
       </c>
       <c r="C11">
-        <v>3182.43673067668</v>
+        <v>3184.2313295178</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>195.063356735446</v>
+        <v>343.874000006037</v>
       </c>
       <c r="B12">
-        <v>35.9257231179806</v>
+        <v>105.741180286847</v>
       </c>
       <c r="C12">
-        <v>744.906523812532</v>
+        <v>894.264503701178</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>219.88963289603</v>
+        <v>496.246484628847</v>
       </c>
       <c r="B13">
-        <v>29.5918926982483</v>
+        <v>59.165567614751</v>
       </c>
       <c r="C13">
-        <v>992.93756157681</v>
+        <v>2245.58078816801</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>122.582169601576</v>
+        <v>193.21845141058</v>
       </c>
       <c r="B14">
-        <v>36.6581573050113</v>
+        <v>76.6299486190956</v>
       </c>
       <c r="C14">
-        <v>353.540034646643</v>
+        <v>406.777809444222</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>94.8802522823875</v>
+        <v>156.414830086419</v>
       </c>
       <c r="B15">
-        <v>26.9676413525285</v>
+        <v>58.23465113624</v>
       </c>
       <c r="C15">
-        <v>290.343418146596</v>
+        <v>344.178614239377</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>283.176107886105</v>
+        <v>374.578301635542</v>
       </c>
       <c r="B16">
-        <v>89.4366052330372</v>
+        <v>149.336578430741</v>
       </c>
       <c r="C16">
-        <v>802.171252508587</v>
+        <v>832.491815646797</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>712.710575117561</v>
+        <v>1005.72181670016</v>
       </c>
       <c r="B17">
-        <v>163.959020358535</v>
+        <v>359.576951178357</v>
       </c>
       <c r="C17">
-        <v>2388.30748208352</v>
+        <v>2355.38033966233</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>199.854604581902</v>
+        <v>343.850440700355</v>
       </c>
       <c r="B18">
-        <v>45.2398451577363</v>
+        <v>119.888854287159</v>
       </c>
       <c r="C18">
-        <v>669.825648571287</v>
+        <v>813.81549624403</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>207.592664200057</v>
+        <v>400.429361247761</v>
       </c>
       <c r="B19">
-        <v>40.1238659298386</v>
+        <v>74.8237994788555</v>
       </c>
       <c r="C19">
-        <v>776.84868485388</v>
+        <v>1474.55176135492</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>169.726784191003</v>
+        <v>262.527393373229</v>
       </c>
       <c r="B20">
-        <v>52.8460098274911</v>
+        <v>106.37540882151</v>
       </c>
       <c r="C20">
-        <v>470.388948902625</v>
+        <v>540.143149188993</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>132.154743622775</v>
+        <v>213.955455805382</v>
       </c>
       <c r="B21">
-        <v>38.6948607003256</v>
+        <v>80.9376513671155</v>
       </c>
       <c r="C21">
-        <v>386.924488741592</v>
+        <v>460.508384876753</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>401.776043604984</v>
+        <v>522.914015659705</v>
       </c>
       <c r="B22">
-        <v>128.921413427736</v>
+        <v>211.487280452866</v>
       </c>
       <c r="C22">
-        <v>1110.10581719563</v>
+        <v>1155.58013867611</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>628.211449579434</v>
+        <v>880.022866884367</v>
       </c>
       <c r="B23">
-        <v>170.984672527875</v>
+        <v>348.840482584833</v>
       </c>
       <c r="C23">
-        <v>1876.397549533</v>
+        <v>1899.1768363629</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>217.369180479763</v>
+        <v>362.645941377821</v>
       </c>
       <c r="B24">
-        <v>58.9543517953176</v>
+        <v>140.859926943323</v>
       </c>
       <c r="C24">
-        <v>641.632612192183</v>
+        <v>791.614556401268</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>222.0268107297</v>
+        <v>366.966460609188</v>
       </c>
       <c r="B25">
-        <v>56.4233296887256</v>
+        <v>99.0178995149618</v>
       </c>
       <c r="C25">
-        <v>703.34723285948</v>
+        <v>1095.24891323737</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>250.951944478873</v>
+        <v>376.157225202239</v>
       </c>
       <c r="B26">
-        <v>75.4416109003268</v>
+        <v>149.636823316595</v>
       </c>
       <c r="C26">
-        <v>687.748116317939</v>
+        <v>781.036168070501</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>196.478385261532</v>
+        <v>307.611445354324</v>
       </c>
       <c r="B27">
-        <v>54.8899838522907</v>
+        <v>115.096590291764</v>
       </c>
       <c r="C27">
-        <v>573.707418173778</v>
+        <v>666.640608582707</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>610.409664213507</v>
+        <v>771.074925367201</v>
       </c>
       <c r="B28">
-        <v>181.833034947136</v>
+        <v>301.751922399216</v>
       </c>
       <c r="C28">
-        <v>1750.77270865063</v>
+        <v>1734.67861330388</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>582.184483385455</v>
+        <v>805.847400052142</v>
       </c>
       <c r="B29">
-        <v>181.852692500086</v>
+        <v>350.804593450186</v>
       </c>
       <c r="C29">
-        <v>1560.09360295292</v>
+        <v>1623.77196034621</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>250.120888740009</v>
+        <v>399.927715453813</v>
       </c>
       <c r="B30">
-        <v>77.9021002986504</v>
+        <v>169.604324902477</v>
       </c>
       <c r="C30">
-        <v>669.527508648885</v>
+        <v>804.575147408802</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>267.447678084693</v>
+        <v>385.213921280489</v>
       </c>
       <c r="B31">
-        <v>82.5800898127343</v>
+        <v>133.95678904784</v>
       </c>
       <c r="C31">
-        <v>729.727221653905</v>
+        <v>965.0473574221</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>394.415504287124</v>
+        <v>565.927558229475</v>
       </c>
       <c r="B32">
-        <v>106.806035207464</v>
+        <v>214.382967910957</v>
       </c>
       <c r="C32">
-        <v>1129.30068577113</v>
+        <v>1230.92277871188</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>310.520026829545</v>
+        <v>463.489143217134</v>
       </c>
       <c r="B33">
-        <v>76.9591764245725</v>
+        <v>163.18083236426</v>
       </c>
       <c r="C33">
-        <v>945.198018734319</v>
+        <v>1054.67831054526</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>988.340023932395</v>
+        <v>1197.72652197405</v>
       </c>
       <c r="B34">
-        <v>255.919755034694</v>
+        <v>429.384191732706</v>
       </c>
       <c r="C34">
-        <v>3053.73049670618</v>
+        <v>2873.36539293158</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>565.761172788671</v>
+        <v>765.870370330409</v>
       </c>
       <c r="B35">
-        <v>193.909615738883</v>
+        <v>353.616756414283</v>
       </c>
       <c r="C35">
-        <v>1421.70370756673</v>
+        <v>1458.98441863256</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>303.894171490546</v>
+        <v>459.31332233786</v>
       </c>
       <c r="B36">
-        <v>104.720924615374</v>
+        <v>207.377239851459</v>
       </c>
       <c r="C36">
-        <v>754.799944878007</v>
+        <v>882.626369385449</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>358.258824231067</v>
+        <v>459.003682877565</v>
       </c>
       <c r="B37">
-        <v>123.933057911452</v>
+        <v>187.993100243475</v>
       </c>
       <c r="C37">
-        <v>900.120458255672</v>
+        <v>1020.87188046498</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>657.674668385979</v>
+        <v>894.383146104149</v>
       </c>
       <c r="B38">
-        <v>147.255467951257</v>
+        <v>303.222094243337</v>
       </c>
       <c r="C38">
-        <v>2078.83624360091</v>
+        <v>2149.2798056332</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>520.775907974808</v>
+        <v>732.805311583272</v>
       </c>
       <c r="B39">
-        <v>106.959832339648</v>
+        <v>234.149042267082</v>
       </c>
       <c r="C39">
-        <v>1769.565595465</v>
+        <v>1818.6881192474</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1701.67161439399</v>
+        <v>1961.69749582386</v>
       </c>
       <c r="B40">
-        <v>358.12166763001</v>
+        <v>615.415232326208</v>
       </c>
       <c r="C40">
-        <v>5799.29283804913</v>
+        <v>5203.67640915824</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>575.841621523797</v>
+        <v>752.744291267148</v>
       </c>
       <c r="B41">
-        <v>204.275194132455</v>
+        <v>357.407393577642</v>
       </c>
       <c r="C41">
-        <v>1406.09830433008</v>
+        <v>1403.03099290117</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>389.43000086808</v>
+        <v>548.875538234331</v>
       </c>
       <c r="B42">
-        <v>138.832086383621</v>
+        <v>255.506164715974</v>
       </c>
       <c r="C42">
-        <v>934.776589079489</v>
+        <v>1031.80970566745</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>526.075740671039</v>
+        <v>608.421470115006</v>
       </c>
       <c r="B43">
-        <v>187.957676050732</v>
+        <v>265.413703463984</v>
       </c>
       <c r="C43">
-        <v>1292.56873839805</v>
+        <v>1295.32089141193</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1163.21226599625</v>
+        <v>1489.97726506028</v>
       </c>
       <c r="B44">
-        <v>203.111635083861</v>
+        <v>433.296749192741</v>
       </c>
       <c r="C44">
-        <v>4100.18287781041</v>
+        <v>4044.18519188769</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>926.605248209462</v>
+        <v>1221.00387334822</v>
       </c>
       <c r="B45">
-        <v>148.527135951737</v>
+        <v>330.920000591869</v>
       </c>
       <c r="C45">
-        <v>3479.26611822573</v>
+        <v>3449.67508948195</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3113.64428123194</v>
+        <v>3399.17056537665</v>
       </c>
       <c r="B46">
-        <v>503.86275283063</v>
+        <v>882.016335669046</v>
       </c>
       <c r="C46">
-        <v>12363.8119240916</v>
+        <v>10338.6735416134</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>613.607010036062</v>
+        <v>764.366083381857</v>
       </c>
       <c r="B47">
-        <v>209.265370101941</v>
+        <v>356.826577223443</v>
       </c>
       <c r="C47">
-        <v>1538.42763902366</v>
+        <v>1446.33617307504</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>526.027831607855</v>
+        <v>683.34146006558</v>
       </c>
       <c r="B48">
-        <v>179.86685382089</v>
+        <v>312.662587849388</v>
       </c>
       <c r="C48">
-        <v>1301.61116253218</v>
+        <v>1316.27376076381</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>836.515044508122</v>
+        <v>878.856750187295</v>
       </c>
       <c r="B49">
-        <v>287.149076036021</v>
+        <v>376.006629480617</v>
       </c>
       <c r="C49">
-        <v>2108.26260274357</v>
+        <v>1906.03879846418</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2184.03424571195</v>
+        <v>2633.0245444992</v>
       </c>
       <c r="B50">
-        <v>282.138150902632</v>
+        <v>614.75983262554</v>
       </c>
       <c r="C50">
-        <v>8807.62383416824</v>
+        <v>8147.63835206517</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1750.44363519252</v>
+        <v>2159.77973133145</v>
       </c>
       <c r="B51">
-        <v>205.961416362794</v>
+        <v>470.289294042584</v>
       </c>
       <c r="C51">
-        <v>7446.42720721157</v>
+        <v>6854.79409206963</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>6056.90423934859</v>
+        <v>6263.64113799418</v>
       </c>
       <c r="B52">
-        <v>708.242557683602</v>
+        <v>1282.15808782816</v>
       </c>
       <c r="C52">
-        <v>26875.1757475631</v>
+        <v>21741.2972925724</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>684.56242492959</v>
+        <v>802.297752071465</v>
       </c>
       <c r="B53">
-        <v>209.379207939017</v>
+        <v>353.660504352465</v>
       </c>
       <c r="C53">
-        <v>1823.06701407392</v>
+        <v>1600.83800303245</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>748.792719182059</v>
+        <v>888.968874555973</v>
       </c>
       <c r="B54">
-        <v>232.471944278107</v>
+        <v>387.409321423947</v>
       </c>
       <c r="C54">
-        <v>1970.59549357405</v>
+        <v>1825.60846670385</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1427.67762756978</v>
+        <v>1363.24340307407</v>
       </c>
       <c r="B55">
-        <v>442.948956969277</v>
+        <v>544.434635369856</v>
       </c>
       <c r="C55">
-        <v>3890.56540618858</v>
+        <v>3087.07458081915</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4359.70460142381</v>
+        <v>4983.89064691629</v>
       </c>
       <c r="B56">
-        <v>391.585581464594</v>
+        <v>900.291878706522</v>
       </c>
       <c r="C56">
-        <v>20189.4037968185</v>
+        <v>17527.0014017552</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>3515.72274011475</v>
+        <v>4101.93148900949</v>
       </c>
       <c r="B57">
-        <v>287.57091970355</v>
+        <v>688.344520098582</v>
       </c>
       <c r="C57">
-        <v>16624.2089752425</v>
+        <v>14810.2816484962</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>12537.3594294096</v>
+        <v>12359.843712229</v>
       </c>
       <c r="B58">
-        <v>997.616146614659</v>
+        <v>1896.37554217388</v>
       </c>
       <c r="C58">
-        <v>62417.0418905857</v>
+        <v>48494.6815077047</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>799.867907565221</v>
+        <v>871.725526214933</v>
       </c>
       <c r="B59">
-        <v>208.255679986977</v>
+        <v>347.35678258084</v>
       </c>
       <c r="C59">
-        <v>2370.22454867032</v>
+        <v>1909.92905555009</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1123.43062683079</v>
+        <v>1213.74877984301</v>
       </c>
       <c r="B60">
-        <v>299.207808641728</v>
+        <v>474.312091685097</v>
       </c>
       <c r="C60">
-        <v>3286.95589048212</v>
+        <v>2783.12497595604</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2600.38577161013</v>
+        <v>2253.47317449832</v>
       </c>
       <c r="B61">
-        <v>687.971920317582</v>
+        <v>805.854520341261</v>
       </c>
       <c r="C61">
-        <v>7820.84900847745</v>
+        <v>5582.221295425</v>
       </c>
     </row>
   </sheetData>

--- a/small_data/assemb_stat_summs.xlsx
+++ b/small_data/assemb_stat_summs.xlsx
@@ -381,662 +381,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>48.645430148515</v>
+        <v>35.4440079889191</v>
       </c>
       <c r="B2">
-        <v>42.4435327105241</v>
+        <v>28.6417387626457</v>
       </c>
       <c r="C2">
-        <v>55.1503952727259</v>
+        <v>42.9971192691649</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>42.3586415187199</v>
+        <v>30.7364179912161</v>
       </c>
       <c r="B3">
-        <v>36.3311174897751</v>
+        <v>24.7360981205719</v>
       </c>
       <c r="C3">
-        <v>48.6173334220442</v>
+        <v>37.4530049865448</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>45.1333747328831</v>
+        <v>34.1785746887117</v>
       </c>
       <c r="B4">
-        <v>39.150668466198</v>
+        <v>28.3781259593431</v>
       </c>
       <c r="C4">
-        <v>51.423279535053</v>
+        <v>40.5513031658156</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>45.30498650003</v>
+        <v>36.8597301063334</v>
       </c>
       <c r="B5">
-        <v>38.1751361910951</v>
+        <v>30.3196874048609</v>
       </c>
       <c r="C5">
-        <v>53.5182810349192</v>
+        <v>44.1737966899198</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>32.7289374105734</v>
+        <v>26.4133670682094</v>
       </c>
       <c r="B6">
-        <v>27.1192434350998</v>
+        <v>21.0036766649053</v>
       </c>
       <c r="C6">
-        <v>38.9146235766555</v>
+        <v>32.3787045232153</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>31.6175416244972</v>
+        <v>24.8465482008556</v>
       </c>
       <c r="B7">
-        <v>26.0291982832482</v>
+        <v>19.299024029879</v>
       </c>
       <c r="C7">
-        <v>37.756975033379</v>
+        <v>30.952493919246</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>45.4629028064398</v>
+        <v>33.7442696704925</v>
       </c>
       <c r="B8">
-        <v>40.0236609114272</v>
+        <v>28.2221573343124</v>
       </c>
       <c r="C8">
-        <v>51.184082094128</v>
+        <v>39.7505050070727</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>39.4643277386848</v>
+        <v>29.4850785400094</v>
       </c>
       <c r="B9">
-        <v>34.2448007819311</v>
+        <v>24.4794659915846</v>
       </c>
       <c r="C9">
-        <v>45.0160072666474</v>
+        <v>34.8704491012417</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>42.772775483259</v>
+        <v>33.1802114015457</v>
       </c>
       <c r="B10">
-        <v>37.7163409178822</v>
+        <v>28.2681085951219</v>
       </c>
       <c r="C10">
-        <v>48.1712385874034</v>
+        <v>38.4065937336488</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>43.0036924830096</v>
+        <v>35.0702364200718</v>
       </c>
       <c r="B11">
-        <v>36.9169583056643</v>
+        <v>29.4871194599371</v>
       </c>
       <c r="C11">
-        <v>49.9650044273941</v>
+        <v>41.1787965357727</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>31.6110260043746</v>
+        <v>25.8043561413791</v>
       </c>
       <c r="B12">
-        <v>26.6695254296871</v>
+        <v>21.0037755477572</v>
       </c>
       <c r="C12">
-        <v>37.0324656007928</v>
+        <v>30.9606639630864</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>31.1239647687682</v>
+        <v>24.7762742489199</v>
       </c>
       <c r="B13">
-        <v>26.2264632833815</v>
+        <v>19.9228179633955</v>
       </c>
       <c r="C13">
-        <v>36.4891228354749</v>
+        <v>30.0246746776126</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>42.6709062407817</v>
+        <v>32.6046457354945</v>
       </c>
       <c r="B14">
-        <v>37.7874487883177</v>
+        <v>27.924226185433</v>
       </c>
       <c r="C14">
-        <v>47.8527686230291</v>
+        <v>37.6436837084592</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>37.0957661879336</v>
+        <v>28.7425877294067</v>
       </c>
       <c r="B15">
-        <v>32.4075137553195</v>
+        <v>24.41672321695</v>
       </c>
       <c r="C15">
-        <v>42.1084657151917</v>
+        <v>33.3475237589982</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>40.9004965836108</v>
+        <v>32.5447939834547</v>
       </c>
       <c r="B16">
-        <v>36.4478084013822</v>
+        <v>28.2771592979037</v>
       </c>
       <c r="C16">
-        <v>45.6692111648976</v>
+        <v>37.0826636945036</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>40.8786649108249</v>
+        <v>33.4963592257928</v>
       </c>
       <c r="B17">
-        <v>35.7090938347764</v>
+        <v>28.700126957394</v>
       </c>
       <c r="C17">
-        <v>46.5928564273154</v>
+        <v>38.6399139384351</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>30.8563086063804</v>
+        <v>25.4889246896515</v>
       </c>
       <c r="B18">
-        <v>26.3825433521533</v>
+        <v>21.1978554989776</v>
       </c>
       <c r="C18">
-        <v>35.7370527173333</v>
+        <v>30.0251770171247</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>30.9225307634692</v>
+        <v>24.9410795997204</v>
       </c>
       <c r="B19">
-        <v>26.588441372927</v>
+        <v>20.6062629984459</v>
       </c>
       <c r="C19">
-        <v>35.6349069372876</v>
+        <v>29.5648037572763</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>40.5734178633162</v>
+        <v>31.9210201838177</v>
       </c>
       <c r="B20">
-        <v>36.0571480761202</v>
+        <v>27.6502903448027</v>
       </c>
       <c r="C20">
-        <v>45.5048614474203</v>
+        <v>36.4661984988161</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>35.4700585989764</v>
+        <v>28.3947547906416</v>
       </c>
       <c r="B21">
-        <v>31.220352882563</v>
+        <v>24.3163322213582</v>
       </c>
       <c r="C21">
-        <v>40.1440590201467</v>
+        <v>32.6187391146796</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>39.6242624715812</v>
+        <v>32.1918592555038</v>
       </c>
       <c r="B22">
-        <v>35.5248851983661</v>
+        <v>28.2012518249908</v>
       </c>
       <c r="C22">
-        <v>44.0573739816637</v>
+        <v>36.4375302545237</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>39.011554214906</v>
+        <v>32.1210392182902</v>
       </c>
       <c r="B23">
-        <v>34.6121772747911</v>
+        <v>27.8994752745295</v>
       </c>
       <c r="C23">
-        <v>43.8915497310656</v>
+        <v>36.5493477612652</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>30.55298026041</v>
+        <v>25.4637958645055</v>
       </c>
       <c r="B24">
-        <v>26.4741103370409</v>
+        <v>21.5650429388325</v>
       </c>
       <c r="C24">
-        <v>34.9672794991145</v>
+        <v>29.5616210529285</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>30.9936005367848</v>
+        <v>25.3112080426812</v>
       </c>
       <c r="B25">
-        <v>27.052600504254</v>
+        <v>21.3534300919986</v>
       </c>
       <c r="C25">
-        <v>35.233624539124</v>
+        <v>29.4196804264268</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>39.2964476036097</v>
+        <v>31.5919618556978</v>
       </c>
       <c r="B26">
-        <v>34.9105766187489</v>
+        <v>27.4551882083184</v>
       </c>
       <c r="C26">
-        <v>44.1503457860661</v>
+        <v>35.9507147885161</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>34.6331693780902</v>
+        <v>28.3439468804533</v>
       </c>
       <c r="B27">
-        <v>30.5514171528634</v>
+        <v>24.4088530333394</v>
       </c>
       <c r="C27">
-        <v>39.0921072133664</v>
+        <v>32.4539329240469</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>38.9213969938171</v>
+        <v>32.058594361938</v>
       </c>
       <c r="B28">
-        <v>34.9086337891342</v>
+        <v>28.1221467732172</v>
       </c>
       <c r="C28">
-        <v>43.2384569418193</v>
+        <v>36.2254403587006</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>37.4256142969785</v>
+        <v>30.915248359617</v>
       </c>
       <c r="B29">
-        <v>33.5750396730947</v>
+        <v>27.1723478119888</v>
       </c>
       <c r="C29">
-        <v>41.6275618342825</v>
+        <v>34.8061519099882</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>30.7088423646576</v>
+        <v>25.6960834251591</v>
       </c>
       <c r="B30">
-        <v>26.9447123201417</v>
+        <v>22.1262417204875</v>
       </c>
       <c r="C30">
-        <v>34.7202681497718</v>
+        <v>29.4254745858546</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>31.2921156699205</v>
+        <v>25.8559170111135</v>
       </c>
       <c r="B31">
-        <v>27.7059478010858</v>
+        <v>22.2310976693596</v>
       </c>
       <c r="C31">
-        <v>35.1972607304246</v>
+        <v>29.6083709352985</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>38.7463726267623</v>
+        <v>31.5330008727814</v>
       </c>
       <c r="B32">
-        <v>34.3129296048895</v>
+        <v>27.2873000562514</v>
       </c>
       <c r="C32">
-        <v>43.6858395251718</v>
+        <v>35.9563457401118</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>34.4426749315322</v>
+        <v>28.5106716041971</v>
       </c>
       <c r="B33">
-        <v>30.3148619614493</v>
+        <v>24.4610727353425</v>
       </c>
       <c r="C33">
-        <v>38.9145312369024</v>
+        <v>32.7031678763686</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>38.6715064067617</v>
+        <v>32.0898649077006</v>
       </c>
       <c r="B34">
-        <v>34.5205025465929</v>
+        <v>28.0352023404294</v>
       </c>
       <c r="C34">
-        <v>43.1093803716902</v>
+        <v>36.3540898011874</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>36.0822458710367</v>
+        <v>29.8538203060195</v>
       </c>
       <c r="B35">
-        <v>32.5569534354856</v>
+        <v>26.4335017447103</v>
       </c>
       <c r="C35">
-        <v>39.837905550095</v>
+        <v>33.4190287411986</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>31.2734419709439</v>
+        <v>26.1336851164059</v>
       </c>
       <c r="B36">
-        <v>27.7424716462716</v>
+        <v>22.7884511065096</v>
       </c>
       <c r="C36">
-        <v>34.9513463719911</v>
+        <v>29.6330697876812</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>31.8259681048607</v>
+        <v>26.5488393209764</v>
       </c>
       <c r="B37">
-        <v>28.466031111168</v>
+        <v>23.1806499155062</v>
       </c>
       <c r="C37">
-        <v>35.5311830225698</v>
+        <v>30.1049339414594</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>38.7130307824273</v>
+        <v>31.6672892778822</v>
       </c>
       <c r="B38">
-        <v>34.0385251632935</v>
+        <v>27.2163022383051</v>
       </c>
       <c r="C38">
-        <v>43.7996475471027</v>
+        <v>36.4082649695929</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>34.7018461940408</v>
+        <v>28.8299751973028</v>
       </c>
       <c r="B39">
-        <v>30.3756284326965</v>
+        <v>24.5475787668108</v>
       </c>
       <c r="C39">
-        <v>39.4396987108893</v>
+        <v>33.2920741396721</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>38.7340384706039</v>
+        <v>32.2378840546284</v>
       </c>
       <c r="B40">
-        <v>34.296829813375</v>
+        <v>27.9743444493828</v>
       </c>
       <c r="C40">
-        <v>43.4168808223169</v>
+        <v>36.8100963336438</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>34.9505026718928</v>
+        <v>28.934099698213</v>
       </c>
       <c r="B41">
-        <v>31.5752525985757</v>
+        <v>25.6871246189999</v>
       </c>
       <c r="C41">
-        <v>38.4693285596481</v>
+        <v>32.3512192395403</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>32.1639677164427</v>
+        <v>26.7220785136113</v>
       </c>
       <c r="B42">
-        <v>28.8375803777855</v>
+        <v>23.4865024639743</v>
       </c>
       <c r="C42">
-        <v>35.6607802727767</v>
+        <v>30.1255896941763</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>32.6312022384449</v>
+        <v>27.3643095126679</v>
       </c>
       <c r="B43">
-        <v>29.3421668474675</v>
+        <v>24.1171212247128</v>
       </c>
       <c r="C43">
-        <v>36.1640522674895</v>
+        <v>30.8270329267768</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>38.9909272258668</v>
+        <v>31.9282403742409</v>
       </c>
       <c r="B44">
-        <v>33.9484471044093</v>
+        <v>27.1684462191481</v>
       </c>
       <c r="C44">
-        <v>44.4449607432815</v>
+        <v>37.003764984158</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>35.2321359759116</v>
+        <v>29.2479755073539</v>
       </c>
       <c r="B45">
-        <v>30.6080880629791</v>
+        <v>24.6436883596148</v>
       </c>
       <c r="C45">
-        <v>40.3157372386303</v>
+        <v>34.1023044685782</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>38.9905434318543</v>
+        <v>32.4637711804736</v>
       </c>
       <c r="B46">
-        <v>34.2073395391549</v>
+        <v>27.8689469519886</v>
       </c>
       <c r="C46">
-        <v>44.0044032487102</v>
+        <v>37.3983122880721</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>34.0581441899354</v>
+        <v>28.1721069374907</v>
       </c>
       <c r="B47">
-        <v>30.694431216036</v>
+        <v>24.913660061531</v>
       </c>
       <c r="C47">
-        <v>37.5739725552274</v>
+        <v>31.6205650357998</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>33.2866860437639</v>
+        <v>27.4155920110082</v>
       </c>
       <c r="B48">
-        <v>29.9844161706153</v>
+        <v>24.1161744768249</v>
       </c>
       <c r="C48">
-        <v>36.7872180621851</v>
+        <v>30.8545259491832</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>33.6984373889617</v>
+        <v>28.2719389648447</v>
       </c>
       <c r="B49">
-        <v>30.4334582323029</v>
+        <v>24.9909084002563</v>
       </c>
       <c r="C49">
-        <v>37.2538416550633</v>
+        <v>31.6988315141618</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>39.4300794306916</v>
+        <v>32.2644513507962</v>
       </c>
       <c r="B50">
-        <v>34.0047088772609</v>
+        <v>27.09702607641</v>
       </c>
       <c r="C50">
-        <v>45.2930762701262</v>
+        <v>37.7766824484929</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>35.8984328476926</v>
+        <v>29.7220935077296</v>
       </c>
       <c r="B51">
-        <v>30.8727580567527</v>
+        <v>24.7689261239558</v>
       </c>
       <c r="C51">
-        <v>41.3927991897243</v>
+        <v>35.034902089818</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>39.3573529060877</v>
+        <v>32.7384797805374</v>
       </c>
       <c r="B52">
-        <v>34.2275818568551</v>
+        <v>27.7938760003206</v>
       </c>
       <c r="C52">
-        <v>44.8155110743185</v>
+        <v>38.1108955523963</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>33.4541680649387</v>
+        <v>27.5781678140623</v>
       </c>
       <c r="B53">
-        <v>29.9288531841703</v>
+        <v>24.2002591461787</v>
       </c>
       <c r="C53">
-        <v>37.2049597292162</v>
+        <v>31.1474811739352</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>34.5621307432204</v>
+        <v>28.1802240175111</v>
       </c>
       <c r="B54">
-        <v>30.9957484305762</v>
+        <v>24.680367166381</v>
       </c>
       <c r="C54">
-        <v>38.3765373551644</v>
+        <v>31.8642972623655</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>34.9549015379005</v>
+        <v>29.2342781069137</v>
       </c>
       <c r="B55">
-        <v>31.4412238311133</v>
+        <v>25.821580235345</v>
       </c>
       <c r="C55">
-        <v>38.6731593212958</v>
+        <v>32.7959562268466</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>39.9361647075636</v>
+        <v>32.6394629668353</v>
       </c>
       <c r="B56">
-        <v>34.1565240454626</v>
+        <v>27.0772376402201</v>
       </c>
       <c r="C56">
-        <v>46.2647756115912</v>
+        <v>38.6195161770508</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>36.6125315939536</v>
+        <v>30.2212709151394</v>
       </c>
       <c r="B57">
-        <v>31.1948486606599</v>
+        <v>24.8796145175253</v>
       </c>
       <c r="C57">
-        <v>42.5412253852669</v>
+        <v>35.9552154542355</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>39.7780443210318</v>
+        <v>33.0407286148305</v>
       </c>
       <c r="B58">
-        <v>34.2665074879438</v>
+        <v>27.7214587797666</v>
       </c>
       <c r="C58">
-        <v>45.6848531155561</v>
+        <v>38.8294215089868</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>33.1468689283401</v>
+        <v>27.1435320186925</v>
       </c>
       <c r="B59">
-        <v>29.2989346123619</v>
+        <v>23.6087847936138</v>
       </c>
       <c r="C59">
-        <v>37.3446051876515</v>
+        <v>30.9653639057147</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>35.9226469518654</v>
+        <v>28.9905773202117</v>
       </c>
       <c r="B60">
-        <v>31.9374813446729</v>
+        <v>25.1813828949172</v>
       </c>
       <c r="C60">
-        <v>40.2011120841505</v>
+        <v>33.0326642978607</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>36.3003836343733</v>
+        <v>30.2125664692857</v>
       </c>
       <c r="B61">
-        <v>32.4210647482224</v>
+        <v>26.5730740017273</v>
       </c>
       <c r="C61">
-        <v>40.4874077410447</v>
+        <v>34.0948680024312</v>
       </c>
     </row>
   </sheetData>
@@ -1065,662 +1065,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.61616651727554</v>
+        <v>2.21478810897448</v>
       </c>
       <c r="B2">
-        <v>1.69147360881792</v>
+        <v>1.34422892882236</v>
       </c>
       <c r="C2">
-        <v>3.27943324456602</v>
+        <v>2.90391720705524</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>2.50733128025613</v>
+        <v>2.12408210084101</v>
       </c>
       <c r="B3">
-        <v>1.56358430050723</v>
+        <v>1.23622231648004</v>
       </c>
       <c r="C3">
-        <v>3.20580094207702</v>
+        <v>2.8325828977196</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>2.35913163699695</v>
+        <v>2.06193031741498</v>
       </c>
       <c r="B4">
-        <v>1.48238049092326</v>
+        <v>1.25144517581208</v>
       </c>
       <c r="C4">
-        <v>2.95788981820839</v>
+        <v>2.66709922267727</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.94694950890282</v>
+        <v>1.8014535281308</v>
       </c>
       <c r="B5">
-        <v>1.10869847041788</v>
+        <v>0.951341557065075</v>
       </c>
       <c r="C5">
-        <v>2.54204137070523</v>
+        <v>2.4287937072053</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.95606242377371</v>
+        <v>1.8149278088306</v>
       </c>
       <c r="B6">
-        <v>1.11981153365626</v>
+        <v>0.9546785062415</v>
       </c>
       <c r="C6">
-        <v>2.5324301378375</v>
+        <v>2.43516868645056</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.66158259030165</v>
+        <v>1.92541256472011</v>
       </c>
       <c r="B7">
-        <v>0.343427464787449</v>
+        <v>0.576646605292052</v>
       </c>
       <c r="C7">
-        <v>2.67013442513156</v>
+        <v>2.66370461483842</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>2.38309595150828</v>
+        <v>2.07715475127423</v>
       </c>
       <c r="B8">
-        <v>1.52415366327921</v>
+        <v>1.2969991733957</v>
       </c>
       <c r="C8">
-        <v>3.07756411213576</v>
+        <v>2.72424771733904</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2.27501447573647</v>
+        <v>1.99395022743747</v>
       </c>
       <c r="B9">
-        <v>1.39359878989083</v>
+        <v>1.19617052265637</v>
       </c>
       <c r="C9">
-        <v>2.99452878138832</v>
+        <v>2.66693321298608</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>2.22585524550402</v>
+        <v>1.98336551191309</v>
       </c>
       <c r="B10">
-        <v>1.43083870770528</v>
+        <v>1.23893206306382</v>
       </c>
       <c r="C10">
-        <v>2.79036624548728</v>
+        <v>2.54263395286158</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.93023189079441</v>
+        <v>1.78621671859072</v>
       </c>
       <c r="B11">
-        <v>1.16385703903022</v>
+        <v>1.01619635710574</v>
       </c>
       <c r="C11">
-        <v>2.49943732079433</v>
+        <v>2.37763688526574</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.96771339973955</v>
+        <v>1.82132761835398</v>
       </c>
       <c r="B12">
-        <v>1.2187458198359</v>
+        <v>1.03407551359161</v>
       </c>
       <c r="C12">
-        <v>2.49334777934507</v>
+        <v>2.4054378277771</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.77967246271319</v>
+        <v>1.98522787916843</v>
       </c>
       <c r="B13">
-        <v>0.494750787118287</v>
+        <v>0.775671730068759</v>
       </c>
       <c r="C13">
-        <v>2.67483812320494</v>
+        <v>2.62788625721644</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2.18102416826304</v>
+        <v>1.96820764139639</v>
       </c>
       <c r="B14">
-        <v>1.40482938054918</v>
+        <v>1.27023585614667</v>
       </c>
       <c r="C14">
-        <v>2.84717315384114</v>
+        <v>2.57106112128321</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>2.0873565208198</v>
+        <v>1.89542446935539</v>
       </c>
       <c r="B15">
-        <v>1.28603859675631</v>
+        <v>1.16666748983888</v>
       </c>
       <c r="C15">
-        <v>2.77359314247376</v>
+        <v>2.52119936642012</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2.11917513886037</v>
+        <v>1.92083234904714</v>
       </c>
       <c r="B16">
-        <v>1.38322178871958</v>
+        <v>1.22962747281608</v>
       </c>
       <c r="C16">
-        <v>2.65530939878475</v>
+        <v>2.44253707939969</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.89450895598792</v>
+        <v>1.76987148927326</v>
       </c>
       <c r="B17">
-        <v>1.20976122262477</v>
+        <v>1.08065342682285</v>
       </c>
       <c r="C17">
-        <v>2.43200000170589</v>
+        <v>2.31530527006724</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.96375558121473</v>
+        <v>1.82206620083273</v>
       </c>
       <c r="B18">
-        <v>1.27876538181648</v>
+        <v>1.10231034535799</v>
       </c>
       <c r="C18">
-        <v>2.46016398556685</v>
+        <v>2.3663740251663</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.90454171615347</v>
+        <v>2.0295111013306</v>
       </c>
       <c r="B19">
-        <v>0.760353626884064</v>
+        <v>1.01103910109935</v>
       </c>
       <c r="C19">
-        <v>2.62958320178027</v>
+        <v>2.58058952922394</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2.04174575580975</v>
+        <v>1.89069241731519</v>
       </c>
       <c r="B20">
-        <v>1.33589972017286</v>
+        <v>1.26115770318493</v>
       </c>
       <c r="C20">
-        <v>2.66049178376695</v>
+        <v>2.45045566904131</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.96232860449042</v>
+        <v>1.82716830140713</v>
       </c>
       <c r="B21">
-        <v>1.22708710663097</v>
+        <v>1.15588273581744</v>
       </c>
       <c r="C21">
-        <v>2.60292242033958</v>
+        <v>2.41710359669599</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2.03909089371501</v>
+        <v>1.87239492827104</v>
       </c>
       <c r="B22">
-        <v>1.35018936163063</v>
+        <v>1.22146417884825</v>
       </c>
       <c r="C22">
-        <v>2.55280868761597</v>
+        <v>2.36632385326059</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.86048101069268</v>
+        <v>1.75759220780124</v>
       </c>
       <c r="B23">
-        <v>1.2553732342019</v>
+        <v>1.1527107900134</v>
       </c>
       <c r="C23">
-        <v>2.35523600779895</v>
+        <v>2.25721166256422</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.95113532881668</v>
+        <v>1.82000468002401</v>
       </c>
       <c r="B24">
-        <v>1.33544358150016</v>
+        <v>1.17303115321995</v>
       </c>
       <c r="C24">
-        <v>2.42268268072837</v>
+        <v>2.33566911943241</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2.02992528609675</v>
+        <v>2.06646066469784</v>
       </c>
       <c r="B25">
-        <v>1.11314748643776</v>
+        <v>1.23032609163098</v>
       </c>
       <c r="C25">
-        <v>2.59008353270302</v>
+        <v>2.53603488634765</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.95138725915466</v>
+        <v>1.83655325211722</v>
       </c>
       <c r="B26">
-        <v>1.2940241228381</v>
+        <v>1.24767208145475</v>
       </c>
       <c r="C26">
-        <v>2.52422660406831</v>
+        <v>2.3595208737586</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.88311864476932</v>
+        <v>1.78054620459815</v>
       </c>
       <c r="B27">
-        <v>1.19005903019576</v>
+        <v>1.1534176736737</v>
       </c>
       <c r="C27">
-        <v>2.48129725248503</v>
+        <v>2.33339583546079</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.97622974259319</v>
+        <v>1.83258354512983</v>
       </c>
       <c r="B28">
-        <v>1.30367341351902</v>
+        <v>1.19882065556405</v>
       </c>
       <c r="C28">
-        <v>2.47097800251374</v>
+        <v>2.31052972814606</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.83670321050275</v>
+        <v>1.74997647117423</v>
       </c>
       <c r="B29">
-        <v>1.30507727376854</v>
+        <v>1.21321263861057</v>
       </c>
       <c r="C29">
-        <v>2.29065280138147</v>
+        <v>2.21130385120668</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.93679360476243</v>
+        <v>1.81772216407362</v>
       </c>
       <c r="B30">
-        <v>1.39163396551268</v>
+        <v>1.2333346971911</v>
       </c>
       <c r="C30">
-        <v>2.38057027029016</v>
+        <v>2.30225291590777</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2.13037994937738</v>
+        <v>2.09127253657734</v>
       </c>
       <c r="B31">
-        <v>1.42961532168315</v>
+        <v>1.37161841339224</v>
       </c>
       <c r="C31">
-        <v>2.56407555297835</v>
+        <v>2.50205424549152</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.89013691723175</v>
+        <v>1.79593589497058</v>
       </c>
       <c r="B32">
-        <v>1.2448741080599</v>
+        <v>1.22296484398209</v>
       </c>
       <c r="C32">
-        <v>2.44662007090625</v>
+        <v>2.29817571634958</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.83062807856479</v>
+        <v>1.74618414928064</v>
       </c>
       <c r="B33">
-        <v>1.15271957640586</v>
+        <v>1.13953539267721</v>
       </c>
       <c r="C33">
-        <v>2.41282498580867</v>
+        <v>2.28425317964418</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.9206311756672</v>
+        <v>1.79527723884661</v>
       </c>
       <c r="B34">
-        <v>1.24318984495372</v>
+        <v>1.16056404092734</v>
       </c>
       <c r="C34">
-        <v>2.42016734824988</v>
+        <v>2.26955015633776</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.82207023779783</v>
+        <v>1.74463284049493</v>
       </c>
       <c r="B35">
-        <v>1.34131241494729</v>
+        <v>1.2514128790245</v>
       </c>
       <c r="C35">
-        <v>2.2439697805336</v>
+        <v>2.1763530764695</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.92427245392151</v>
+        <v>1.8155387072862</v>
       </c>
       <c r="B36">
-        <v>1.43863253559093</v>
+        <v>1.28889718778639</v>
       </c>
       <c r="C36">
-        <v>2.34321790051052</v>
+        <v>2.26877305050327</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>2.18668770350825</v>
+        <v>2.09847435977803</v>
       </c>
       <c r="B37">
-        <v>1.61491543655093</v>
+        <v>1.4380062108914</v>
       </c>
       <c r="C37">
-        <v>2.54838135820366</v>
+        <v>2.4813524499744</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.84206211696384</v>
+        <v>1.75997080391152</v>
       </c>
       <c r="B38">
-        <v>1.1840383681168</v>
+        <v>1.1736657230862</v>
       </c>
       <c r="C38">
-        <v>2.39619719927658</v>
+        <v>2.26342507489518</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.78996513938258</v>
+        <v>1.71575761340256</v>
       </c>
       <c r="B39">
-        <v>1.09868693677045</v>
+        <v>1.10269865980899</v>
       </c>
       <c r="C39">
-        <v>2.36620802186213</v>
+        <v>2.24669432103547</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.86457826013265</v>
+        <v>1.75530847380832</v>
       </c>
       <c r="B40">
-        <v>1.14844065796216</v>
+        <v>1.10320283627619</v>
       </c>
       <c r="C40">
-        <v>2.38113696310849</v>
+        <v>2.24340329410898</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.81206759895823</v>
+        <v>1.73817122012258</v>
       </c>
       <c r="B41">
-        <v>1.3529044493185</v>
+        <v>1.26526878356429</v>
       </c>
       <c r="C41">
-        <v>2.21633297926847</v>
+        <v>2.16056218784344</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1.91331568949712</v>
+        <v>1.81099917675057</v>
       </c>
       <c r="B42">
-        <v>1.45305602317762</v>
+        <v>1.30389853471787</v>
       </c>
       <c r="C42">
-        <v>2.31675760372197</v>
+        <v>2.24468146326667</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2.19768178343052</v>
+        <v>2.08676677600908</v>
       </c>
       <c r="B43">
-        <v>1.64275245977188</v>
+        <v>1.44122012951046</v>
       </c>
       <c r="C43">
-        <v>2.53142238127688</v>
+        <v>2.4605402579494</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1.7964416053589</v>
+        <v>1.72213152281914</v>
       </c>
       <c r="B44">
-        <v>1.09170626521083</v>
+        <v>1.0946222075604</v>
       </c>
       <c r="C44">
-        <v>2.3704882562516</v>
+        <v>2.23656728735461</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1.75102229725203</v>
+        <v>1.68307488973241</v>
       </c>
       <c r="B45">
-        <v>1.01810801564673</v>
+        <v>1.04130240501218</v>
       </c>
       <c r="C45">
-        <v>2.34283319949568</v>
+        <v>2.22277930710136</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1.8036053216303</v>
+        <v>1.7094505925531</v>
       </c>
       <c r="B46">
-        <v>1.02592259416622</v>
+        <v>0.992370852845686</v>
       </c>
       <c r="C46">
-        <v>2.34659447511992</v>
+        <v>2.22581291468564</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>1.80260122213845</v>
+        <v>1.72762178118189</v>
       </c>
       <c r="B47">
-        <v>1.32272214288555</v>
+        <v>1.22938593749109</v>
       </c>
       <c r="C47">
-        <v>2.21472820004308</v>
+        <v>2.1584509782901</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>1.90163671842017</v>
+        <v>1.80016457267129</v>
       </c>
       <c r="B48">
-        <v>1.41746156668748</v>
+        <v>1.27889197814796</v>
       </c>
       <c r="C48">
-        <v>2.30914752356029</v>
+        <v>2.23468080336222</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>2.17440018136644</v>
+        <v>2.05745999145496</v>
       </c>
       <c r="B49">
-        <v>1.60238056496878</v>
+        <v>1.3967305767163</v>
       </c>
       <c r="C49">
-        <v>2.51292709875146</v>
+        <v>2.43671691919219</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>1.7471431130616</v>
+        <v>1.67880034447385</v>
       </c>
       <c r="B50">
-        <v>0.957368223515351</v>
+        <v>0.98288694880118</v>
       </c>
       <c r="C50">
-        <v>2.34518007624359</v>
+        <v>2.22534662870844</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>1.70788383617837</v>
+        <v>1.64462455028164</v>
       </c>
       <c r="B51">
-        <v>0.913023335804127</v>
+        <v>0.939140248482108</v>
       </c>
       <c r="C51">
-        <v>2.31826340906091</v>
+        <v>2.21138486177325</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>1.73626419940531</v>
+        <v>1.65663055450475</v>
       </c>
       <c r="B52">
-        <v>0.877436384271592</v>
+        <v>0.863823808471351</v>
       </c>
       <c r="C52">
-        <v>2.3162394672061</v>
+        <v>2.20787859157032</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>1.79136098320821</v>
+        <v>1.71119025223128</v>
       </c>
       <c r="B53">
-        <v>1.2580966969671</v>
+        <v>1.15509102118657</v>
       </c>
       <c r="C53">
-        <v>2.23389140093727</v>
+        <v>2.16806460544671</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1.88711198512717</v>
+        <v>1.77967857466363</v>
       </c>
       <c r="B54">
-        <v>1.33882586483079</v>
+        <v>1.18476016514914</v>
       </c>
       <c r="C54">
-        <v>2.32190910416718</v>
+        <v>2.23938740911985</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>2.1281222796127</v>
+        <v>2.01213619747473</v>
       </c>
       <c r="B55">
-        <v>1.51903966404325</v>
+        <v>1.30998441712738</v>
       </c>
       <c r="C55">
-        <v>2.49217512095956</v>
+        <v>2.41239698922911</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>1.69144284363533</v>
+        <v>1.62882841446106</v>
       </c>
       <c r="B56">
-        <v>0.817250108900909</v>
+        <v>0.846220993134012</v>
       </c>
       <c r="C56">
-        <v>2.31899782647161</v>
+        <v>2.21238918589044</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>1.65777382651482</v>
+        <v>1.59923877252877</v>
       </c>
       <c r="B57">
-        <v>0.79425013190148</v>
+        <v>0.811513942913703</v>
       </c>
       <c r="C57">
-        <v>2.29628610547176</v>
+        <v>2.19470245099729</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>1.66311222510226</v>
+        <v>1.59741334051864</v>
       </c>
       <c r="B58">
-        <v>0.709878018879008</v>
+        <v>0.727711502123373</v>
       </c>
       <c r="C58">
-        <v>2.28256078629077</v>
+        <v>2.1924179639517</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>1.77775595093877</v>
+        <v>1.68827848624133</v>
       </c>
       <c r="B59">
-        <v>1.16055218830059</v>
+        <v>1.04484244952564</v>
       </c>
       <c r="C59">
-        <v>2.26546677495049</v>
+        <v>2.18392829409051</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1.86881674394386</v>
+        <v>1.74819164399197</v>
       </c>
       <c r="B60">
-        <v>1.21968131973113</v>
+        <v>1.04739248330512</v>
       </c>
       <c r="C60">
-        <v>2.34317942068922</v>
+        <v>2.25136091074074</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2.06540287342718</v>
+        <v>1.95215014208703</v>
       </c>
       <c r="B61">
-        <v>1.37201711629699</v>
+        <v>1.16964783050552</v>
       </c>
       <c r="C61">
-        <v>2.46939431409082</v>
+        <v>2.384598100716</v>
       </c>
     </row>
   </sheetData>
@@ -1749,662 +1749,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.67366584352564</v>
+        <v>0.62140562100479</v>
       </c>
       <c r="B2">
-        <v>0.438159786269659</v>
+        <v>0.379859574876597</v>
       </c>
       <c r="C2">
-        <v>0.83847417543699</v>
+        <v>0.805506179827746</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.669625744918013</v>
+        <v>0.620936778529885</v>
       </c>
       <c r="B3">
-        <v>0.418413428217337</v>
+        <v>0.364974292228906</v>
       </c>
       <c r="C3">
-        <v>0.851894233431382</v>
+        <v>0.82379972817426</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.619537157215983</v>
+        <v>0.584383671118118</v>
       </c>
       <c r="B4">
-        <v>0.390216193916507</v>
+        <v>0.357032754152635</v>
       </c>
       <c r="C4">
-        <v>0.772488381695612</v>
+        <v>0.749053494350159</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.511048779178387</v>
+        <v>0.499949596786411</v>
       </c>
       <c r="B5">
-        <v>0.292795657135619</v>
+        <v>0.266392871622861</v>
       </c>
       <c r="C5">
-        <v>0.666135617810741</v>
+        <v>0.670498804610952</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.56141893548092</v>
+        <v>0.555306082443026</v>
       </c>
       <c r="B6">
-        <v>0.322293125012775</v>
+        <v>0.293006075334208</v>
       </c>
       <c r="C6">
-        <v>0.724335213982856</v>
+        <v>0.739519918262209</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.481781619453838</v>
+        <v>0.601015531686225</v>
       </c>
       <c r="B7">
-        <v>0.0995411198166363</v>
+        <v>0.180315986398769</v>
       </c>
       <c r="C7">
-        <v>0.768786250180609</v>
+        <v>0.82568398656057</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.624500681141347</v>
+        <v>0.590766412734961</v>
       </c>
       <c r="B8">
-        <v>0.400322738085351</v>
+        <v>0.37223601628311</v>
       </c>
       <c r="C8">
-        <v>0.802734094068785</v>
+        <v>0.770052138651046</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.619254266241489</v>
+        <v>0.589844672086193</v>
       </c>
       <c r="B9">
-        <v>0.379984116513742</v>
+        <v>0.355517851429354</v>
       </c>
       <c r="C9">
-        <v>0.811450768458785</v>
+        <v>0.785151976809504</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.59286947279821</v>
+        <v>0.566735705125506</v>
       </c>
       <c r="B10">
-        <v>0.382037527965062</v>
+        <v>0.354350631999556</v>
       </c>
       <c r="C10">
-        <v>0.741097271708487</v>
+        <v>0.722684075649861</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.513596144342527</v>
+        <v>0.5025419857818</v>
       </c>
       <c r="B11">
-        <v>0.311085317688466</v>
+        <v>0.288507844164486</v>
       </c>
       <c r="C11">
-        <v>0.663419551738199</v>
+        <v>0.665489200912554</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.570376056507265</v>
+        <v>0.561075336600962</v>
       </c>
       <c r="B12">
-        <v>0.352961062813922</v>
+        <v>0.320255452414519</v>
       </c>
       <c r="C12">
-        <v>0.720919319277686</v>
+        <v>0.73441224359198</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.518228771063183</v>
+        <v>0.619714041075721</v>
       </c>
       <c r="B13">
-        <v>0.145714386020477</v>
+        <v>0.241461793145416</v>
       </c>
       <c r="C13">
-        <v>0.775386532565923</v>
+        <v>0.813740265514007</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.5812084499028</v>
+        <v>0.565224356662684</v>
       </c>
       <c r="B14">
-        <v>0.376945998445625</v>
+        <v>0.366873928390648</v>
       </c>
       <c r="C14">
-        <v>0.754734797711553</v>
+        <v>0.735071678311467</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.577906198684008</v>
+        <v>0.564851133087628</v>
       </c>
       <c r="B15">
-        <v>0.356461229241059</v>
+        <v>0.349769176348089</v>
       </c>
       <c r="C15">
-        <v>0.764232478890549</v>
+        <v>0.748200227093824</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.57124777299696</v>
+        <v>0.551846093436959</v>
       </c>
       <c r="B16">
-        <v>0.374294021664343</v>
+        <v>0.353999068083194</v>
       </c>
       <c r="C16">
-        <v>0.714819927774082</v>
+        <v>0.697798846431792</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.510892132198362</v>
+        <v>0.50437401163916</v>
       </c>
       <c r="B17">
-        <v>0.326329352714809</v>
+        <v>0.309909884603059</v>
       </c>
       <c r="C17">
-        <v>0.654013093221508</v>
+        <v>0.657705992230281</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.573177578650423</v>
+        <v>0.563306117473979</v>
       </c>
       <c r="B18">
-        <v>0.371555328673286</v>
+        <v>0.342922375584215</v>
       </c>
       <c r="C18">
-        <v>0.715486592912265</v>
+        <v>0.728660957120297</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.555497072240307</v>
+        <v>0.631875330238093</v>
       </c>
       <c r="B19">
-        <v>0.222614725749055</v>
+        <v>0.315352577078006</v>
       </c>
       <c r="C19">
-        <v>0.765307856272391</v>
+        <v>0.796781409965054</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.551522928869028</v>
+        <v>0.546266434556115</v>
       </c>
       <c r="B20">
-        <v>0.362378430241893</v>
+        <v>0.365364855346102</v>
       </c>
       <c r="C20">
-        <v>0.715782339687221</v>
+        <v>0.706150749507189</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.550119577104675</v>
+        <v>0.546454212465282</v>
       </c>
       <c r="B21">
-        <v>0.344734948615078</v>
+        <v>0.348207786673737</v>
       </c>
       <c r="C21">
-        <v>0.725652675664269</v>
+        <v>0.719837271082858</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.55439231065938</v>
+        <v>0.539599907136022</v>
       </c>
       <c r="B22">
-        <v>0.367717067628589</v>
+        <v>0.352135131633182</v>
       </c>
       <c r="C22">
-        <v>0.692197070255268</v>
+        <v>0.678823377460503</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.508051935552421</v>
+        <v>0.506874771282703</v>
       </c>
       <c r="B23">
-        <v>0.342370845975913</v>
+        <v>0.332857636141867</v>
       </c>
       <c r="C23">
-        <v>0.642732282815231</v>
+        <v>0.650067243364738</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.571075040832044</v>
+        <v>0.562740072800167</v>
       </c>
       <c r="B24">
-        <v>0.390592931371863</v>
+        <v>0.36409671812923</v>
       </c>
       <c r="C24">
-        <v>0.706751307536832</v>
+        <v>0.718713693929673</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.591572727033304</v>
+        <v>0.640214690260289</v>
       </c>
       <c r="B25">
-        <v>0.326117589319252</v>
+        <v>0.379411686804455</v>
       </c>
       <c r="C25">
-        <v>0.752487723659655</v>
+        <v>0.779994255507168</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.531731437379108</v>
+        <v>0.53223476686144</v>
       </c>
       <c r="B26">
-        <v>0.352912012809332</v>
+        <v>0.362463594007376</v>
       </c>
       <c r="C26">
-        <v>0.685836311249505</v>
+        <v>0.681062726759988</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.531478128255781</v>
+        <v>0.532803904809275</v>
       </c>
       <c r="B27">
-        <v>0.336956840118355</v>
+        <v>0.346348154862437</v>
       </c>
       <c r="C27">
-        <v>0.696817992207307</v>
+        <v>0.697913565535695</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.53993437814169</v>
+        <v>0.528771805615032</v>
       </c>
       <c r="B28">
-        <v>0.357259950869453</v>
+        <v>0.346099353849303</v>
       </c>
       <c r="C28">
-        <v>0.674176391933468</v>
+        <v>0.664078737252961</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.507263355857528</v>
+        <v>0.510277404061933</v>
       </c>
       <c r="B29">
-        <v>0.361764224335757</v>
+        <v>0.355155602933843</v>
       </c>
       <c r="C29">
-        <v>0.630855649162441</v>
+        <v>0.642842404090291</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.565962396823313</v>
+        <v>0.560375856183938</v>
       </c>
       <c r="B30">
-        <v>0.407182387100196</v>
+        <v>0.38309804563071</v>
       </c>
       <c r="C30">
-        <v>0.694695516155773</v>
+        <v>0.707150635322893</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.619061683864779</v>
+        <v>0.643520864442575</v>
       </c>
       <c r="B31">
-        <v>0.417338752993821</v>
+        <v>0.421094647763059</v>
       </c>
       <c r="C31">
-        <v>0.742335184900922</v>
+        <v>0.766489666714536</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.517053893001105</v>
+        <v>0.520788296206166</v>
       </c>
       <c r="B32">
-        <v>0.341249623297773</v>
+        <v>0.355419644455497</v>
       </c>
       <c r="C32">
-        <v>0.667394158946683</v>
+        <v>0.665568578686334</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.517484022042677</v>
+        <v>0.521644539309695</v>
       </c>
       <c r="B33">
-        <v>0.326629636412706</v>
+        <v>0.341238288510632</v>
       </c>
       <c r="C33">
-        <v>0.678896178919836</v>
+        <v>0.681258523825484</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.525685523891832</v>
+        <v>0.517897089736942</v>
       </c>
       <c r="B34">
-        <v>0.341345230755316</v>
+        <v>0.336831900512715</v>
       </c>
       <c r="C34">
-        <v>0.662577892125451</v>
+        <v>0.652652538638942</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.508332118493915</v>
+        <v>0.51394367350917</v>
       </c>
       <c r="B35">
-        <v>0.374526476680567</v>
+        <v>0.370763432282728</v>
       </c>
       <c r="C35">
-        <v>0.624236413030377</v>
+        <v>0.639472827021747</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.559254656293093</v>
+        <v>0.556739891115319</v>
       </c>
       <c r="B36">
-        <v>0.418609464216012</v>
+        <v>0.397128486372708</v>
       </c>
       <c r="C36">
-        <v>0.681117597906874</v>
+        <v>0.694835380594413</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.632283405462626</v>
+        <v>0.640450650986462</v>
       </c>
       <c r="B37">
-        <v>0.466020201088884</v>
+        <v>0.440204928530307</v>
       </c>
       <c r="C37">
-        <v>0.73548330914514</v>
+        <v>0.753893202097417</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.504053268237225</v>
+        <v>0.509791008982312</v>
       </c>
       <c r="B38">
-        <v>0.325475349103096</v>
+        <v>0.340384572589114</v>
       </c>
       <c r="C38">
-        <v>0.654814288799511</v>
+        <v>0.654897764358966</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.504944156607372</v>
+        <v>0.510915752220175</v>
       </c>
       <c r="B39">
-        <v>0.311491694842721</v>
+        <v>0.328448856665803</v>
       </c>
       <c r="C39">
-        <v>0.665902266821693</v>
+        <v>0.667967703758923</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.510144302723257</v>
+        <v>0.505746264578484</v>
       </c>
       <c r="B40">
-        <v>0.314006624127184</v>
+        <v>0.31710367183872</v>
       </c>
       <c r="C40">
-        <v>0.650295584191504</v>
+        <v>0.645204745283052</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.510070610453449</v>
+        <v>0.516810039064857</v>
       </c>
       <c r="B41">
-        <v>0.380915256996152</v>
+        <v>0.376634265051866</v>
       </c>
       <c r="C41">
-        <v>0.622987034494971</v>
+        <v>0.641211979554171</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.551515173313255</v>
+        <v>0.551546567855772</v>
       </c>
       <c r="B42">
-        <v>0.419031436341817</v>
+        <v>0.398022903018141</v>
       </c>
       <c r="C42">
-        <v>0.667641019857889</v>
+        <v>0.682334705617531</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.630886917275271</v>
+        <v>0.631019331479592</v>
       </c>
       <c r="B43">
-        <v>0.471974867279547</v>
+        <v>0.435233857631849</v>
       </c>
       <c r="C43">
-        <v>0.727195955787497</v>
+        <v>0.74221145489531</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.490645620016504</v>
+        <v>0.497720540525546</v>
       </c>
       <c r="B44">
-        <v>0.299203167649107</v>
+        <v>0.318008219491558</v>
       </c>
       <c r="C44">
-        <v>0.644978059473717</v>
+        <v>0.647159401272975</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.491888606217912</v>
+        <v>0.499121450824593</v>
       </c>
       <c r="B45">
-        <v>0.287254593001299</v>
+        <v>0.309180114343618</v>
       </c>
       <c r="C45">
-        <v>0.65543918831441</v>
+        <v>0.658235612393636</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.492606302662971</v>
+        <v>0.491606099243487</v>
       </c>
       <c r="B46">
-        <v>0.280737925823225</v>
+        <v>0.287329061025067</v>
       </c>
       <c r="C46">
-        <v>0.639349213740074</v>
+        <v>0.639320720928387</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.511133239762051</v>
+        <v>0.5178038068953</v>
       </c>
       <c r="B47">
-        <v>0.376223458278044</v>
+        <v>0.369364714033628</v>
       </c>
       <c r="C47">
-        <v>0.627382867261774</v>
+        <v>0.64597219660704</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.542756940717462</v>
+        <v>0.543995483208232</v>
       </c>
       <c r="B48">
-        <v>0.405311942400697</v>
+        <v>0.387082631389314</v>
       </c>
       <c r="C48">
-        <v>0.657956351267577</v>
+        <v>0.674008822776251</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.61849091537372</v>
+        <v>0.61607954188832</v>
       </c>
       <c r="B49">
-        <v>0.456517709285913</v>
+        <v>0.417813676964568</v>
       </c>
       <c r="C49">
-        <v>0.7159482132386</v>
+        <v>0.727955961341743</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.475763464922951</v>
+        <v>0.483815542773231</v>
       </c>
       <c r="B50">
-        <v>0.262429179102142</v>
+        <v>0.284465866982715</v>
       </c>
       <c r="C50">
-        <v>0.636718895897116</v>
+        <v>0.640314186169241</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.477299476734224</v>
+        <v>0.485493094818182</v>
       </c>
       <c r="B51">
-        <v>0.255475469425652</v>
+        <v>0.276175782988626</v>
       </c>
       <c r="C51">
-        <v>0.645747997504566</v>
+        <v>0.652351096053034</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.473042453234198</v>
+        <v>0.475333527070604</v>
       </c>
       <c r="B52">
-        <v>0.238758843141152</v>
+        <v>0.249055908011403</v>
       </c>
       <c r="C52">
-        <v>0.629675329559333</v>
+        <v>0.632337793734708</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.510556841928045</v>
+        <v>0.516213895036761</v>
       </c>
       <c r="B53">
-        <v>0.359725708659935</v>
+        <v>0.348222067631609</v>
       </c>
       <c r="C53">
-        <v>0.635051240644045</v>
+        <v>0.653574291883374</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.532902602386065</v>
+        <v>0.533390109557574</v>
       </c>
       <c r="B54">
-        <v>0.377535720983521</v>
+        <v>0.355438061544375</v>
       </c>
       <c r="C54">
-        <v>0.654506906855972</v>
+        <v>0.668756558236247</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.599113870647766</v>
+        <v>0.596558975053047</v>
       </c>
       <c r="B55">
-        <v>0.428882685458904</v>
+        <v>0.389417599192908</v>
       </c>
       <c r="C55">
-        <v>0.7025593101098</v>
+        <v>0.714323346121275</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.459038575680644</v>
+        <v>0.467945036433218</v>
       </c>
       <c r="B56">
-        <v>0.22346045962784</v>
+        <v>0.24377608466599</v>
       </c>
       <c r="C56">
-        <v>0.628308847544886</v>
+        <v>0.634639295941111</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.460801997407627</v>
+        <v>0.469881110092751</v>
       </c>
       <c r="B57">
-        <v>0.220643233088165</v>
+        <v>0.238842811929169</v>
       </c>
       <c r="C57">
-        <v>0.637056359522764</v>
+        <v>0.645029251593985</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.451844057514474</v>
+        <v>0.457210982473572</v>
       </c>
       <c r="B58">
-        <v>0.193862553793908</v>
+        <v>0.209985311057244</v>
       </c>
       <c r="C58">
-        <v>0.61870889655705</v>
+        <v>0.626405115904471</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.508055347583879</v>
+        <v>0.511811591994579</v>
       </c>
       <c r="B59">
-        <v>0.331851634852848</v>
+        <v>0.317206699711432</v>
       </c>
       <c r="C59">
-        <v>0.645802355067211</v>
+        <v>0.660668776514186</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.522080760986085</v>
+        <v>0.519580341238922</v>
       </c>
       <c r="B60">
-        <v>0.342024910727111</v>
+        <v>0.310298262457834</v>
       </c>
       <c r="C60">
-        <v>0.653462898974711</v>
+        <v>0.667598262336611</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.575386298320044</v>
+        <v>0.57323591126299</v>
       </c>
       <c r="B61">
-        <v>0.382859916271374</v>
+        <v>0.343561656204146</v>
       </c>
       <c r="C61">
-        <v>0.687632600036338</v>
+        <v>0.700143734452174</v>
       </c>
     </row>
   </sheetData>
@@ -2433,662 +2433,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>6.6770476660194</v>
+        <v>2.86139067600464</v>
       </c>
       <c r="B2">
-        <v>4.64933065469366</v>
+        <v>0.989179557342077</v>
       </c>
       <c r="C2">
-        <v>8.68822700786465</v>
+        <v>5.16453668376205</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5.72898753454484</v>
+        <v>2.25405492656602</v>
       </c>
       <c r="B3">
-        <v>3.77174093232353</v>
+        <v>0.662015538239151</v>
       </c>
       <c r="C3">
-        <v>7.72089943090536</v>
+        <v>4.28535111332284</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5.1299632980299</v>
+        <v>2.07090548766872</v>
       </c>
       <c r="B4">
-        <v>3.22738380022433</v>
+        <v>0.552355565690545</v>
       </c>
       <c r="C4">
-        <v>7.14531117025702</v>
+        <v>3.96708095151602</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3.34826789299913</v>
+        <v>1.66543973137527</v>
       </c>
       <c r="B5">
-        <v>1.43097068318345</v>
+        <v>0.272749863380091</v>
       </c>
       <c r="C5">
-        <v>5.66488134344733</v>
+        <v>3.62504387665975</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2.20501885108858</v>
+        <v>1.09462843380406</v>
       </c>
       <c r="B6">
-        <v>0.822782272943569</v>
+        <v>0.13469553515361</v>
       </c>
       <c r="C6">
-        <v>3.93122396648271</v>
+        <v>2.62295650046211</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>3.73226681840202</v>
+        <v>1.94136355101303</v>
       </c>
       <c r="B7">
-        <v>2.19220250868419</v>
+        <v>0.400940189551216</v>
       </c>
       <c r="C7">
-        <v>5.60914465151922</v>
+        <v>3.73614428115019</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5.23872572783256</v>
+        <v>2.08101787703018</v>
       </c>
       <c r="B8">
-        <v>3.5199614482474</v>
+        <v>0.660632207983745</v>
       </c>
       <c r="C8">
-        <v>7.06738235035884</v>
+        <v>3.86551787322801</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>4.34679757750124</v>
+        <v>1.59915411441337</v>
       </c>
       <c r="B9">
-        <v>2.72306920612633</v>
+        <v>0.428290131114341</v>
       </c>
       <c r="C9">
-        <v>6.1270724143109</v>
+        <v>3.15955097438598</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3.90840028191953</v>
+        <v>1.49740753502699</v>
       </c>
       <c r="B10">
-        <v>2.2781302087495</v>
+        <v>0.355058485014433</v>
       </c>
       <c r="C10">
-        <v>5.69080300520564</v>
+        <v>3.02622270456045</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>2.66591417634536</v>
+        <v>1.24938107014952</v>
       </c>
       <c r="B11">
-        <v>1.11080734793407</v>
+        <v>0.203889066767068</v>
       </c>
       <c r="C11">
-        <v>4.55213655298246</v>
+        <v>2.81805238218344</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.73734167393993</v>
+        <v>0.812287476726611</v>
       </c>
       <c r="B12">
-        <v>0.626137554687506</v>
+        <v>0.101028145338651</v>
       </c>
       <c r="C12">
-        <v>3.1421608989114</v>
+        <v>2.05583707425389</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>3.23477446307899</v>
+        <v>1.59426635473863</v>
       </c>
       <c r="B13">
-        <v>1.88576171410705</v>
+        <v>0.267401834746696</v>
       </c>
       <c r="C13">
-        <v>4.79428374985485</v>
+        <v>3.1283542204312</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>3.83515665561814</v>
+        <v>1.47036404047484</v>
       </c>
       <c r="B14">
-        <v>2.39144845768917</v>
+        <v>0.428706643876184</v>
       </c>
       <c r="C14">
-        <v>5.4745711233487</v>
+        <v>2.851586320182</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>3.05140750302857</v>
+        <v>1.09606284065412</v>
       </c>
       <c r="B15">
-        <v>1.71715073137932</v>
+        <v>0.272187737441313</v>
       </c>
       <c r="C15">
-        <v>4.64060669545092</v>
+        <v>2.30590124048542</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>2.787336992029</v>
+        <v>1.04983918182017</v>
       </c>
       <c r="B16">
-        <v>1.43031303955868</v>
+        <v>0.230896877497717</v>
       </c>
       <c r="C16">
-        <v>4.36834899900319</v>
+        <v>2.30035020426253</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>2.03923584340155</v>
+        <v>0.907947904950284</v>
       </c>
       <c r="B17">
-        <v>0.823092288421445</v>
+        <v>0.151983938333763</v>
       </c>
       <c r="C17">
-        <v>3.5667825722931</v>
+        <v>2.14369626983455</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.33729075456835</v>
+        <v>0.590556859627301</v>
       </c>
       <c r="B18">
-        <v>0.470060332244601</v>
+        <v>0.0798753981580536</v>
       </c>
       <c r="C18">
-        <v>2.47747150918516</v>
+        <v>1.56465644292375</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>2.79130636932271</v>
+        <v>1.29168455517596</v>
       </c>
       <c r="B19">
-        <v>1.58462460206386</v>
+        <v>0.179002370447652</v>
       </c>
       <c r="C19">
-        <v>4.1562597877366</v>
+        <v>2.64683531592657</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>2.62698362785637</v>
+        <v>1.01209528076062</v>
       </c>
       <c r="B20">
-        <v>1.41798694466381</v>
+        <v>0.270642254557129</v>
       </c>
       <c r="C20">
-        <v>4.10558933715711</v>
+        <v>2.11864662734114</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>2.00642279866553</v>
+        <v>0.731396374674338</v>
       </c>
       <c r="B21">
-        <v>0.96543416352061</v>
+        <v>0.16796905720295</v>
       </c>
       <c r="C21">
-        <v>3.35283730566629</v>
+        <v>1.67835365475517</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.91300009472492</v>
+        <v>0.725823790835306</v>
       </c>
       <c r="B22">
-        <v>0.838833340220805</v>
+        <v>0.145065381447059</v>
       </c>
       <c r="C22">
-        <v>3.31466384562318</v>
+        <v>1.73615037845069</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.51026999243641</v>
+        <v>0.645027807714399</v>
       </c>
       <c r="B23">
-        <v>0.599899858768894</v>
+        <v>0.110783951057464</v>
       </c>
       <c r="C23">
-        <v>2.72646854079082</v>
+        <v>1.60468557559956</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.02716257552352</v>
+        <v>0.429232242990228</v>
       </c>
       <c r="B24">
-        <v>0.363185197288755</v>
+        <v>0.0630926530346527</v>
       </c>
       <c r="C24">
-        <v>1.98072846819467</v>
+        <v>1.19366045055728</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2.36303231483887</v>
+        <v>1.01980525734043</v>
       </c>
       <c r="B25">
-        <v>1.23784929823455</v>
+        <v>0.119050098218371</v>
       </c>
       <c r="C25">
-        <v>3.61978678529497</v>
+        <v>2.23668052564644</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.75856004736513</v>
+        <v>0.695129963735762</v>
       </c>
       <c r="B26">
-        <v>0.805443388462732</v>
+        <v>0.167110568330511</v>
       </c>
       <c r="C26">
-        <v>3.05317919850275</v>
+        <v>1.60156516514314</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.31128027028232</v>
+        <v>0.492523680520635</v>
       </c>
       <c r="B27">
-        <v>0.538254338479859</v>
+        <v>0.102011793217527</v>
       </c>
       <c r="C27">
-        <v>2.42424862223326</v>
+        <v>1.24371406648333</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.33053013377998</v>
+        <v>0.513067694814142</v>
       </c>
       <c r="B28">
-        <v>0.489562992906266</v>
+        <v>0.089019100027238</v>
       </c>
       <c r="C28">
-        <v>2.54229088519852</v>
+        <v>1.36017048694106</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.10965647856028</v>
+        <v>0.458220034467836</v>
       </c>
       <c r="B29">
-        <v>0.434033882076403</v>
+        <v>0.0813786892226327</v>
       </c>
       <c r="C29">
-        <v>2.07421825938755</v>
+        <v>1.19707701483083</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.813366897717127</v>
+        <v>0.322086466528554</v>
       </c>
       <c r="B30">
-        <v>0.285425470144377</v>
+        <v>0.0512740414073838</v>
       </c>
       <c r="C30">
-        <v>1.62095750061036</v>
+        <v>0.944180630023532</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.90913497239703</v>
+        <v>0.774623116240377</v>
       </c>
       <c r="B31">
-        <v>0.813153516752467</v>
+        <v>0.0804835885945133</v>
       </c>
       <c r="C31">
-        <v>3.12680983406911</v>
+        <v>1.89233831666364</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.22652605331167</v>
+        <v>0.496865219201176</v>
       </c>
       <c r="B32">
-        <v>0.475447151665258</v>
+        <v>0.101813882106368</v>
       </c>
       <c r="C32">
-        <v>2.33867930276356</v>
+        <v>1.2693789145122</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.906603026794914</v>
+        <v>0.349917224214941</v>
       </c>
       <c r="B33">
-        <v>0.314263228992658</v>
+        <v>0.0614944759453683</v>
       </c>
       <c r="C33">
-        <v>1.82159104275118</v>
+        <v>0.981872580446366</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.977680864895053</v>
+        <v>0.383936193643915</v>
       </c>
       <c r="B34">
-        <v>0.302900612094841</v>
+        <v>0.0552998160886372</v>
       </c>
       <c r="C34">
-        <v>2.0402993645826</v>
+        <v>1.13098954561753</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.834271517401955</v>
+        <v>0.33489402603594</v>
       </c>
       <c r="B35">
-        <v>0.318198194271701</v>
+        <v>0.0588004399780835</v>
       </c>
       <c r="C35">
-        <v>1.61800320766654</v>
+        <v>0.930805422433618</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.684111548935491</v>
+        <v>0.257685972867171</v>
       </c>
       <c r="B36">
-        <v>0.236640443737777</v>
+        <v>0.0408568121732156</v>
       </c>
       <c r="C36">
-        <v>1.39590330472601</v>
+        <v>0.791309167334621</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.46376554035715</v>
+        <v>0.569833623717627</v>
       </c>
       <c r="B37">
-        <v>0.488409224581167</v>
+        <v>0.0538490416800336</v>
       </c>
       <c r="C37">
-        <v>2.67808265121196</v>
+        <v>1.56306182093522</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.930013262106256</v>
+        <v>0.382086883705501</v>
       </c>
       <c r="B38">
-        <v>0.300913599197353</v>
+        <v>0.0626155500840701</v>
       </c>
       <c r="C38">
-        <v>1.92889233800699</v>
+        <v>1.09113396822306</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.68761827532537</v>
+        <v>0.270191328578205</v>
       </c>
       <c r="B39">
-        <v>0.202134475966861</v>
+        <v>0.0381174431613547</v>
       </c>
       <c r="C39">
-        <v>1.51088438721356</v>
+        <v>0.853665259198179</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.776356607259145</v>
+        <v>0.310176926669034</v>
       </c>
       <c r="B40">
-        <v>0.19331371484089</v>
+        <v>0.0345700028531074</v>
       </c>
       <c r="C40">
-        <v>1.77731224475423</v>
+        <v>1.0313886090942</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.658436962676311</v>
+        <v>0.257794765735784</v>
       </c>
       <c r="B41">
-        <v>0.236434345303522</v>
+        <v>0.042249914069552</v>
       </c>
       <c r="C41">
-        <v>1.33426521226114</v>
+        <v>0.768176993751764</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.62278651156719</v>
+        <v>0.224779232295412</v>
       </c>
       <c r="B42">
-        <v>0.205231956653093</v>
+        <v>0.0336437791408064</v>
       </c>
       <c r="C42">
-        <v>1.30949205642966</v>
+        <v>0.726598150382301</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.10001366636816</v>
+        <v>0.41946821814551</v>
       </c>
       <c r="B43">
-        <v>0.300600044736272</v>
+        <v>0.0361166637985275</v>
       </c>
       <c r="C43">
-        <v>2.26095122442601</v>
+        <v>1.28596792149376</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.7767626098483</v>
+        <v>0.32033720836618</v>
       </c>
       <c r="B44">
-        <v>0.208247917760128</v>
+        <v>0.0402238851823166</v>
       </c>
       <c r="C44">
-        <v>1.73176937051966</v>
+        <v>1.02172162455947</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.578033315431432</v>
+        <v>0.229047527032498</v>
       </c>
       <c r="B45">
-        <v>0.136849347322123</v>
+        <v>0.0244198540655189</v>
       </c>
       <c r="C45">
-        <v>1.39766925948083</v>
+        <v>0.815881336975074</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.669441867638474</v>
+        <v>0.271421905898836</v>
       </c>
       <c r="B46">
-        <v>0.131365199385843</v>
+        <v>0.0219224925610667</v>
       </c>
       <c r="C46">
-        <v>1.65845678977863</v>
+        <v>1.00484835006254</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.554247317008636</v>
+        <v>0.211929326578279</v>
       </c>
       <c r="B47">
-        <v>0.178913820063854</v>
+        <v>0.0306615402220056</v>
       </c>
       <c r="C47">
-        <v>1.18504853583714</v>
+        <v>0.673151579292392</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.616595431317567</v>
+        <v>0.215560772350407</v>
       </c>
       <c r="B48">
-        <v>0.184928356768514</v>
+        <v>0.0273202965054676</v>
       </c>
       <c r="C48">
-        <v>1.34092121173582</v>
+        <v>0.7394223910724</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.849412773792169</v>
+        <v>0.322649126204168</v>
       </c>
       <c r="B49">
-        <v>0.194046286412964</v>
+        <v>0.0243289421212653</v>
       </c>
       <c r="C49">
-        <v>1.92503965506636</v>
+        <v>1.10718700786012</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.707532234428299</v>
+        <v>0.291524261781841</v>
       </c>
       <c r="B50">
-        <v>0.146831034086331</v>
+        <v>0.0263474929141361</v>
       </c>
       <c r="C50">
-        <v>1.70067871079495</v>
+        <v>1.03508532437474</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.532952606538334</v>
+        <v>0.211840240962545</v>
       </c>
       <c r="B51">
-        <v>0.0959984274180122</v>
+        <v>0.0160483925867569</v>
       </c>
       <c r="C51">
-        <v>1.39452713458239</v>
+        <v>0.843105727372458</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.620686200105424</v>
+        <v>0.254901482889477</v>
       </c>
       <c r="B52">
-        <v>0.0910662494037956</v>
+        <v>0.0140513984117485</v>
       </c>
       <c r="C52">
-        <v>1.64462509777547</v>
+        <v>1.03602413721586</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.500755718744667</v>
+        <v>0.186981370584967</v>
       </c>
       <c r="B53">
-        <v>0.140744332081162</v>
+        <v>0.0222155609765017</v>
       </c>
       <c r="C53">
-        <v>1.14553296189806</v>
+        <v>0.656171544015624</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.656946822476537</v>
+        <v>0.225695967172252</v>
       </c>
       <c r="B54">
-        <v>0.170324766244593</v>
+        <v>0.022493790660064</v>
       </c>
       <c r="C54">
-        <v>1.46533760328972</v>
+        <v>0.828147689795999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.699942081409754</v>
+        <v>0.268574674653767</v>
       </c>
       <c r="B55">
-        <v>0.133347184342736</v>
+        <v>0.0167222818756232</v>
       </c>
       <c r="C55">
-        <v>1.70885323861765</v>
+        <v>1.01849098668058</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.687022668548515</v>
+        <v>0.283383514929531</v>
       </c>
       <c r="B56">
-        <v>0.107732466685928</v>
+        <v>0.0175913560120714</v>
       </c>
       <c r="C56">
-        <v>1.75058146553703</v>
+        <v>1.08815727474414</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.526321391976657</v>
+        <v>0.210051475797786</v>
       </c>
       <c r="B57">
-        <v>0.0702287917023965</v>
+        <v>0.0105315584782521</v>
       </c>
       <c r="C57">
-        <v>1.46570350145327</v>
+        <v>0.923445508738542</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.607631321112561</v>
+        <v>0.252786612792834</v>
       </c>
       <c r="B58">
-        <v>0.0661350340455516</v>
+        <v>0.00956555303141232</v>
       </c>
       <c r="C58">
-        <v>1.69007766540352</v>
+        <v>1.07188348826116</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.484103777682347</v>
+        <v>0.176625979438774</v>
       </c>
       <c r="B59">
-        <v>0.11079210236708</v>
+        <v>0.0162367843461207</v>
       </c>
       <c r="C59">
-        <v>1.20555985798479</v>
+        <v>0.691659871556892</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.735098883593475</v>
+        <v>0.252687464106719</v>
       </c>
       <c r="B60">
-        <v>0.163107395797032</v>
+        <v>0.0189767939485082</v>
       </c>
       <c r="C60">
-        <v>1.6884227158017</v>
+        <v>0.957471590489222</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.626107546775631</v>
+        <v>0.245366486166998</v>
       </c>
       <c r="B61">
-        <v>0.095501984492788</v>
+        <v>0.0117198464015264</v>
       </c>
       <c r="C61">
-        <v>1.62971380306221</v>
+        <v>1.01803867877385</v>
       </c>
     </row>
   </sheetData>
@@ -3117,662 +3117,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>24.2773659176214</v>
+        <v>19.5296634533063</v>
       </c>
       <c r="B2">
-        <v>20.6850810750472</v>
+        <v>15.6771445967612</v>
       </c>
       <c r="C2">
-        <v>28.0032451293513</v>
+        <v>23.6587226238408</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>21.1777562238834</v>
+        <v>17.1002487973916</v>
       </c>
       <c r="B3">
-        <v>17.6896401713512</v>
+        <v>13.5135954917225</v>
       </c>
       <c r="C3">
-        <v>24.7915481021195</v>
+        <v>20.8994596804738</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>23.6881870395971</v>
+        <v>19.7512058897248</v>
       </c>
       <c r="B4">
-        <v>20.4956484152401</v>
+        <v>16.2733130251164</v>
       </c>
       <c r="C4">
-        <v>27.075316111278</v>
+        <v>23.375145110673</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>25.9356870879773</v>
+        <v>22.0617715902131</v>
       </c>
       <c r="B5">
-        <v>22.1959343422078</v>
+        <v>18.2729140109224</v>
       </c>
       <c r="C5">
-        <v>29.9903149527216</v>
+        <v>26.0091507647561</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>18.218463485605</v>
+        <v>15.1600549702874</v>
       </c>
       <c r="B6">
-        <v>14.7612679995916</v>
+        <v>11.5718836677696</v>
       </c>
       <c r="C6">
-        <v>21.9332224792749</v>
+        <v>19.0639773082325</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>15.1546837744487</v>
+        <v>12.4583101191572</v>
       </c>
       <c r="B7">
-        <v>11.6920051826908</v>
+        <v>9.06315432510717</v>
       </c>
       <c r="C7">
-        <v>18.9667195668965</v>
+        <v>16.2609669464247</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>23.573146816437</v>
+        <v>19.2341225120612</v>
       </c>
       <c r="B8">
-        <v>20.3821715571727</v>
+        <v>15.8595101578063</v>
       </c>
       <c r="C8">
-        <v>26.8259003825945</v>
+        <v>22.7520451686682</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>20.5628810132013</v>
+        <v>16.9324884977432</v>
       </c>
       <c r="B9">
-        <v>17.4243053389927</v>
+        <v>13.7422353486677</v>
       </c>
       <c r="C9">
-        <v>23.7803129947781</v>
+        <v>20.2868668181005</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>23.2832466835441</v>
+        <v>19.6740462538721</v>
       </c>
       <c r="B10">
-        <v>20.4822308288789</v>
+        <v>16.5483602077722</v>
       </c>
       <c r="C10">
-        <v>26.2494293009727</v>
+        <v>22.8495939239141</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>25.1238909667088</v>
+        <v>21.3211733626318</v>
       </c>
       <c r="B11">
-        <v>21.8150779785119</v>
+        <v>17.8833180081707</v>
       </c>
       <c r="C11">
-        <v>28.6831107759269</v>
+        <v>24.8132659804351</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>18.0201469139369</v>
+        <v>15.1119225805748</v>
       </c>
       <c r="B12">
-        <v>14.8199678963004</v>
+        <v>11.7843258294546</v>
       </c>
       <c r="C12">
-        <v>21.4533265371963</v>
+        <v>18.6689983584504</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>15.3509183135135</v>
+        <v>12.756846034739</v>
       </c>
       <c r="B13">
-        <v>12.1647091215354</v>
+        <v>9.56375451383994</v>
       </c>
       <c r="C13">
-        <v>18.8354545196937</v>
+        <v>16.2665758104433</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>23.0579924890403</v>
+        <v>19.1155441661003</v>
       </c>
       <c r="B14">
-        <v>20.1661789650538</v>
+        <v>16.0506886995749</v>
       </c>
       <c r="C14">
-        <v>25.9927223825482</v>
+        <v>22.2193543789303</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>20.1943303021272</v>
+        <v>16.9339981580713</v>
       </c>
       <c r="B15">
-        <v>17.3463130015761</v>
+        <v>13.9847030968836</v>
       </c>
       <c r="C15">
-        <v>23.1415269296439</v>
+        <v>19.9686576706737</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>23.0498578609343</v>
+        <v>19.680695445782</v>
       </c>
       <c r="B16">
-        <v>20.5235550031213</v>
+        <v>16.7807102770268</v>
       </c>
       <c r="C16">
-        <v>25.6942978443135</v>
+        <v>22.5943949631956</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>24.3253882444112</v>
+        <v>20.6078257688933</v>
       </c>
       <c r="B17">
-        <v>21.3718881759696</v>
+        <v>17.4825273891061</v>
       </c>
       <c r="C17">
-        <v>27.4558192347568</v>
+        <v>23.7505041493128</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>17.9629578086601</v>
+        <v>15.176848782457</v>
       </c>
       <c r="B18">
-        <v>14.9620344642882</v>
+        <v>12.1163537547545</v>
       </c>
       <c r="C18">
-        <v>21.1555256766012</v>
+        <v>18.4571671939402</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>15.7169206575541</v>
+        <v>13.193556774361</v>
       </c>
       <c r="B19">
-        <v>12.7287326397578</v>
+        <v>10.1761901906578</v>
       </c>
       <c r="C19">
-        <v>18.9812620402235</v>
+        <v>16.4723487354527</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>22.7614905930656</v>
+        <v>19.1084014162916</v>
       </c>
       <c r="B20">
-        <v>20.0566803516859</v>
+        <v>16.2308228201944</v>
       </c>
       <c r="C20">
-        <v>25.4993260110042</v>
+        <v>22.0161442131428</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>20.0480438111291</v>
+        <v>17.0367487027559</v>
       </c>
       <c r="B21">
-        <v>17.3475459722802</v>
+        <v>14.2369741192562</v>
       </c>
       <c r="C21">
-        <v>22.840017075655</v>
+        <v>19.8723457090099</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>22.9121864527462</v>
+        <v>19.7192888900545</v>
       </c>
       <c r="B22">
-        <v>20.4945811046402</v>
+        <v>16.9126702398238</v>
       </c>
       <c r="C22">
-        <v>25.4004148901621</v>
+        <v>22.4865090439214</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>23.5380047016534</v>
+        <v>19.8999333052879</v>
       </c>
       <c r="B23">
-        <v>20.8894262758735</v>
+        <v>17.010311226214</v>
       </c>
       <c r="C23">
-        <v>26.3182385656434</v>
+        <v>22.7687932240431</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>18.0755096478889</v>
+        <v>15.3505923831459</v>
       </c>
       <c r="B24">
-        <v>15.2605043291785</v>
+        <v>12.4962415062395</v>
       </c>
       <c r="C24">
-        <v>21.05379209609</v>
+        <v>18.372312622094</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>16.2504071982765</v>
+        <v>13.7526141685809</v>
       </c>
       <c r="B25">
-        <v>13.4566800681402</v>
+        <v>10.9010492479728</v>
       </c>
       <c r="C25">
-        <v>19.2367329605667</v>
+        <v>16.7918582726376</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>22.6122195713661</v>
+        <v>19.1545726556566</v>
       </c>
       <c r="B26">
-        <v>19.946458413179</v>
+        <v>16.329738580014</v>
       </c>
       <c r="C26">
-        <v>25.3617563247095</v>
+        <v>21.9864974492087</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>20.0413362986641</v>
+        <v>17.1872583168822</v>
       </c>
       <c r="B27">
-        <v>17.3646808676736</v>
+        <v>14.4153627553511</v>
       </c>
       <c r="C27">
-        <v>22.7578373614283</v>
+        <v>20.0046570616357</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>22.8182006630429</v>
+        <v>19.7635262939259</v>
       </c>
       <c r="B28">
-        <v>20.3830754204962</v>
+        <v>16.9493983796907</v>
       </c>
       <c r="C28">
-        <v>25.3846544070585</v>
+        <v>22.5466686308656</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>22.735095555531</v>
+        <v>19.1801091462067</v>
       </c>
       <c r="B29">
-        <v>20.2721396442692</v>
+        <v>16.5060932839792</v>
       </c>
       <c r="C29">
-        <v>25.2533749053865</v>
+        <v>21.8828866146153</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>18.3519273974613</v>
+        <v>15.6165863905783</v>
       </c>
       <c r="B30">
-        <v>15.7187562595663</v>
+        <v>12.9518859145792</v>
       </c>
       <c r="C30">
-        <v>21.1099060597459</v>
+        <v>18.4256209390297</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>16.9270632818797</v>
+        <v>14.403554159027</v>
       </c>
       <c r="B31">
-        <v>14.3003709337335</v>
+        <v>11.7043591773941</v>
       </c>
       <c r="C31">
-        <v>19.6621832735436</v>
+        <v>17.2287392382078</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>22.5549686769703</v>
+        <v>19.2278679135746</v>
       </c>
       <c r="B32">
-        <v>19.7897813747909</v>
+        <v>16.3311448032084</v>
       </c>
       <c r="C32">
-        <v>25.4229744724323</v>
+        <v>22.148302372497</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>20.1261917580954</v>
+        <v>17.3636645680977</v>
       </c>
       <c r="B33">
-        <v>17.3976118667303</v>
+        <v>14.4998674408662</v>
       </c>
       <c r="C33">
-        <v>22.9074285847951</v>
+        <v>20.236454685966</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>22.7611138574514</v>
+        <v>19.8101546447521</v>
       </c>
       <c r="B34">
-        <v>20.1755442955976</v>
+        <v>16.9406354991299</v>
       </c>
       <c r="C34">
-        <v>25.502784164763</v>
+        <v>22.6633152629375</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>21.8854093232899</v>
+        <v>18.4525680108467</v>
       </c>
       <c r="B35">
-        <v>19.5237128155036</v>
+        <v>15.9247877020184</v>
       </c>
       <c r="C35">
-        <v>24.2762534045549</v>
+        <v>21.0218312592977</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>18.7661317184032</v>
+        <v>15.9512962509671</v>
       </c>
       <c r="B36">
-        <v>16.2940002582935</v>
+        <v>13.4534983516519</v>
       </c>
       <c r="C36">
-        <v>21.3407070149724</v>
+        <v>18.581428689939</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>17.7020959470544</v>
+        <v>15.1038884344744</v>
       </c>
       <c r="B37">
-        <v>15.2384850502995</v>
+        <v>12.5097893968406</v>
       </c>
       <c r="C37">
-        <v>20.2760909874639</v>
+        <v>17.7843700193717</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>22.5703929038491</v>
+        <v>19.3231314705154</v>
       </c>
       <c r="B38">
-        <v>19.6569954634501</v>
+        <v>16.2811945396722</v>
       </c>
       <c r="C38">
-        <v>25.6649971113957</v>
+        <v>22.4417841211929</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>20.2844666541962</v>
+        <v>17.5610681470993</v>
       </c>
       <c r="B39">
-        <v>17.4431335374997</v>
+        <v>14.579717765127</v>
       </c>
       <c r="C39">
-        <v>23.1975338030638</v>
+        <v>20.5737024533614</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>22.7482751270636</v>
+        <v>19.8645393885522</v>
       </c>
       <c r="B40">
-        <v>19.9727738876525</v>
+        <v>16.878994341957</v>
       </c>
       <c r="C40">
-        <v>25.7198181994789</v>
+        <v>22.8673112066931</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>21.0057592260266</v>
+        <v>17.7513003293973</v>
       </c>
       <c r="B41">
-        <v>18.6474520622954</v>
+        <v>15.3161983906391</v>
       </c>
       <c r="C41">
-        <v>23.3805163931368</v>
+        <v>20.251774597878</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>19.2765773636365</v>
+        <v>16.3316103346868</v>
       </c>
       <c r="B42">
-        <v>16.9075068736359</v>
+        <v>13.9068653361982</v>
       </c>
       <c r="C42">
-        <v>21.752653018809</v>
+        <v>18.8953768461071</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>18.5248500323755</v>
+        <v>15.815076033483</v>
       </c>
       <c r="B43">
-        <v>16.1690251028805</v>
+        <v>13.3088530344675</v>
       </c>
       <c r="C43">
-        <v>20.9805723355371</v>
+        <v>18.4170388396938</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>22.6453620492894</v>
+        <v>19.4385414618343</v>
       </c>
       <c r="B44">
-        <v>19.5460290053162</v>
+        <v>16.2143356804961</v>
       </c>
       <c r="C44">
-        <v>26.0745969403319</v>
+        <v>22.7501026331014</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>20.4988460782226</v>
+        <v>17.7752640718273</v>
       </c>
       <c r="B45">
-        <v>17.5152311708356</v>
+        <v>14.6482293599742</v>
       </c>
       <c r="C45">
-        <v>23.6290042273193</v>
+        <v>20.9482018377563</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>22.7806114834254</v>
+        <v>19.9307496388496</v>
       </c>
       <c r="B46">
-        <v>19.7916023398332</v>
+        <v>16.7521847110979</v>
       </c>
       <c r="C46">
-        <v>26.0461718581479</v>
+        <v>23.129827793354</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>20.1820491865578</v>
+        <v>17.1253395204318</v>
       </c>
       <c r="B47">
-        <v>17.8191537060298</v>
+        <v>14.7322436429662</v>
       </c>
       <c r="C47">
-        <v>22.6099884275804</v>
+        <v>19.627500495777</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>19.8362849097684</v>
+        <v>16.7393388040184</v>
       </c>
       <c r="B48">
-        <v>17.4789881258758</v>
+        <v>14.2781998360863</v>
       </c>
       <c r="C48">
-        <v>22.3061672018022</v>
+        <v>19.2844196169668</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>19.3546769928515</v>
+        <v>16.5131726328785</v>
       </c>
       <c r="B49">
-        <v>17.0554881764153</v>
+        <v>13.9863982808649</v>
       </c>
       <c r="C49">
-        <v>21.7915327520927</v>
+        <v>19.0926527075187</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>22.7635724998565</v>
+        <v>19.5703059848474</v>
       </c>
       <c r="B50">
-        <v>19.4348196452845</v>
+        <v>16.1304755834733</v>
       </c>
       <c r="C50">
-        <v>26.4524765863426</v>
+        <v>23.1130074448317</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>20.7485909734077</v>
+        <v>17.9999160809894</v>
       </c>
       <c r="B51">
-        <v>17.5847095119435</v>
+        <v>14.6662623289631</v>
       </c>
       <c r="C51">
-        <v>24.1427468720035</v>
+        <v>21.4218384879951</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>22.8513857458574</v>
+        <v>20.0098801090201</v>
       </c>
       <c r="B52">
-        <v>19.6541723609217</v>
+        <v>16.649391361266</v>
       </c>
       <c r="C52">
-        <v>26.3880894506982</v>
+        <v>23.4398678126344</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>19.5145468456148</v>
+        <v>16.6098379930421</v>
       </c>
       <c r="B53">
-        <v>17.0912288042974</v>
+        <v>14.1491790505767</v>
       </c>
       <c r="C53">
-        <v>22.0314863902637</v>
+        <v>19.1534698787479</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>20.416748119436</v>
+        <v>17.1623638115768</v>
       </c>
       <c r="B54">
-        <v>17.9394083883711</v>
+        <v>14.6239716202284</v>
       </c>
       <c r="C54">
-        <v>23.0594734042505</v>
+        <v>19.8246735855311</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>20.1602275746299</v>
+        <v>17.1826522963467</v>
       </c>
       <c r="B55">
-        <v>17.7578864685372</v>
+        <v>14.5939478430748</v>
       </c>
       <c r="C55">
-        <v>22.7323252789288</v>
+        <v>19.8755954013211</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>22.9086887818639</v>
+        <v>19.7130396423034</v>
       </c>
       <c r="B56">
-        <v>19.3574364698293</v>
+        <v>16.0346963474887</v>
       </c>
       <c r="C56">
-        <v>26.8437624134846</v>
+        <v>23.5112059443854</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>21.015154246904</v>
+        <v>18.228633454194</v>
       </c>
       <c r="B57">
-        <v>17.6616385355661</v>
+        <v>14.6727614049835</v>
       </c>
       <c r="C57">
-        <v>24.7170447742973</v>
+        <v>21.9021977300437</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>22.9500174951733</v>
+        <v>20.1001678101996</v>
       </c>
       <c r="B58">
-        <v>19.537954870852</v>
+        <v>16.5302853704698</v>
       </c>
       <c r="C58">
-        <v>26.7267042718939</v>
+        <v>23.7880352995823</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>19.0537499944522</v>
+        <v>16.212961816787</v>
       </c>
       <c r="B59">
-        <v>16.4983486034632</v>
+        <v>13.6583963947194</v>
       </c>
       <c r="C59">
-        <v>21.7216702532217</v>
+        <v>18.8918037195385</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>21.0100199642877</v>
+        <v>17.5938175516236</v>
       </c>
       <c r="B60">
-        <v>18.3401530334848</v>
+        <v>14.8870674511797</v>
       </c>
       <c r="C60">
-        <v>23.909212920954</v>
+        <v>20.456012655153</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>20.9237813167885</v>
+        <v>17.8134367426171</v>
       </c>
       <c r="B61">
-        <v>18.3442022281403</v>
+        <v>15.1033405729442</v>
       </c>
       <c r="C61">
-        <v>23.7159158366454</v>
+        <v>20.6899259232506</v>
       </c>
     </row>
   </sheetData>
@@ -3801,662 +3801,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>5.19979734385066</v>
+        <v>4.93217682282868</v>
       </c>
       <c r="B2">
-        <v>4.55555555555556</v>
+        <v>4.125</v>
       </c>
       <c r="C2">
-        <v>5.83333333333333</v>
+        <v>5.66666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5.16762974839698</v>
+        <v>4.85772611534965</v>
       </c>
       <c r="B3">
-        <v>4.45454545454545</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>5.875</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5.11726987944565</v>
+        <v>4.87491912547561</v>
       </c>
       <c r="B4">
-        <v>4.45</v>
+        <v>4.11111111111111</v>
       </c>
       <c r="C4">
-        <v>5.75</v>
+        <v>5.58333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>4.89491139470258</v>
+        <v>4.80311491111658</v>
       </c>
       <c r="B5">
-        <v>4.31570723684211</v>
+        <v>4.16666666666667</v>
       </c>
       <c r="C5">
-        <v>5.45</v>
+        <v>5.42105263157895</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4.68032106216662</v>
+        <v>4.52126113151662</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="C6">
-        <v>5.33333333333333</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>4.85613680274834</v>
+        <v>4.64216760084687</v>
       </c>
       <c r="B7">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5.47368421052632</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5.11116149441785</v>
+        <v>4.8425385166599</v>
       </c>
       <c r="B8">
-        <v>4.4375</v>
+        <v>4.08333333333333</v>
       </c>
       <c r="C8">
-        <v>5.75</v>
+        <v>5.57142857142857</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>5.06364135332887</v>
+        <v>4.75758519972954</v>
       </c>
       <c r="B9">
-        <v>4.33333333333333</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>5.76923076923077</v>
+        <v>5.53846153846154</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>5.01786458036888</v>
+        <v>4.79949464785623</v>
       </c>
       <c r="B10">
-        <v>4.33333333333333</v>
+        <v>4.1</v>
       </c>
       <c r="C10">
-        <v>5.64285714285714</v>
+        <v>5.46153846153846</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>4.85580077972861</v>
+        <v>4.75086232520081</v>
       </c>
       <c r="B11">
-        <v>4.28571428571429</v>
+        <v>4.125</v>
       </c>
       <c r="C11">
-        <v>5.42105263157895</v>
+        <v>5.35714285714286</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>4.63688203185919</v>
+        <v>4.48202054724279</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="C12">
-        <v>5.27272727272727</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>4.79663919829123</v>
+        <v>4.58464921162579</v>
       </c>
       <c r="B13">
-        <v>4.18181818181818</v>
+        <v>3.9</v>
       </c>
       <c r="C13">
-        <v>5.4</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>5.01566404220605</v>
+        <v>4.75649606734317</v>
       </c>
       <c r="B14">
-        <v>4.33333333333333</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>5.65</v>
+        <v>5.44444444444444</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>4.95373668877393</v>
+        <v>4.67292718380884</v>
       </c>
       <c r="B15">
-        <v>4.2</v>
+        <v>3.875</v>
       </c>
       <c r="C15">
-        <v>5.64285714285714</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>4.92654741706981</v>
+        <v>4.74526678336284</v>
       </c>
       <c r="B16">
-        <v>4.24963235294118</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>5.57142857142857</v>
+        <v>5.38461538461539</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>4.81525077211084</v>
+        <v>4.70401683000586</v>
       </c>
       <c r="B17">
-        <v>4.23529411764706</v>
+        <v>4.1</v>
       </c>
       <c r="C17">
-        <v>5.35714285714286</v>
+        <v>5.30769230769231</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>4.60934911919302</v>
+        <v>4.44731110714857</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="C18">
-        <v>5.23076923076923</v>
+        <v>5.14285714285714</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>4.74579469242193</v>
+        <v>4.5476602025752</v>
       </c>
       <c r="B19">
-        <v>4.18181818181818</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>5.30769230769231</v>
+        <v>5.15384615384615</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>4.92262204104521</v>
+        <v>4.70048248957742</v>
       </c>
       <c r="B20">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>5.57142857142857</v>
+        <v>5.36363636363636</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>4.84792631521251</v>
+        <v>4.60538601252914</v>
       </c>
       <c r="B21">
-        <v>4.1</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C21">
-        <v>5.54545454545455</v>
+        <v>5.30769230769231</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>4.8640936704748</v>
+        <v>4.70477646790881</v>
       </c>
       <c r="B22">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>5.5</v>
+        <v>5.33333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4.77885240949174</v>
+        <v>4.6580111541868</v>
       </c>
       <c r="B23">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>5.3125</v>
+        <v>5.23076923076923</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>4.58954632138238</v>
+        <v>4.43112491230991</v>
       </c>
       <c r="B24">
-        <v>3.9</v>
+        <v>3.71392857142857</v>
       </c>
       <c r="C24">
-        <v>5.2</v>
+        <v>5.11111111111111</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>4.70837129904812</v>
+        <v>4.52514264503062</v>
       </c>
       <c r="B25">
-        <v>4.18181818181818</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4.84339579147258</v>
+        <v>4.65727678568529</v>
       </c>
       <c r="B26">
-        <v>4.15384615384615</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>5.47058823529412</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>4.76666349048591</v>
+        <v>4.5646153459041</v>
       </c>
       <c r="B27">
-        <v>4</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C27">
-        <v>5.44444444444444</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>4.80638612867092</v>
+        <v>4.68099380780361</v>
       </c>
       <c r="B28">
-        <v>4.14285714285714</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>5.42857142857143</v>
+        <v>5.27272727272727</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4.73998134048804</v>
+        <v>4.61313801333062</v>
       </c>
       <c r="B29">
-        <v>4.18181818181818</v>
+        <v>4</v>
       </c>
       <c r="C29">
-        <v>5.28571428571429</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4.58670324388723</v>
+        <v>4.42418840527528</v>
       </c>
       <c r="B30">
-        <v>3.90909090909091</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="C30">
-        <v>5.18181818181818</v>
+        <v>5.09090909090909</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>4.68371515821291</v>
+        <v>4.51384528853091</v>
       </c>
       <c r="B31">
-        <v>4.16666666666667</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>5.2</v>
+        <v>5.08333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>4.78210603868633</v>
+        <v>4.62505280887821</v>
       </c>
       <c r="B32">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="C32">
-        <v>5.41666666666667</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>4.7105225810685</v>
+        <v>4.54338253480996</v>
       </c>
       <c r="B33">
-        <v>4</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C33">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>4.77315015578542</v>
+        <v>4.65776505970337</v>
       </c>
       <c r="B34">
-        <v>4.11111111111111</v>
+        <v>4</v>
       </c>
       <c r="C34">
-        <v>5.38461538461539</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>4.69807097997811</v>
+        <v>4.56107313314953</v>
       </c>
       <c r="B35">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="C35">
-        <v>5.26666666666667</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>4.598325179232</v>
+        <v>4.43192021048396</v>
       </c>
       <c r="B36">
-        <v>4</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="C36">
-        <v>5.18181818181818</v>
+        <v>5.09090909090909</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>4.66046947897546</v>
+        <v>4.50386103507604</v>
       </c>
       <c r="B37">
-        <v>4.125</v>
+        <v>4</v>
       </c>
       <c r="C37">
-        <v>5.16666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>4.74178094452256</v>
+        <v>4.60655344853676</v>
       </c>
       <c r="B38">
-        <v>4.08333333333333</v>
+        <v>4</v>
       </c>
       <c r="C38">
-        <v>5.375</v>
+        <v>5.23076923076923</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>4.6779888289412</v>
+        <v>4.53074884564782</v>
       </c>
       <c r="B39">
-        <v>4</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C39">
-        <v>5.36363636363636</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>4.74963437243549</v>
+        <v>4.64230714457928</v>
       </c>
       <c r="B40">
-        <v>4.11111111111111</v>
+        <v>4</v>
       </c>
       <c r="C40">
-        <v>5.33333333333333</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>4.66118541542119</v>
+        <v>4.52241342844655</v>
       </c>
       <c r="B41">
-        <v>4.07142857142857</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C41">
-        <v>5.25</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>4.62813177456949</v>
+        <v>4.45746890441666</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="C42">
-        <v>5.20035714285714</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>4.64601480264017</v>
+        <v>4.50767472277722</v>
       </c>
       <c r="B43">
-        <v>4.11111111111111</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>5.15384615384615</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>4.7145468802928</v>
+        <v>4.59634017947739</v>
       </c>
       <c r="B44">
-        <v>4.07142857142857</v>
+        <v>4</v>
       </c>
       <c r="C44">
-        <v>5.33333333333333</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>4.65491556511031</v>
+        <v>4.52478015893828</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C45">
-        <v>5.30769230769231</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4.73091147489532</v>
+        <v>4.63494655962093</v>
       </c>
       <c r="B46">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="C46">
-        <v>5.30769230769231</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>4.6260089440592</v>
+        <v>4.48397161921412</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C47">
-        <v>5.25</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>4.65875912069634</v>
+        <v>4.47946195568321</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="C48">
-        <v>5.23076923076923</v>
+        <v>5.11111111111111</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>4.64469046255199</v>
+        <v>4.51277098274275</v>
       </c>
       <c r="B49">
-        <v>4.14285714285714</v>
+        <v>4</v>
       </c>
       <c r="C49">
-        <v>5.16666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>4.7009700307411</v>
+        <v>4.58977377108272</v>
       </c>
       <c r="B50">
-        <v>4.07692307692308</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>4.64155520544396</v>
+        <v>4.52305066293184</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C51">
-        <v>5.27272727272727</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>4.71579760666938</v>
+        <v>4.62882832895476</v>
       </c>
       <c r="B52">
-        <v>4.08333333333333</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>5.30769230769231</v>
+        <v>5.22222222222222</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>4.60402834528625</v>
+        <v>4.4536254199273</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>3.71428571428571</v>
       </c>
       <c r="C53">
-        <v>5.23076923076923</v>
+        <v>5.11111111111111</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>4.69182581953247</v>
+        <v>4.50975905074093</v>
       </c>
       <c r="B54">
-        <v>4.09090909090909</v>
+        <v>3.83333333333333</v>
       </c>
       <c r="C54">
-        <v>5.25</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>4.6504716648416</v>
+        <v>4.52309487632874</v>
       </c>
       <c r="B55">
-        <v>4.125</v>
+        <v>4</v>
       </c>
       <c r="C55">
-        <v>5.16666666666667</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4.68682394071275</v>
+        <v>4.59116517314385</v>
       </c>
       <c r="B56">
-        <v>4.07142857142857</v>
+        <v>4</v>
       </c>
       <c r="C56">
-        <v>5.28571428571429</v>
+        <v>5.21428571428571</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4.64234325321785</v>
+        <v>4.52136613000562</v>
       </c>
       <c r="B57">
-        <v>4</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C57">
-        <v>5.27272727272727</v>
+        <v>5.16666666666667</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>4.7077255360043</v>
+        <v>4.62198981167332</v>
       </c>
       <c r="B58">
-        <v>4.09090909090909</v>
+        <v>4</v>
       </c>
       <c r="C58">
-        <v>5.3001923076923</v>
+        <v>5.21428571428571</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>4.58983973296279</v>
+        <v>4.4335462987013</v>
       </c>
       <c r="B59">
-        <v>3.88888888888889</v>
+        <v>3.66666666666667</v>
       </c>
       <c r="C59">
-        <v>5.23076923076923</v>
+        <v>5.125</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>4.72539444274255</v>
+        <v>4.54476471996549</v>
       </c>
       <c r="B60">
-        <v>4.11111111111111</v>
+        <v>3.85714285714286</v>
       </c>
       <c r="C60">
-        <v>5.27285353535353</v>
+        <v>5.18181818181818</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>4.66004722792231</v>
+        <v>4.53391933164058</v>
       </c>
       <c r="B61">
-        <v>4.15384615384615</v>
+        <v>4</v>
       </c>
       <c r="C61">
-        <v>5.18181818181818</v>
+        <v>5.0667857142857</v>
       </c>
     </row>
   </sheetData>
@@ -4485,662 +4485,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>206.388959120577</v>
+        <v>197.163667559341</v>
       </c>
       <c r="B2">
-        <v>95.7860430246854</v>
+        <v>73.8854387732093</v>
       </c>
       <c r="C2">
-        <v>425.170300297145</v>
+        <v>460.860361074666</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>160.042929401497</v>
+        <v>153.299170492397</v>
       </c>
       <c r="B3">
-        <v>71.0876741305784</v>
+        <v>54.6449000110378</v>
       </c>
       <c r="C3">
-        <v>346.355487743751</v>
+        <v>363.137392935015</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>370.001895008997</v>
+        <v>356.57927958742</v>
       </c>
       <c r="B4">
-        <v>159.699115488027</v>
+        <v>131.724322948145</v>
       </c>
       <c r="C4">
-        <v>815.496987850806</v>
+        <v>846.282573980519</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1969.75166035884</v>
+        <v>1536.59425200053</v>
       </c>
       <c r="B5">
-        <v>642.629185897407</v>
+        <v>457.639468315637</v>
       </c>
       <c r="C5">
-        <v>5117.95506965293</v>
+        <v>4247.46439634224</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>527.963639999107</v>
+        <v>451.518725144688</v>
       </c>
       <c r="B6">
-        <v>172.512666352044</v>
+        <v>122.936593597716</v>
       </c>
       <c r="C6">
-        <v>1369.01280247043</v>
+        <v>1310.35453058255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>824.57660673354</v>
+        <v>359.961052202574</v>
       </c>
       <c r="B7">
-        <v>126.112170964378</v>
+        <v>56.7987788640303</v>
       </c>
       <c r="C7">
-        <v>3769.64285465015</v>
+        <v>1694.83113511063</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>214.268884876739</v>
+        <v>223.961963291345</v>
       </c>
       <c r="B8">
-        <v>101.817781428136</v>
+        <v>91.382136719152</v>
       </c>
       <c r="C8">
-        <v>421.001008737725</v>
+        <v>478.134107485047</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>170.579122589596</v>
+        <v>177.50646810312</v>
       </c>
       <c r="B9">
-        <v>77.4464508767013</v>
+        <v>68.7963388792572</v>
       </c>
       <c r="C9">
-        <v>353.079683576649</v>
+        <v>386.902194617441</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>419.281321019956</v>
+        <v>425.772793010938</v>
       </c>
       <c r="B10">
-        <v>193.64884716537</v>
+        <v>175.444780524537</v>
       </c>
       <c r="C10">
-        <v>862.860547156979</v>
+        <v>940.13139434603</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1479.71228616624</v>
+        <v>1253.97646516054</v>
       </c>
       <c r="B11">
-        <v>554.494732345099</v>
+        <v>434.522367454882</v>
       </c>
       <c r="C11">
-        <v>3476.03528000254</v>
+        <v>3101.90929275263</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>469.588339460977</v>
+        <v>413.797201453766</v>
       </c>
       <c r="B12">
-        <v>177.908664160414</v>
+        <v>134.629658640718</v>
       </c>
       <c r="C12">
-        <v>1094.66807570187</v>
+        <v>1058.22717702457</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>611.624753654103</v>
+        <v>308.591158878961</v>
       </c>
       <c r="B13">
-        <v>130.983217573583</v>
+        <v>71.3721641271011</v>
       </c>
       <c r="C13">
-        <v>2393.6043603075</v>
+        <v>1198.05669871628</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>256.566604534083</v>
+        <v>277.318558113817</v>
       </c>
       <c r="B14">
-        <v>123.514070459453</v>
+        <v>120.302422691444</v>
       </c>
       <c r="C14">
-        <v>490.521344198241</v>
+        <v>555.466104400558</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>207.22760008356</v>
+        <v>222.419280918792</v>
       </c>
       <c r="B15">
-        <v>95.7347764480838</v>
+        <v>91.3443170352427</v>
       </c>
       <c r="C15">
-        <v>413.749181611839</v>
+        <v>459.16136759869</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>524.921314872862</v>
+        <v>544.198898435358</v>
       </c>
       <c r="B16">
-        <v>254.268198957594</v>
+        <v>238.638914847777</v>
       </c>
       <c r="C16">
-        <v>1027.27493755218</v>
+        <v>1149.38108436629</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1206.44164080315</v>
+        <v>1078.34805749163</v>
       </c>
       <c r="B17">
-        <v>501.666038616098</v>
+        <v>418.577416090176</v>
       </c>
       <c r="C17">
-        <v>2597.69328967546</v>
+        <v>2457.95320626013</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>449.564478553976</v>
+        <v>407.117468778901</v>
       </c>
       <c r="B18">
-        <v>193.272364039677</v>
+        <v>152.655673200353</v>
       </c>
       <c r="C18">
-        <v>956.10500054389</v>
+        <v>943.055815265831</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>515.030592397309</v>
+        <v>307.635450835606</v>
       </c>
       <c r="B19">
-        <v>152.243473839776</v>
+        <v>94.1700910957044</v>
       </c>
       <c r="C19">
-        <v>1628.96563348098</v>
+        <v>977.624357989977</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>335.786656461278</v>
+        <v>364.915794350958</v>
       </c>
       <c r="B20">
-        <v>163.237011715204</v>
+        <v>163.93452353666</v>
       </c>
       <c r="C20">
-        <v>631.648676094004</v>
+        <v>710.060757197198</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>273.428690695818</v>
+        <v>294.992063134551</v>
       </c>
       <c r="B21">
-        <v>126.443182378806</v>
+        <v>125.677943642408</v>
       </c>
       <c r="C21">
-        <v>537.232360277723</v>
+        <v>592.732278609157</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>706.84046957753</v>
+        <v>733.885035182703</v>
       </c>
       <c r="B22">
-        <v>342.228210735521</v>
+        <v>324.918895606479</v>
       </c>
       <c r="C22">
-        <v>1383.39544627753</v>
+        <v>1550.09367828641</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1042.57063412546</v>
+        <v>966.904803293392</v>
       </c>
       <c r="B23">
-        <v>477.266002656207</v>
+        <v>413.314951542487</v>
       </c>
       <c r="C23">
-        <v>2083.98673795223</v>
+        <v>2014.33356171588</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>457.345936516289</v>
+        <v>423.954387629678</v>
       </c>
       <c r="B24">
-        <v>214.335677362146</v>
+        <v>176.615140554977</v>
       </c>
       <c r="C24">
-        <v>898.021852732332</v>
+        <v>905.338012405494</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>495.009476288888</v>
+        <v>346.369679168634</v>
       </c>
       <c r="B25">
-        <v>188.727064493917</v>
+        <v>129.852744467679</v>
       </c>
       <c r="C25">
-        <v>1253.21140865798</v>
+        <v>910.423196394659</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>468.681307333865</v>
+        <v>504.407056701922</v>
       </c>
       <c r="B26">
-        <v>222.087435249624</v>
+        <v>223.710184423178</v>
       </c>
       <c r="C26">
-        <v>893.59452424707</v>
+        <v>978.725249986776</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>383.479961336341</v>
+        <v>410.03266479096</v>
       </c>
       <c r="B27">
-        <v>171.693577727289</v>
+        <v>171.621075562012</v>
       </c>
       <c r="C27">
-        <v>763.664247308014</v>
+        <v>835.217623106807</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1010.68649039621</v>
+        <v>1037.53464722888</v>
       </c>
       <c r="B28">
-        <v>471.959860823864</v>
+        <v>446.30250399099</v>
       </c>
       <c r="C28">
-        <v>2023.38883555687</v>
+        <v>2233.94200560956</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>942.343953483921</v>
+        <v>899.268139890905</v>
       </c>
       <c r="B29">
-        <v>462.544077878574</v>
+        <v>411.32359678826</v>
       </c>
       <c r="C29">
-        <v>1778.77517022553</v>
+        <v>1766.54504236665</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>490.025664914886</v>
+        <v>463.644289583657</v>
       </c>
       <c r="B30">
-        <v>244.872986340606</v>
+        <v>207.874215576077</v>
       </c>
       <c r="C30">
-        <v>901.996488236051</v>
+        <v>935.762842037142</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>539.532276999777</v>
+        <v>429.322666391058</v>
       </c>
       <c r="B31">
-        <v>248.669708826576</v>
+        <v>184.721797198153</v>
       </c>
       <c r="C31">
-        <v>1136.86838919193</v>
+        <v>980.750488865059</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>690.879425316447</v>
+        <v>729.036423601588</v>
       </c>
       <c r="B32">
-        <v>306.829089440798</v>
+        <v>303.761826045633</v>
       </c>
       <c r="C32">
-        <v>1394.62485221183</v>
+        <v>1489.30132828834</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>566.942496120718</v>
+        <v>595.074854872681</v>
       </c>
       <c r="B33">
-        <v>238.379408231295</v>
+        <v>235.66931007292</v>
       </c>
       <c r="C33">
-        <v>1192.10307682071</v>
+        <v>1288.45659095816</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1527.07917276688</v>
+        <v>1534.70747744433</v>
       </c>
       <c r="B34">
-        <v>655.365461154416</v>
+        <v>604.985770521206</v>
       </c>
       <c r="C34">
-        <v>3297.11246763468</v>
+        <v>3501.1593535181</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>884.993119900187</v>
+        <v>865.575613758217</v>
       </c>
       <c r="B35">
-        <v>457.312503224471</v>
+        <v>417.204844480954</v>
       </c>
       <c r="C35">
-        <v>1594.08671262117</v>
+        <v>1627.94054271221</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>550.103259165894</v>
+        <v>530.65459684923</v>
       </c>
       <c r="B36">
-        <v>287.373489805891</v>
+        <v>247.371661242845</v>
       </c>
       <c r="C36">
-        <v>979.817167174413</v>
+        <v>1025.67374964525</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>655.736965207859</v>
+        <v>574.63552755577</v>
       </c>
       <c r="B37">
-        <v>338.612530321057</v>
+        <v>269.492739322726</v>
       </c>
       <c r="C37">
-        <v>1243.52356714802</v>
+        <v>1228.80479356154</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1073.04266933679</v>
+        <v>1100.82602470593</v>
       </c>
       <c r="B38">
-        <v>427.158485182888</v>
+        <v>411.39805272116</v>
       </c>
       <c r="C38">
-        <v>2392.82961730063</v>
+        <v>2457.77500194693</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>882.188529101466</v>
+        <v>901.355685277301</v>
       </c>
       <c r="B39">
-        <v>331.159266647685</v>
+        <v>321.961375605505</v>
       </c>
       <c r="C39">
-        <v>2040.80520819037</v>
+        <v>2095.27166773259</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2437.45584523508</v>
+        <v>2376.85387196047</v>
       </c>
       <c r="B40">
-        <v>917.019839887008</v>
+        <v>825.268606348541</v>
       </c>
       <c r="C40">
-        <v>5849.22064595028</v>
+        <v>5899.03573676911</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>861.147989918751</v>
+        <v>861.844592097392</v>
       </c>
       <c r="B41">
-        <v>453.16115680207</v>
+        <v>420.628453720202</v>
       </c>
       <c r="C41">
-        <v>1526.30011253327</v>
+        <v>1614.10555524232</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>645.555369354737</v>
+        <v>635.370499051805</v>
       </c>
       <c r="B42">
-        <v>340.635230742574</v>
+        <v>298.443240668992</v>
       </c>
       <c r="C42">
-        <v>1140.95391688776</v>
+        <v>1229.5798573811</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>871.483524563213</v>
+        <v>820.308847084639</v>
       </c>
       <c r="B43">
-        <v>471.770372671052</v>
+        <v>396.897636974577</v>
       </c>
       <c r="C43">
-        <v>1596.29226775945</v>
+        <v>1701.18152259964</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1759.41388373339</v>
+        <v>1738.78320513825</v>
       </c>
       <c r="B44">
-        <v>605.795660693308</v>
+        <v>558.0970298569</v>
       </c>
       <c r="C44">
-        <v>4433.2242654247</v>
+        <v>4320.72548075419</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1448.55654520965</v>
+        <v>1427.17794427905</v>
       </c>
       <c r="B45">
-        <v>468.213210864334</v>
+        <v>431.937971444341</v>
       </c>
       <c r="C45">
-        <v>3785.51398252801</v>
+        <v>3692.53759680609</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>4120.92772736849</v>
+        <v>3863.83076163533</v>
       </c>
       <c r="B46">
-        <v>1307.23725030855</v>
+        <v>1123.59550833963</v>
       </c>
       <c r="C46">
-        <v>11380.4196522571</v>
+        <v>10727.0946630113</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>867.66068164862</v>
+        <v>888.283791051746</v>
       </c>
       <c r="B47">
-        <v>448.427206706767</v>
+        <v>423.359632306527</v>
       </c>
       <c r="C47">
-        <v>1558.0594107379</v>
+        <v>1696.24232409208</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>791.964065590698</v>
+        <v>797.372669510527</v>
       </c>
       <c r="B48">
-        <v>411.404471760546</v>
+        <v>364.764530541995</v>
       </c>
       <c r="C48">
-        <v>1434.72826910988</v>
+        <v>1593.24084088632</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>1246.63155297731</v>
+        <v>1240.84497797228</v>
       </c>
       <c r="B49">
-        <v>673.04704563227</v>
+        <v>591.88052769384</v>
       </c>
       <c r="C49">
-        <v>2332.84052570063</v>
+        <v>2628.68223145282</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>3061.76705991954</v>
+        <v>2880.54426445281</v>
       </c>
       <c r="B50">
-        <v>865.774552268131</v>
+        <v>754.808997988176</v>
       </c>
       <c r="C50">
-        <v>8934.1465241826</v>
+        <v>8219.08280124811</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2525.46667532145</v>
+        <v>2368.966129478</v>
       </c>
       <c r="B51">
-        <v>667.789681898695</v>
+        <v>584.099374248654</v>
       </c>
       <c r="C51">
-        <v>7527.13798657711</v>
+        <v>7012.93876853601</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>7415.8675464576</v>
+        <v>6618.40907950094</v>
       </c>
       <c r="B52">
-        <v>1884.0555336739</v>
+        <v>1536.09388288247</v>
       </c>
       <c r="C52">
-        <v>23851.0815143292</v>
+        <v>20965.5602785587</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>905.852319464615</v>
+        <v>949.114778100557</v>
       </c>
       <c r="B53">
-        <v>443.705114228545</v>
+        <v>420.107494368313</v>
       </c>
       <c r="C53">
-        <v>1716.80373062369</v>
+        <v>1921.52891681463</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1017.66447962611</v>
+        <v>1052.85038841242</v>
       </c>
       <c r="B54">
-        <v>498.598167343408</v>
+        <v>448.875484554093</v>
       </c>
       <c r="C54">
-        <v>1965.62035878265</v>
+        <v>2256.64572766429</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1900.7223141426</v>
+        <v>1985.33173685687</v>
       </c>
       <c r="B55">
-        <v>966.86721960474</v>
+        <v>881.10073719346</v>
       </c>
       <c r="C55">
-        <v>3724.43467619712</v>
+        <v>4507.42436154484</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>5707.31726369999</v>
+        <v>5022.97036685614</v>
       </c>
       <c r="B56">
-        <v>1259.4038603268</v>
+        <v>1038.2912272206</v>
       </c>
       <c r="C56">
-        <v>18844.2097017431</v>
+        <v>16744.4814138754</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4724.63883282114</v>
+        <v>4137.79990417832</v>
       </c>
       <c r="B57">
-        <v>970.296219937357</v>
+        <v>798.445726935682</v>
       </c>
       <c r="C57">
-        <v>15757.4710029458</v>
+        <v>14133.8644826387</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>14306.015947806</v>
+        <v>12006.3214218565</v>
       </c>
       <c r="B58">
-        <v>2729.05415097307</v>
+        <v>2113.3371837192</v>
       </c>
       <c r="C58">
-        <v>52686.5874554099</v>
+        <v>43467.0651835579</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>981.528277353326</v>
+        <v>1053.58310072256</v>
       </c>
       <c r="B59">
-        <v>437.169438999927</v>
+        <v>417.58576837506</v>
       </c>
       <c r="C59">
-        <v>2029.80957466665</v>
+        <v>2339.03768631482</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1374.76889374183</v>
+        <v>1470.62714878866</v>
       </c>
       <c r="B60">
-        <v>613.727434582312</v>
+        <v>554.180750596604</v>
       </c>
       <c r="C60">
-        <v>2962.77631738627</v>
+        <v>3609.02549025253</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3076.40703494608</v>
+        <v>3367.10472402777</v>
       </c>
       <c r="B61">
-        <v>1413.90168626966</v>
+        <v>1328.88078738113</v>
       </c>
       <c r="C61">
-        <v>6606.37915138989</v>
+        <v>8367.94544572913</v>
       </c>
     </row>
   </sheetData>
@@ -5169,662 +5169,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>13.2266157988019</v>
+        <v>4.12366277175839</v>
       </c>
       <c r="B2">
-        <v>3.64518505648015</v>
+        <v>0.29687617572453</v>
       </c>
       <c r="C2">
-        <v>34.0463709563364</v>
+        <v>17.9510808737011</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>8.8357334312468</v>
+        <v>2.59533255712332</v>
       </c>
       <c r="B3">
-        <v>2.40299702006297</v>
+        <v>0.186264398739254</v>
       </c>
       <c r="C3">
-        <v>23.2036585185619</v>
+        <v>11.5732113372329</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>7.46103901408503</v>
+        <v>2.35854676552503</v>
       </c>
       <c r="B4">
-        <v>1.75733890821415</v>
+        <v>0.151936818416691</v>
       </c>
       <c r="C4">
-        <v>21.8263024683385</v>
+        <v>10.6527823097548</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>3.65938150099724</v>
+        <v>1.67773573981013</v>
       </c>
       <c r="B5">
-        <v>0.517165123768</v>
+        <v>0.0727391407243425</v>
       </c>
       <c r="C5">
-        <v>12.9156925709021</v>
+        <v>8.04069114948783</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.79632733415632</v>
+        <v>0.931643590486138</v>
       </c>
       <c r="B6">
-        <v>0.244679905797661</v>
+        <v>0.0346167023489014</v>
       </c>
       <c r="C6">
-        <v>6.55449709156005</v>
+        <v>4.96356327222016</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>41.1975446932124</v>
+        <v>19.1739015769397</v>
       </c>
       <c r="B7">
-        <v>3.21188008750789</v>
+        <v>0.111881423462074</v>
       </c>
       <c r="C7">
-        <v>152.915724272904</v>
+        <v>111.07501691773</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>5.15710225534208</v>
+        <v>1.69833054027462</v>
       </c>
       <c r="B8">
-        <v>1.81594139085641</v>
+        <v>0.183119108033013</v>
       </c>
       <c r="C8">
-        <v>11.7871279633578</v>
+        <v>6.60453237774894</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>3.5020709130976</v>
+        <v>1.0851618294511</v>
       </c>
       <c r="B9">
-        <v>1.17627682307303</v>
+        <v>0.115066336321421</v>
       </c>
       <c r="C9">
-        <v>8.27180866067221</v>
+        <v>4.36123642454043</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3.22596632499953</v>
+        <v>1.02691344483129</v>
       </c>
       <c r="B10">
-        <v>0.890317106460365</v>
+        <v>0.0944106914737901</v>
       </c>
       <c r="C10">
-        <v>8.98240777535156</v>
+        <v>4.24851220770373</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.85644510337475</v>
+        <v>0.800362983772087</v>
       </c>
       <c r="B11">
-        <v>0.349864745530281</v>
+        <v>0.0528546816373448</v>
       </c>
       <c r="C11">
-        <v>5.76922389885855</v>
+        <v>3.5219797337492</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.970981415963825</v>
+        <v>0.454176535192574</v>
       </c>
       <c r="B12">
-        <v>0.176721396573725</v>
+        <v>0.025821913935556</v>
       </c>
       <c r="C12">
-        <v>3.09918724003083</v>
+        <v>2.17268003641338</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>15.7895250317427</v>
+        <v>6.90268886506521</v>
       </c>
       <c r="B13">
-        <v>1.74768136776082</v>
+        <v>0.0717490533037275</v>
       </c>
       <c r="C13">
-        <v>54.5819550488815</v>
+        <v>38.8036497397774</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>2.26452498822474</v>
+        <v>0.784168211379708</v>
       </c>
       <c r="B14">
-        <v>0.875292673463153</v>
+        <v>0.11478114982749</v>
       </c>
       <c r="C14">
-        <v>4.9480465539987</v>
+        <v>2.74403017539182</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1.56069175399311</v>
+        <v>0.508177345095592</v>
       </c>
       <c r="B15">
-        <v>0.564164947921116</v>
+        <v>0.0707335370526051</v>
       </c>
       <c r="C15">
-        <v>3.60457718693975</v>
+        <v>1.84450229362593</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.5649646292118</v>
+        <v>0.509236614771294</v>
       </c>
       <c r="B16">
-        <v>0.450170019809892</v>
+        <v>0.0598120412283898</v>
       </c>
       <c r="C16">
-        <v>4.29643590275269</v>
+        <v>1.97882791485927</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.01508784932835</v>
+        <v>0.418312534620581</v>
       </c>
       <c r="B17">
-        <v>0.239755354206361</v>
+        <v>0.0391718010624838</v>
       </c>
       <c r="C17">
-        <v>2.82062040450858</v>
+        <v>1.66420096131791</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.575103252818602</v>
+        <v>0.246532086796353</v>
       </c>
       <c r="B18">
-        <v>0.128445313726516</v>
+        <v>0.0203369047097843</v>
       </c>
       <c r="C18">
-        <v>1.67654735733244</v>
+        <v>1.06242201792446</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>6.55133392037193</v>
+        <v>2.73571202069409</v>
       </c>
       <c r="B19">
-        <v>0.893709573388564</v>
+        <v>0.0467308888162332</v>
       </c>
       <c r="C19">
-        <v>22.0259195623017</v>
+        <v>14.7105683832635</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.12560808108455</v>
+        <v>0.406765601190336</v>
       </c>
       <c r="B20">
-        <v>0.42829698221025</v>
+        <v>0.0708158635343155</v>
       </c>
       <c r="C20">
-        <v>2.49707393512874</v>
+        <v>1.32695068328358</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.785643456562888</v>
+        <v>0.267278427042022</v>
       </c>
       <c r="B21">
-        <v>0.277668739588151</v>
+        <v>0.0431787953256659</v>
       </c>
       <c r="C21">
-        <v>1.84143294841458</v>
+        <v>0.907095929132535</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.855479148458779</v>
+        <v>0.286133228175176</v>
       </c>
       <c r="B22">
-        <v>0.23843995475947</v>
+        <v>0.0373307396852674</v>
       </c>
       <c r="C22">
-        <v>2.40502727204534</v>
+        <v>1.07348658371512</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.59954457452983</v>
+        <v>0.239155273267711</v>
       </c>
       <c r="B23">
-        <v>0.165265845075205</v>
+        <v>0.0282273598961535</v>
       </c>
       <c r="C23">
-        <v>1.53773599403624</v>
+        <v>0.86477315712008</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.375081258708917</v>
+        <v>0.149320763224234</v>
       </c>
       <c r="B24">
-        <v>0.096930175262529</v>
+        <v>0.0160107094299723</v>
       </c>
       <c r="C24">
-        <v>1.01588733896373</v>
+        <v>0.5920531620888</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>2.96207352933169</v>
+        <v>1.1903492436183</v>
       </c>
       <c r="B25">
-        <v>0.468152350665047</v>
+        <v>0.0306339589710828</v>
       </c>
       <c r="C25">
-        <v>9.69358559408868</v>
+        <v>6.1798707508216</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.638924431103869</v>
+        <v>0.238484355666151</v>
       </c>
       <c r="B26">
-        <v>0.224553432477576</v>
+        <v>0.0429081080871676</v>
       </c>
       <c r="C26">
-        <v>1.47057612415477</v>
+        <v>0.758608721119077</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.45052362061584</v>
+        <v>0.158872169343453</v>
       </c>
       <c r="B27">
-        <v>0.145397955463598</v>
+        <v>0.025939518622522</v>
       </c>
       <c r="C27">
-        <v>1.09603291158336</v>
+        <v>0.527870951159127</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.532822686511126</v>
+        <v>0.182446135419419</v>
       </c>
       <c r="B28">
-        <v>0.13227997696751</v>
+        <v>0.02267789325638</v>
       </c>
       <c r="C28">
-        <v>1.5431382869201</v>
+        <v>0.681507983096571</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.383973211418448</v>
+        <v>0.149556155101697</v>
       </c>
       <c r="B29">
-        <v>0.116404653334549</v>
+        <v>0.0207144219398964</v>
       </c>
       <c r="C29">
-        <v>0.945470427722906</v>
+        <v>0.514307025740681</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.271446657644617</v>
+        <v>0.101478818801501</v>
       </c>
       <c r="B30">
-        <v>0.0748560890003518</v>
+        <v>0.0129435479680562</v>
       </c>
       <c r="C30">
-        <v>0.716902609035471</v>
+        <v>0.373757560934413</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.47427977791639</v>
+        <v>0.572286032124332</v>
       </c>
       <c r="B31">
-        <v>0.248965189179486</v>
+        <v>0.0204992855994712</v>
       </c>
       <c r="C31">
-        <v>4.80660376379722</v>
+        <v>2.91893879670967</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.419581934100487</v>
+        <v>0.15919054225479</v>
       </c>
       <c r="B32">
-        <v>0.127330027271412</v>
+        <v>0.0259262966616878</v>
       </c>
       <c r="C32">
-        <v>1.01178896688659</v>
+        <v>0.525062384138732</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.298159368423379</v>
+        <v>0.107477423845545</v>
       </c>
       <c r="B33">
-        <v>0.0830079383169401</v>
+        <v>0.0154899167652657</v>
       </c>
       <c r="C33">
-        <v>0.763338355359411</v>
+        <v>0.364589236181728</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.386105285847553</v>
+        <v>0.132589684568028</v>
       </c>
       <c r="B34">
-        <v>0.0798177207005955</v>
+        <v>0.0139480275525986</v>
       </c>
       <c r="C34">
-        <v>1.16780563845637</v>
+        <v>0.530979817273301</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.268134555302594</v>
+        <v>0.102421077885826</v>
       </c>
       <c r="B35">
-        <v>0.0834901507396128</v>
+        <v>0.0148556246968146</v>
       </c>
       <c r="C35">
-        <v>0.643310723806912</v>
+        <v>0.344725233923842</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.220164072133302</v>
+        <v>0.0779387073786803</v>
       </c>
       <c r="B36">
-        <v>0.061558397038653</v>
+        <v>0.0103051991313395</v>
       </c>
       <c r="C36">
-        <v>0.578004413258473</v>
+        <v>0.282999312485791</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.81847122685669</v>
+        <v>0.307958844468388</v>
       </c>
       <c r="B37">
-        <v>0.13713973843301</v>
+        <v>0.0136345960092479</v>
       </c>
       <c r="C37">
-        <v>2.69249129350157</v>
+        <v>1.55754100059964</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.324725335488957</v>
+        <v>0.121790955917869</v>
       </c>
       <c r="B38">
-        <v>0.07883499907516</v>
+        <v>0.0158484670820284</v>
       </c>
       <c r="C38">
-        <v>0.854576833322524</v>
+        <v>0.439251753213347</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.232098221938584</v>
+        <v>0.0832488342407486</v>
       </c>
       <c r="B39">
-        <v>0.0522428902527052</v>
+        <v>0.0095834627964017</v>
       </c>
       <c r="C39">
-        <v>0.64013678635162</v>
+        <v>0.309372390009103</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.336433611995084</v>
+        <v>0.110344902839358</v>
       </c>
       <c r="B40">
-        <v>0.050591461071784</v>
+        <v>0.00872855705829557</v>
       </c>
       <c r="C40">
-        <v>1.02904328347501</v>
+        <v>0.476774574422048</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.205682891933384</v>
+        <v>0.0769654401071664</v>
       </c>
       <c r="B41">
-        <v>0.0610343173688588</v>
+        <v>0.0106491189209081</v>
       </c>
       <c r="C41">
-        <v>0.499439268068081</v>
+        <v>0.266665396930077</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.202458211197194</v>
+        <v>0.0681083541798075</v>
       </c>
       <c r="B42">
-        <v>0.0533443022428461</v>
+        <v>0.00845769204502842</v>
       </c>
       <c r="C42">
-        <v>0.540028637773842</v>
+        <v>0.255494457403424</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.515173490918939</v>
+        <v>0.188786895540351</v>
       </c>
       <c r="B43">
-        <v>0.0798677683037006</v>
+        <v>0.00910187174673173</v>
       </c>
       <c r="C43">
-        <v>1.75249351625281</v>
+        <v>0.921306306086049</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>0.303025395782332</v>
+        <v>0.107393707053345</v>
       </c>
       <c r="B44">
-        <v>0.0539348723542986</v>
+        <v>0.0101153229287524</v>
       </c>
       <c r="C44">
-        <v>0.879775077981225</v>
+        <v>0.437163680243552</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>0.217691667711957</v>
+        <v>0.0741614442985094</v>
       </c>
       <c r="B45">
-        <v>0.0350738794118124</v>
+        <v>0.00613416953686083</v>
       </c>
       <c r="C45">
-        <v>0.654985505705935</v>
+        <v>0.312786541331357</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>0.365408785328523</v>
+        <v>0.105664784286514</v>
       </c>
       <c r="B46">
-        <v>0.0338775567333878</v>
+        <v>0.00550573103302822</v>
       </c>
       <c r="C46">
-        <v>1.10011633689727</v>
+        <v>0.501546018895914</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>0.17495177856979</v>
+        <v>0.0636071641747689</v>
       </c>
       <c r="B47">
-        <v>0.0463511661403489</v>
+        <v>0.00771314454703195</v>
       </c>
       <c r="C47">
-        <v>0.440052236832146</v>
+        <v>0.228139343858438</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>0.213652313185169</v>
+        <v>0.0680658893666856</v>
       </c>
       <c r="B48">
-        <v>0.0480342658249321</v>
+        <v>0.00685778802413149</v>
       </c>
       <c r="C48">
-        <v>0.613708292096967</v>
+        <v>0.27039422924621</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>0.376136922694312</v>
+        <v>0.134489423303439</v>
       </c>
       <c r="B49">
-        <v>0.0509942160402056</v>
+        <v>0.00611651159716939</v>
       </c>
       <c r="C49">
-        <v>1.35083054362378</v>
+        <v>0.657400813105136</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>0.347330520241206</v>
+        <v>0.109756378243</v>
       </c>
       <c r="B50">
-        <v>0.0379683062031618</v>
+        <v>0.00663444474696847</v>
       </c>
       <c r="C50">
-        <v>1.11271347591171</v>
+        <v>0.510222002916067</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>0.251000796390784</v>
+        <v>0.0762941769256884</v>
       </c>
       <c r="B51">
-        <v>0.0243719170039993</v>
+        <v>0.0040208151853548</v>
       </c>
       <c r="C51">
-        <v>0.818831246348641</v>
+        <v>0.358138055329038</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>0.500535924759336</v>
+        <v>0.117187252884021</v>
       </c>
       <c r="B52">
-        <v>0.0232961685863651</v>
+        <v>0.0035223180949784</v>
       </c>
       <c r="C52">
-        <v>1.40399011736662</v>
+        <v>0.5998202074308</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>0.16685291622756</v>
+        <v>0.0579270998565529</v>
       </c>
       <c r="B53">
-        <v>0.0361389454327046</v>
+        <v>0.00557332442548861</v>
       </c>
       <c r="C53">
-        <v>0.451198398041705</v>
+        <v>0.227247853948059</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>0.26145513774451</v>
+        <v>0.0780582545064784</v>
       </c>
       <c r="B54">
-        <v>0.0444367458954412</v>
+        <v>0.00564875945834748</v>
       </c>
       <c r="C54">
-        <v>0.807807851331518</v>
+        <v>0.339988534935211</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>0.330700868523487</v>
+        <v>0.113493134551662</v>
       </c>
       <c r="B55">
-        <v>0.0343474723497424</v>
+        <v>0.0041945681371006</v>
       </c>
       <c r="C55">
-        <v>1.17186409332794</v>
+        <v>0.570702528709393</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>0.488472126275408</v>
+        <v>0.131068415077759</v>
       </c>
       <c r="B56">
-        <v>0.0275186047149685</v>
+        <v>0.0044205739443216</v>
       </c>
       <c r="C56">
-        <v>1.62037390686586</v>
+        <v>0.668522403511412</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>0.355624070752527</v>
+        <v>0.0912302356426058</v>
       </c>
       <c r="B57">
-        <v>0.0177947627541283</v>
+        <v>0.00263650229575708</v>
       </c>
       <c r="C57">
-        <v>1.19991220604972</v>
+        <v>0.467382396930903</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>0.837950186456848</v>
+        <v>0.152252716247849</v>
       </c>
       <c r="B58">
-        <v>0.0168507673665483</v>
+        <v>0.00239720602493933</v>
       </c>
       <c r="C58">
-        <v>2.02218168423251</v>
+        <v>0.784677057418182</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>0.180517242201359</v>
+        <v>0.0582044700052186</v>
       </c>
       <c r="B59">
-        <v>0.0283807047845529</v>
+        <v>0.00407570223793374</v>
       </c>
       <c r="C59">
-        <v>0.533776633991077</v>
+        <v>0.257040758424982</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>0.372911710674397</v>
+        <v>0.103022091860247</v>
       </c>
       <c r="B60">
-        <v>0.0426541564123747</v>
+        <v>0.00476451675823894</v>
       </c>
       <c r="C60">
-        <v>1.26472228995939</v>
+        <v>0.51878040225457</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>0.36957541147012</v>
+        <v>0.115281494834958</v>
       </c>
       <c r="B61">
-        <v>0.0244999282671983</v>
+        <v>0.00294372998803259</v>
       </c>
       <c r="C61">
-        <v>1.21581906305381</v>
+        <v>0.607104455343925</v>
       </c>
     </row>
   </sheetData>
@@ -5853,662 +5853,662 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>131.213961992085</v>
+        <v>142.930074319586</v>
       </c>
       <c r="B2">
-        <v>50.2069167181783</v>
+        <v>45.2698346329841</v>
       </c>
       <c r="C2">
-        <v>295.196238541683</v>
+        <v>354.359044831783</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>102.531117618455</v>
+        <v>112.354888315067</v>
       </c>
       <c r="B3">
-        <v>36.9881783739797</v>
+        <v>33.3195662256982</v>
       </c>
       <c r="C3">
-        <v>243.138242157588</v>
+        <v>282.120075688934</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>237.21432062146</v>
+        <v>255.711954865984</v>
       </c>
       <c r="B4">
-        <v>88.0176767312763</v>
+        <v>80.7018911769312</v>
       </c>
       <c r="C4">
-        <v>569.872289067295</v>
+        <v>662.62388554334</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1629.30412087926</v>
+        <v>1227.29948258788</v>
       </c>
       <c r="B5">
-        <v>438.854182678088</v>
+        <v>305.897038321815</v>
       </c>
       <c r="C5">
-        <v>4655.88990758771</v>
+        <v>3717.62480767402</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>368.203677350777</v>
+        <v>315.676998582099</v>
       </c>
       <c r="B6">
-        <v>97.1174416994842</v>
+        <v>68.4363270787869</v>
       </c>
       <c r="C6">
-        <v>1061.98485588271</v>
+        <v>1005.07020859255</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>683.738639696758</v>
+        <v>233.519102992468</v>
       </c>
       <c r="B7">
-        <v>49.9865182302584</v>
+        <v>22.4530210315477</v>
       </c>
       <c r="C7">
-        <v>3582.41968469522</v>
+        <v>1323.97202091928</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>151.891324697907</v>
+        <v>171.527193754713</v>
       </c>
       <c r="B8">
-        <v>58.5494639524646</v>
+        <v>58.3574401008519</v>
       </c>
       <c r="C8">
-        <v>331.046303416394</v>
+        <v>397.399415950413</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>121.427644408568</v>
+        <v>136.918278427889</v>
       </c>
       <c r="B9">
-        <v>44.1382345496766</v>
+        <v>43.9099922665225</v>
       </c>
       <c r="C9">
-        <v>276.033317286689</v>
+        <v>323.402443935969</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>285.963582227172</v>
+        <v>316.85813807567</v>
       </c>
       <c r="B10">
-        <v>110.265024940512</v>
+        <v>109.038500496748</v>
       </c>
       <c r="C10">
-        <v>652.33066990586</v>
+        <v>769.846031665439</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1222.95309307816</v>
+        <v>1018.37682245416</v>
       </c>
       <c r="B11">
-        <v>386.434687832132</v>
+        <v>296.210962349047</v>
       </c>
       <c r="C11">
-        <v>3184.2313295178</v>
+        <v>2761.16421123051</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>343.874000006037</v>
+        <v>306.255073839099</v>
       </c>
       <c r="B12">
-        <v>105.741180286847</v>
+        <v>79.8981860227852</v>
       </c>
       <c r="C12">
-        <v>894.264503701178</v>
+        <v>877.150845144426</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>496.246484628847</v>
+        <v>201.778724201309</v>
       </c>
       <c r="B13">
-        <v>59.165567614751</v>
+        <v>30.1280069056051</v>
       </c>
       <c r="C13">
-        <v>2245.58078816801</v>
+        <v>958.986362534493</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>193.21845141058</v>
+        <v>219.867299668199</v>
       </c>
       <c r="B14">
-        <v>76.6299486190956</v>
+        <v>80.0810410740939</v>
       </c>
       <c r="C14">
-        <v>406.777809444222</v>
+        <v>478.579026426407</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>156.414830086419</v>
+        <v>177.183740091373</v>
       </c>
       <c r="B15">
-        <v>58.23465113624</v>
+        <v>60.428770464218</v>
       </c>
       <c r="C15">
-        <v>344.178614239377</v>
+        <v>394.089203750131</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>374.578301635542</v>
+        <v>416.954684017957</v>
       </c>
       <c r="B16">
-        <v>149.336578430741</v>
+        <v>152.777524362848</v>
       </c>
       <c r="C16">
-        <v>832.491815646797</v>
+        <v>983.988960210687</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1005.72181670016</v>
+        <v>891.101093521583</v>
       </c>
       <c r="B17">
-        <v>359.576951178357</v>
+        <v>295.691444071182</v>
       </c>
       <c r="C17">
-        <v>2355.38033966233</v>
+        <v>2197.45727126962</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>343.850440700355</v>
+        <v>315.081292519931</v>
       </c>
       <c r="B18">
-        <v>119.888854287159</v>
+        <v>94.5978569009123</v>
       </c>
       <c r="C18">
-        <v>813.81549624403</v>
+        <v>807.144709165136</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>400.429361247761</v>
+        <v>199.87940715479</v>
       </c>
       <c r="B19">
-        <v>74.8237994788555</v>
+        <v>42.1536691547533</v>
       </c>
       <c r="C19">
-        <v>1474.55176135492</v>
+        <v>781.254986979146</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>262.527393373229</v>
+        <v>296.487594003715</v>
       </c>
       <c r="B20">
-        <v>106.37540882151</v>
+        <v>113.55230665079</v>
       </c>
       <c r="C20">
-        <v>540.143149188993</v>
+        <v>625.33033222772</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>213.955455805382</v>
+        <v>240.406941329948</v>
       </c>
       <c r="B21">
-        <v>80.9376513671155</v>
+        <v>85.8369157261418</v>
       </c>
       <c r="C21">
-        <v>460.508384876753</v>
+        <v>522.923752986913</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>522.914015659705</v>
+        <v>576.489854951648</v>
       </c>
       <c r="B22">
-        <v>211.487280452866</v>
+        <v>215.927588484803</v>
       </c>
       <c r="C22">
-        <v>1155.58013867611</v>
+        <v>1343.03260062477</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>880.022866884367</v>
+        <v>812.187184007126</v>
       </c>
       <c r="B23">
-        <v>348.840482584833</v>
+        <v>299.032227583532</v>
       </c>
       <c r="C23">
-        <v>1899.1768363629</v>
+        <v>1827.0657952032</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>362.645941377821</v>
+        <v>339.594173014591</v>
       </c>
       <c r="B24">
-        <v>140.859926943323</v>
+        <v>115.897468065301</v>
       </c>
       <c r="C24">
-        <v>791.614556401268</v>
+        <v>794.970841292789</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>366.966460609188</v>
+        <v>224.405813228883</v>
       </c>
       <c r="B25">
-        <v>99.0178995149618</v>
+        <v>61.1962837019464</v>
       </c>
       <c r="C25">
-        <v>1095.24891323737</v>
+        <v>722.581376812184</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>376.157225202239</v>
+        <v>417.778877417941</v>
       </c>
       <c r="B26">
-        <v>149.636823316595</v>
+        <v>160.244023813573</v>
       </c>
       <c r="C26">
-        <v>781.036168070501</v>
+        <v>871.363004584643</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>307.611445354324</v>
+        <v>340.153829592602</v>
       </c>
       <c r="B27">
-        <v>115.096590291764</v>
+        <v>121.413208149693</v>
       </c>
       <c r="C27">
-        <v>666.640608582707</v>
+        <v>747.34246999752</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>771.074925367201</v>
+        <v>833.665940089137</v>
       </c>
       <c r="B28">
-        <v>301.751922399216</v>
+        <v>305.658127376815</v>
       </c>
       <c r="C28">
-        <v>1734.67861330388</v>
+        <v>1958.98845670745</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>805.847400052142</v>
+        <v>766.520686526891</v>
       </c>
       <c r="B29">
-        <v>350.804593450186</v>
+        <v>308.489688307924</v>
       </c>
       <c r="C29">
-        <v>1623.77196034621</v>
+        <v>1611.11032904423</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>399.927715453813</v>
+        <v>381.423225859388</v>
       </c>
       <c r="B30">
-        <v>169.604324902477</v>
+        <v>143.071785277928</v>
       </c>
       <c r="C30">
-        <v>804.575147408802</v>
+        <v>830.088172591187</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>385.213921280489</v>
+        <v>279.845464886408</v>
       </c>
       <c r="B31">
-        <v>133.95678904784</v>
+        <v>91.5413854611171</v>
       </c>
       <c r="C31">
-        <v>965.0473574221</v>
+        <v>760.144823011041</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>565.927558229475</v>
+        <v>613.807447876134</v>
       </c>
       <c r="B32">
-        <v>214.382967910957</v>
+        <v>223.99464249723</v>
       </c>
       <c r="C32">
-        <v>1230.92277871188</v>
+        <v>1341.0569291659</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>463.489143217134</v>
+        <v>501.156277440124</v>
       </c>
       <c r="B33">
-        <v>163.18083236426</v>
+        <v>169.81253910653</v>
       </c>
       <c r="C33">
-        <v>1054.67831054526</v>
+        <v>1155.65879900087</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1197.72652197405</v>
+        <v>1259.65677757256</v>
       </c>
       <c r="B34">
-        <v>429.384191732706</v>
+        <v>425.434472283724</v>
       </c>
       <c r="C34">
-        <v>2873.36539293158</v>
+        <v>3115.09711451304</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>765.870370330409</v>
+        <v>747.249903771857</v>
       </c>
       <c r="B35">
-        <v>353.616756414283</v>
+        <v>319.666036032984</v>
       </c>
       <c r="C35">
-        <v>1458.98441863256</v>
+        <v>1491.69037052786</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>459.31332233786</v>
+        <v>445.897121170696</v>
       </c>
       <c r="B36">
-        <v>207.377239851459</v>
+        <v>178.579281149663</v>
       </c>
       <c r="C36">
-        <v>882.626369385449</v>
+        <v>930.152326974548</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>459.003682877565</v>
+        <v>379.800589241136</v>
       </c>
       <c r="B37">
-        <v>187.993100243475</v>
+        <v>140.016517978153</v>
       </c>
       <c r="C37">
-        <v>1020.87188046498</v>
+        <v>950.488357392019</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>894.383146104149</v>
+        <v>940.674149801889</v>
       </c>
       <c r="B38">
-        <v>303.222094243337</v>
+        <v>309.011216661824</v>
       </c>
       <c r="C38">
-        <v>2149.2798056332</v>
+        <v>2244.18954328416</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>732.805311583272</v>
+        <v>769.496137539921</v>
       </c>
       <c r="B39">
-        <v>234.149042267082</v>
+        <v>235.845488271605</v>
       </c>
       <c r="C39">
-        <v>1818.6881192474</v>
+        <v>1900.29858177546</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1961.69749582386</v>
+        <v>1991.10930544224</v>
       </c>
       <c r="B40">
-        <v>615.415232326208</v>
+        <v>590.350846372372</v>
       </c>
       <c r="C40">
-        <v>5203.67640915824</v>
+        <v>5338.77926552738</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>752.744291267148</v>
+        <v>752.092425562066</v>
       </c>
       <c r="B41">
-        <v>357.407393577642</v>
+        <v>329.705599591716</v>
       </c>
       <c r="C41">
-        <v>1403.03099290117</v>
+        <v>1491.78668690705</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>548.875538234331</v>
+        <v>543.311643007011</v>
       </c>
       <c r="B42">
-        <v>255.506164715974</v>
+        <v>221.854052986456</v>
       </c>
       <c r="C42">
-        <v>1031.80970566745</v>
+        <v>1116.73922686152</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>608.421470115006</v>
+        <v>552.406779594371</v>
       </c>
       <c r="B43">
-        <v>265.413703463984</v>
+        <v>212.746861367986</v>
       </c>
       <c r="C43">
-        <v>1295.32089141193</v>
+        <v>1332.04521632654</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
-        <v>1489.97726506028</v>
+        <v>1506.69637680659</v>
       </c>
       <c r="B44">
-        <v>433.296749192741</v>
+        <v>422.409948001845</v>
       </c>
       <c r="C44">
-        <v>4044.18519188769</v>
+        <v>4031.53286130554</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>1221.00387334822</v>
+        <v>1234.15033812064</v>
       </c>
       <c r="B45">
-        <v>330.920000591869</v>
+        <v>321.036264111634</v>
       </c>
       <c r="C45">
-        <v>3449.67508948195</v>
+        <v>3396.14354418037</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>3399.17056537665</v>
+        <v>3301.43340496646</v>
       </c>
       <c r="B46">
-        <v>882.016335669046</v>
+        <v>809.862229234226</v>
       </c>
       <c r="C46">
-        <v>10338.6735416134</v>
+        <v>9910.03929712301</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>764.366083381857</v>
+        <v>782.095483719069</v>
       </c>
       <c r="B47">
-        <v>356.826577223443</v>
+        <v>330.534445472776</v>
       </c>
       <c r="C47">
-        <v>1446.33617307504</v>
+        <v>1582.88676104876</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>683.34146006558</v>
+        <v>692.298260165728</v>
       </c>
       <c r="B48">
-        <v>312.662587849388</v>
+        <v>275.674176105983</v>
       </c>
       <c r="C48">
-        <v>1316.27376076381</v>
+        <v>1468.94289020601</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>878.856750187295</v>
+        <v>853.081540789379</v>
       </c>
       <c r="B49">
-        <v>376.006629480617</v>
+        <v>321.75041439271</v>
       </c>
       <c r="C49">
-        <v>1906.03879846418</v>
+        <v>2085.17554652795</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2633.0245444992</v>
+        <v>2529.79810034964</v>
       </c>
       <c r="B50">
-        <v>614.75983262554</v>
+        <v>575.330329579717</v>
       </c>
       <c r="C50">
-        <v>8147.63835206517</v>
+        <v>7739.42858467803</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>2159.77973133145</v>
+        <v>2074.24143948332</v>
       </c>
       <c r="B51">
-        <v>470.289294042584</v>
+        <v>437.317977608819</v>
       </c>
       <c r="C51">
-        <v>6854.79409206963</v>
+        <v>6474.05735186314</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>6263.64113799418</v>
+        <v>5764.5553177684</v>
       </c>
       <c r="B52">
-        <v>1282.15808782816</v>
+        <v>1109.75544754462</v>
       </c>
       <c r="C52">
-        <v>21741.2972925724</v>
+        <v>19414.4825951744</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>802.297752071465</v>
+        <v>841.640805719055</v>
       </c>
       <c r="B53">
-        <v>353.660504352465</v>
+        <v>330.624523170626</v>
       </c>
       <c r="C53">
-        <v>1600.83800303245</v>
+        <v>1814.45196042184</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>888.968874555973</v>
+        <v>927.031580609437</v>
       </c>
       <c r="B54">
-        <v>387.409321423947</v>
+        <v>340.129651599849</v>
       </c>
       <c r="C54">
-        <v>1825.60846670385</v>
+        <v>2120.01109296792</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>1363.24340307407</v>
+        <v>1392.99136436599</v>
       </c>
       <c r="B55">
-        <v>544.434635369856</v>
+        <v>482.812844751828</v>
       </c>
       <c r="C55">
-        <v>3087.07458081915</v>
+        <v>3623.31195786679</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>4983.89064691629</v>
+        <v>4468.9593397896</v>
       </c>
       <c r="B56">
-        <v>900.291878706522</v>
+        <v>783.173445496524</v>
       </c>
       <c r="C56">
-        <v>17527.0014017552</v>
+        <v>15850.9032162188</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>4101.93148900949</v>
+        <v>3667.32385650376</v>
       </c>
       <c r="B57">
-        <v>688.344520098582</v>
+        <v>596.250712889172</v>
       </c>
       <c r="C57">
-        <v>14810.2816484962</v>
+        <v>13188.9491083578</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>12359.843712229</v>
+        <v>10651.784117328</v>
       </c>
       <c r="B58">
-        <v>1896.37554217388</v>
+        <v>1532.20351464534</v>
       </c>
       <c r="C58">
-        <v>48494.6815077047</v>
+        <v>40599.2305863919</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>871.725526214933</v>
+        <v>939.450934058656</v>
       </c>
       <c r="B59">
-        <v>347.35678258084</v>
+        <v>325.765027510444</v>
       </c>
       <c r="C59">
-        <v>1909.92905555009</v>
+        <v>2216.17951879852</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>1213.74877984301</v>
+        <v>1312.66737818406</v>
       </c>
       <c r="B60">
-        <v>474.312091685097</v>
+        <v>421.655598098345</v>
       </c>
       <c r="C60">
-        <v>2783.12497595604</v>
+        <v>3422.87194960344</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>2253.47317449832</v>
+        <v>2404.53599146158</v>
       </c>
       <c r="B61">
-        <v>805.854520341261</v>
+        <v>732.045936551867</v>
       </c>
       <c r="C61">
-        <v>5582.221295425</v>
+        <v>6906.67284776815</v>
       </c>
     </row>
   </sheetData>
